--- a/ZelenakSz_13.A_lampak.xlsx
+++ b/ZelenakSz_13.A_lampak.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zelenaksz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zelenaksz\Desktop\cucc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D178CC-643F-43DE-8963-4E40686F0898}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC49CC6-DCAE-4D97-B19A-08ECC659FF75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{83E2134B-7878-4807-8A5C-88B4790D783A}"/>
   </bookViews>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A68BDDD-20BA-41B3-BFB5-B7E05B9F6C62}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,599 +468,999 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="B2" t="str">
+        <f ca="1">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
+        <v>F</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f>ROW(A2) &amp; "."</f>
         <v>2.</v>
       </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B66" ca="1" si="0">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
+        <v>C</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
-        <f t="shared" ref="A4:A67" si="0">ROW(A3) &amp; "."</f>
+        <f t="shared" ref="A4:A67" si="1">ROW(A3) &amp; "."</f>
         <v>3.</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>E</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>E</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>D</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>C</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>D</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>F</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>F</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>E</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>F</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>C</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>F</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25.</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26.</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27.</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28.</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30.</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31.</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32.</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33.</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34.</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35.</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36.</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37.</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38.</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39.</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40.</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41.</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42.</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43.</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44.</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45.</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46.</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47.</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48.</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49.</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50.</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51.</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52.</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53.</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55.</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56.</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57.</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58.</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60.</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61.</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62.</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63.</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64.</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65.</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66.</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67" t="str">
+        <f t="shared" ref="B67:B101" ca="1" si="2">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="str">
-        <f t="shared" ref="A68:A101" si="1">ROW(A67) &amp; "."</f>
+        <f t="shared" ref="A68:A101" si="3">ROW(A67) &amp; "."</f>
         <v>67.</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>68.</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>69.</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>70.</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>71.</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>72.</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>73.</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>74.</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>75.</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>76.</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>77.</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>78.</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>79.</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>80.</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>81.</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>82.</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>83.</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>84.</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>85.</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>86.</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>87.</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B88" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>88.</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B89" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>89.</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B90" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>90.</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B91" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>91.</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B92" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>92.</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B93" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>93.</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B94" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>94.</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B95" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>95.</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>96.</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>97.</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>98.</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>99.</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100.</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>B</v>
       </c>
     </row>
   </sheetData>

--- a/ZelenakSz_13.A_lampak.xlsx
+++ b/ZelenakSz_13.A_lampak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zelenaksz\Desktop\cucc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347D2020-2833-4787-A852-0636A27976BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA81650-D838-4912-A13C-4729BC577ACD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{83E2134B-7878-4807-8A5C-88B4790D783A}"/>
   </bookViews>
@@ -727,7 +727,7 @@
   <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,7 +762,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="str">
+      <c r="A2" s="4"/>
+      <c r="C2" t="str">
         <f>""</f>
         <v/>
       </c>
@@ -773,7 +774,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B66" ca="1" si="0">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -791,7 +792,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>B</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -800,7 +801,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>E</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -809,7 +810,7 @@
       </c>
       <c r="B7" t="str">
         <f ca="1">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -818,7 +819,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>A</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -836,7 +837,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>C</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -845,7 +846,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>E</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -854,7 +855,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>B</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -872,7 +873,7 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>D</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -890,7 +891,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -899,7 +900,7 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>F</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -917,7 +918,7 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>F</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -926,7 +927,7 @@
       </c>
       <c r="B20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>E</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -935,7 +936,7 @@
       </c>
       <c r="B21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>F</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -944,7 +945,7 @@
       </c>
       <c r="B22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>D</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -953,7 +954,7 @@
       </c>
       <c r="B23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>D</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -962,7 +963,7 @@
       </c>
       <c r="B24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>F</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -971,7 +972,7 @@
       </c>
       <c r="B25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>F</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -980,7 +981,7 @@
       </c>
       <c r="B26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>C</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -989,7 +990,7 @@
       </c>
       <c r="B27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>E</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -998,7 +999,7 @@
       </c>
       <c r="B28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>F</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1007,7 +1008,7 @@
       </c>
       <c r="B29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>B</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1016,7 +1017,7 @@
       </c>
       <c r="B30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>D</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1025,7 +1026,7 @@
       </c>
       <c r="B31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>F</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1034,7 +1035,7 @@
       </c>
       <c r="B32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>D</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1043,7 +1044,7 @@
       </c>
       <c r="B33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>E</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1052,7 +1053,7 @@
       </c>
       <c r="B34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>E</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1061,7 +1062,7 @@
       </c>
       <c r="B35" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>F</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1070,7 +1071,7 @@
       </c>
       <c r="B36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>F</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1079,7 +1080,7 @@
       </c>
       <c r="B37" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1097,7 +1098,7 @@
       </c>
       <c r="B39" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>A</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1106,7 +1107,7 @@
       </c>
       <c r="B40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>D</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1115,7 +1116,7 @@
       </c>
       <c r="B41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>E</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1124,7 +1125,7 @@
       </c>
       <c r="B42" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1133,7 +1134,7 @@
       </c>
       <c r="B43" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1142,7 +1143,7 @@
       </c>
       <c r="B44" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>B</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1151,7 +1152,7 @@
       </c>
       <c r="B45" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>D</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1160,7 +1161,7 @@
       </c>
       <c r="B46" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>A</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1178,7 +1179,7 @@
       </c>
       <c r="B48" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>E</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1187,7 +1188,7 @@
       </c>
       <c r="B49" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>E</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1196,7 +1197,7 @@
       </c>
       <c r="B50" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1205,7 +1206,7 @@
       </c>
       <c r="B51" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>B</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1214,7 +1215,7 @@
       </c>
       <c r="B52" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>A</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1223,7 +1224,7 @@
       </c>
       <c r="B53" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>A</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1232,7 +1233,7 @@
       </c>
       <c r="B54" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>F</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1241,7 +1242,7 @@
       </c>
       <c r="B55" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>B</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1250,7 +1251,7 @@
       </c>
       <c r="B56" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>D</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1259,7 +1260,7 @@
       </c>
       <c r="B57" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1268,7 +1269,7 @@
       </c>
       <c r="B58" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1286,7 +1287,7 @@
       </c>
       <c r="B60" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>F</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1295,7 +1296,7 @@
       </c>
       <c r="B61" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>A</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1304,7 +1305,7 @@
       </c>
       <c r="B62" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>A</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1322,7 +1323,7 @@
       </c>
       <c r="B64" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>D</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1340,7 +1341,7 @@
       </c>
       <c r="B66" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>F</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1349,7 +1350,7 @@
       </c>
       <c r="B67" t="str">
         <f t="shared" ref="B67:B102" ca="1" si="1">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
-        <v>E</v>
+        <v>B</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1358,7 +1359,7 @@
       </c>
       <c r="B68" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>E</v>
+        <v>C</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1367,7 +1368,7 @@
       </c>
       <c r="B69" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <v>C</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1385,7 +1386,7 @@
       </c>
       <c r="B71" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <v>E</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1394,7 +1395,7 @@
       </c>
       <c r="B72" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <v>B</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1403,7 +1404,7 @@
       </c>
       <c r="B73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <v>C</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1412,7 +1413,7 @@
       </c>
       <c r="B74" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>E</v>
+        <v>B</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1421,7 +1422,7 @@
       </c>
       <c r="B75" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>E</v>
+        <v>B</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1430,7 +1431,7 @@
       </c>
       <c r="B76" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D</v>
+        <v>A</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1439,7 +1440,7 @@
       </c>
       <c r="B77" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D</v>
+        <v>E</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1448,7 +1449,7 @@
       </c>
       <c r="B78" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>B</v>
+        <v>F</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1457,7 +1458,7 @@
       </c>
       <c r="B79" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>B</v>
+        <v>F</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1475,7 +1476,7 @@
       </c>
       <c r="B81" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>E</v>
+        <v>C</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1484,7 +1485,7 @@
       </c>
       <c r="B82" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>B</v>
+        <v>C</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1493,7 +1494,7 @@
       </c>
       <c r="B83" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>E</v>
+        <v>B</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1502,7 +1503,7 @@
       </c>
       <c r="B84" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D</v>
+        <v>E</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1511,7 +1512,7 @@
       </c>
       <c r="B85" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>B</v>
+        <v>C</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1520,7 +1521,7 @@
       </c>
       <c r="B86" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>C</v>
+        <v>D</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1529,7 +1530,7 @@
       </c>
       <c r="B87" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>E</v>
+        <v>C</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1538,7 +1539,7 @@
       </c>
       <c r="B88" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>B</v>
+        <v>E</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1547,7 +1548,7 @@
       </c>
       <c r="B89" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <v>B</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1556,7 +1557,7 @@
       </c>
       <c r="B90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>E</v>
+        <v>F</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -1565,7 +1566,7 @@
       </c>
       <c r="B91" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>E</v>
+        <v>D</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1574,7 +1575,7 @@
       </c>
       <c r="B92" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <v>D</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1583,7 +1584,7 @@
       </c>
       <c r="B93" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>E</v>
+        <v>F</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1592,7 +1593,7 @@
       </c>
       <c r="B94" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>C</v>
+        <v>E</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -1601,7 +1602,7 @@
       </c>
       <c r="B95" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D</v>
+        <v>E</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1610,7 +1611,7 @@
       </c>
       <c r="B96" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>B</v>
+        <v>E</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1619,7 +1620,7 @@
       </c>
       <c r="B97" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>A</v>
+        <v>D</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1628,7 +1629,7 @@
       </c>
       <c r="B98" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <v>D</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1646,7 +1647,7 @@
       </c>
       <c r="B100" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>A</v>
+        <v>D</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">

--- a/ZelenakSz_13.A_lampak.xlsx
+++ b/ZelenakSz_13.A_lampak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zelenaksz\Desktop\cucc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA81650-D838-4912-A13C-4729BC577ACD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3518B4-A70E-4EBA-86DE-175EFFCCA46D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{83E2134B-7878-4807-8A5C-88B4790D783A}"/>
   </bookViews>
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A68BDDD-20BA-41B3-BFB5-B7E05B9F6C62}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -774,7 +774,31 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B66" ca="1" si="0">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
-        <v>F</v>
+        <v>E</v>
+      </c>
+      <c r="C3" t="str">
+        <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $C$1, C2 = "Ég"),"Ég","")</f>
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $D$1, D2 = "Ég"),"Ég","")</f>
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $E$1, E2 = "Ég"),"Ég","")</f>
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $F$1, F2 = "Ég"),"Ég","")</f>
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $G$1, G2 = "Ég"),"Ég","")</f>
+        <v>Ég</v>
+      </c>
+      <c r="H3" t="str">
+        <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $H$1, H2 = "Ég"),"Ég","")</f>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -783,7 +807,31 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>D</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:C67" ca="1" si="1" xml:space="preserve"> IF(_xlfn.XOR(B4 = $C$1, C3 = "Ég"),"Ég","")</f>
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D67" ca="1" si="2" xml:space="preserve"> IF(_xlfn.XOR(B4 = $D$1, D3 = "Ég"),"Ég","")</f>
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E67" ca="1" si="3" xml:space="preserve"> IF(_xlfn.XOR(B4 = $E$1, E3 = "Ég"),"Ég","")</f>
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F67" ca="1" si="4" xml:space="preserve"> IF(_xlfn.XOR(B4 = $F$1, F3 = "Ég"),"Ég","")</f>
+        <v>Ég</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G67" ca="1" si="5" xml:space="preserve"> IF(_xlfn.XOR(B4 = $G$1, G3 = "Ég"),"Ég","")</f>
+        <v>Ég</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H67" ca="1" si="6" xml:space="preserve"> IF(_xlfn.XOR(B4 = $H$1, H3 = "Ég"),"Ég","")</f>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -792,7 +840,31 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>D</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -801,7 +873,31 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>F</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -810,7 +906,31 @@
       </c>
       <c r="B7" t="str">
         <f ca="1">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
-        <v>F</v>
+        <v>C</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -821,6 +941,30 @@
         <f t="shared" ca="1" si="0"/>
         <v>A</v>
       </c>
+      <c r="C8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -828,7 +972,31 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>A</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -837,7 +1005,31 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>E</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -846,7 +1038,31 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>F</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -857,6 +1073,30 @@
         <f t="shared" ca="1" si="0"/>
         <v>B</v>
       </c>
+      <c r="C12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -866,6 +1106,30 @@
         <f t="shared" ca="1" si="0"/>
         <v>F</v>
       </c>
+      <c r="C13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -873,7 +1137,31 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>A</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -882,7 +1170,31 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>D</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -891,73 +1203,265 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>E</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>B</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>A</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>E</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>B</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>C</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>C</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>C</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
@@ -965,8 +1469,32 @@
         <f t="shared" ca="1" si="0"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
@@ -974,26 +1502,98 @@
         <f t="shared" ca="1" si="0"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>A</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>C</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>34</v>
       </c>
@@ -1001,107 +1601,395 @@
         <f t="shared" ca="1" si="0"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>A</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>C</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>E</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>A</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>C</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>B</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>C</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>E</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>F</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>A</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>C</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>46</v>
       </c>
@@ -1109,8 +1997,32 @@
         <f t="shared" ca="1" si="0"/>
         <v>D</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
@@ -1118,26 +2030,98 @@
         <f t="shared" ca="1" si="0"/>
         <v>E</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+        <v>F</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>C</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>50</v>
       </c>
@@ -1145,71 +2129,263 @@
         <f t="shared" ca="1" si="0"/>
         <v>B</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+        <v>C</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+        <v>D</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+        <v>B</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+        <v>D</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+        <v>A</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+        <v>A</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+        <v>D</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>58</v>
       </c>
@@ -1217,26 +2393,98 @@
         <f t="shared" ca="1" si="0"/>
         <v>A</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+        <v>D</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+        <v>D</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>61</v>
       </c>
@@ -1244,17 +2492,65 @@
         <f t="shared" ca="1" si="0"/>
         <v>B</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+        <v>A</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>63</v>
       </c>
@@ -1262,53 +2558,197 @@
         <f t="shared" ca="1" si="0"/>
         <v>B</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+        <v>C</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+        <v>D</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+        <v>D</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+        <v>E</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+        <v>E</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>69</v>
       </c>
@@ -1316,26 +2756,98 @@
         <f t="shared" ca="1" si="0"/>
         <v>E</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+        <v>B</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+        <v>A</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>72</v>
       </c>
@@ -1343,329 +2855,1217 @@
         <f t="shared" ca="1" si="0"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B102" ca="1" si="1">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ref="B67:B102" ca="1" si="7">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
+        <v>E</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" ref="C68:C102" ca="1" si="8" xml:space="preserve"> IF(_xlfn.XOR(B68 = $C$1, C67 = "Ég"),"Ég","")</f>
+        <v/>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" ref="D68:D102" ca="1" si="9" xml:space="preserve"> IF(_xlfn.XOR(B68 = $D$1, D67 = "Ég"),"Ég","")</f>
+        <v>Ég</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" ref="E68:E102" ca="1" si="10" xml:space="preserve"> IF(_xlfn.XOR(B68 = $E$1, E67 = "Ég"),"Ég","")</f>
+        <v/>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" ref="F68:F102" ca="1" si="11" xml:space="preserve"> IF(_xlfn.XOR(B68 = $F$1, F67 = "Ég"),"Ég","")</f>
+        <v>Ég</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" ref="G68:G102" ca="1" si="12" xml:space="preserve"> IF(_xlfn.XOR(B68 = $G$1, G67 = "Ég"),"Ég","")</f>
+        <v>Ég</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" ref="H68:H102" ca="1" si="13" xml:space="preserve"> IF(_xlfn.XOR(B68 = $H$1, H67 = "Ég"),"Ég","")</f>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>D</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Ég</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>C</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Ég</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Ég</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Ég</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>C</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Ég</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Ég</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>D</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Ég</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Ég</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Ég</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>E</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Ég</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Ég</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>D</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Ég</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>D</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Ég</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Ég</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>F</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Ég</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Ég</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Ég</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Ég</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>F</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Ég</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Ég</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>C</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Ég</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Ég</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B81" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>E</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Ég</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Ég</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Ég</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B82" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>D</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Ég</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Ég</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>E</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Ég</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>E</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Ég</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>F</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Ég</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>C</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Ég</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>F</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Ég</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Ég</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Ég</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Ég</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>C</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Ég</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Ég</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>D</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Ég</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Ég</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Ég</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B94" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>E</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Ég</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Ég</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>C</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Ég</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Ég</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>D</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Ég</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>B</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>105</v>
       </c>
       <c r="B99" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>F</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B100" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>F</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B101" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>E</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>D</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
+      </c>
+      <c r="F101" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Ég</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>108</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>E</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>C</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="F102" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Ég</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
       </c>
     </row>
   </sheetData>

--- a/ZelenakSz_13.A_lampak.xlsx
+++ b/ZelenakSz_13.A_lampak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zelenaksz\Desktop\cucc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3518B4-A70E-4EBA-86DE-175EFFCCA46D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430CF6E8-3716-4320-96BC-E7F50073BBB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{83E2134B-7878-4807-8A5C-88B4790D783A}"/>
   </bookViews>
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A68BDDD-20BA-41B3-BFB5-B7E05B9F6C62}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B66" ca="1" si="0">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="C3" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $C$1, C2 = "Ég"),"Ég","")</f>
@@ -794,11 +794,15 @@
       </c>
       <c r="G3" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $G$1, G2 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H3" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $H$1, H2 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
+      </c>
+      <c r="I3">
+        <f ca="1">COUNTIF(B3:H3,"Ég")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -807,7 +811,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ref="C4:C67" ca="1" si="1" xml:space="preserve"> IF(_xlfn.XOR(B4 = $C$1, C3 = "Ég"),"Ég","")</f>
@@ -819,19 +823,23 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" ref="E4:E67" ca="1" si="3" xml:space="preserve"> IF(_xlfn.XOR(B4 = $E$1, E3 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F67" ca="1" si="4" xml:space="preserve"> IF(_xlfn.XOR(B4 = $F$1, F3 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G67" ca="1" si="5" xml:space="preserve"> IF(_xlfn.XOR(B4 = $G$1, G3 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H4" t="str">
         <f t="shared" ref="H4:H67" ca="1" si="6" xml:space="preserve"> IF(_xlfn.XOR(B4 = $H$1, H3 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I67" ca="1" si="7">COUNTIF(B4:H4,"Ég")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -840,7 +848,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -860,11 +868,15 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -873,7 +885,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -898,6 +910,10 @@
       <c r="H6" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Ég</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -906,7 +922,7 @@
       </c>
       <c r="B7" t="str">
         <f ca="1">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -918,7 +934,7 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F7" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -930,7 +946,11 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -939,11 +959,11 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -951,7 +971,7 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -959,11 +979,15 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -972,7 +996,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -984,19 +1008,23 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H9" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1017,19 +1045,23 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1038,11 +1070,11 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1050,19 +1082,23 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1071,19 +1107,19 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F12" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1091,11 +1127,15 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1104,19 +1144,19 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F13" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1128,7 +1168,11 @@
       </c>
       <c r="H13" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1141,15 +1185,15 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D14" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F14" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1161,7 +1205,11 @@
       </c>
       <c r="H14" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1170,11 +1218,11 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1182,11 +1230,11 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1194,7 +1242,11 @@
       </c>
       <c r="H15" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1203,44 +1255,48 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D16" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H16" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D17" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1252,24 +1308,28 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G17" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H17" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1285,28 +1345,32 @@
       </c>
       <c r="F18" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G18" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H18" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Ég</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1318,7 +1382,7 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G19" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1328,14 +1392,18 @@
         <f t="shared" ca="1" si="6"/>
         <v>Ég</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1343,7 +1411,7 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E20" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1351,7 +1419,7 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G20" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1361,14 +1429,18 @@
         <f t="shared" ca="1" si="6"/>
         <v>Ég</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1376,11 +1448,11 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E21" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1394,14 +1466,18 @@
         <f t="shared" ca="1" si="6"/>
         <v>Ég</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1427,14 +1503,18 @@
         <f t="shared" ca="1" si="6"/>
         <v>Ég</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1446,11 +1526,11 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G23" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1460,14 +1540,18 @@
         <f t="shared" ca="1" si="6"/>
         <v>Ég</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1475,15 +1559,15 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G24" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1491,16 +1575,20 @@
       </c>
       <c r="H24" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>Ég</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1512,11 +1600,11 @@
       </c>
       <c r="E25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G25" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1526,18 +1614,22 @@
         <f t="shared" ca="1" si="6"/>
         <v>Ég</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D26" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1545,11 +1637,11 @@
       </c>
       <c r="E26" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G26" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1557,20 +1649,24 @@
       </c>
       <c r="H26" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="I26">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D27" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1582,32 +1678,36 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G27" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D28" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E28" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1615,18 +1715,22 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G28" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -1636,11 +1740,11 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E29" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1648,18 +1752,22 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G29" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>36</v>
       </c>
@@ -1669,11 +1777,11 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E30" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1681,40 +1789,44 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G30" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G31" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1724,14 +1836,18 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1739,32 +1855,36 @@
       </c>
       <c r="D32" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E32" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G32" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H32" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1772,7 +1892,7 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1780,7 +1900,7 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G33" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1790,14 +1910,18 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1813,7 +1937,7 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G34" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1821,16 +1945,20 @@
       </c>
       <c r="H34" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>Ég</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1842,11 +1970,11 @@
       </c>
       <c r="E35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1856,14 +1984,18 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1875,28 +2007,32 @@
       </c>
       <c r="E36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G36" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>Ég</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1908,7 +2044,7 @@
       </c>
       <c r="E37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1916,14 +2052,18 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Ég</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>44</v>
       </c>
@@ -1941,7 +2081,7 @@
       </c>
       <c r="E38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1949,14 +2089,18 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Ég</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>45</v>
       </c>
@@ -1974,7 +2118,7 @@
       </c>
       <c r="E39" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F39" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1982,14 +2126,18 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Ég</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>46</v>
       </c>
@@ -2007,7 +2155,7 @@
       </c>
       <c r="E40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F40" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2015,20 +2163,24 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Ég</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2040,7 +2192,7 @@
       </c>
       <c r="E41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F41" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2052,16 +2204,20 @@
       </c>
       <c r="H41" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="I41">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2073,11 +2229,11 @@
       </c>
       <c r="E42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2087,14 +2243,18 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2120,14 +2280,18 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2135,11 +2299,11 @@
       </c>
       <c r="D44" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E44" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2153,8 +2317,12 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>51</v>
       </c>
@@ -2168,11 +2336,11 @@
       </c>
       <c r="D45" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E45" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F45" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2186,14 +2354,18 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2201,7 +2373,7 @@
       </c>
       <c r="D46" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E46" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2209,7 +2381,7 @@
       </c>
       <c r="F46" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G46" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2219,18 +2391,22 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2242,7 +2418,7 @@
       </c>
       <c r="F47" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G47" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2252,8 +2428,12 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>54</v>
       </c>
@@ -2263,7 +2443,7 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2275,7 +2455,7 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2285,14 +2465,18 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2318,22 +2502,26 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2351,14 +2539,18 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2366,7 +2558,7 @@
       </c>
       <c r="D51" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2374,7 +2566,7 @@
       </c>
       <c r="F51" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G51" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2384,18 +2576,22 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D52" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2407,7 +2603,7 @@
       </c>
       <c r="F52" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G52" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2417,18 +2613,22 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D53" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2436,7 +2636,7 @@
       </c>
       <c r="E53" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F53" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2450,18 +2650,22 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D54" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2469,28 +2673,32 @@
       </c>
       <c r="E54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F54" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G54" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H54" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2498,36 +2706,40 @@
       </c>
       <c r="D55" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F55" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G55" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H55" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2535,44 +2747,48 @@
       </c>
       <c r="E56" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F56" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G56" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H56" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G57" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2582,18 +2798,22 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2605,7 +2825,7 @@
       </c>
       <c r="F58" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G58" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2615,14 +2835,18 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2648,8 +2872,12 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>66</v>
       </c>
@@ -2681,14 +2909,18 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2696,7 +2928,7 @@
       </c>
       <c r="D61" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2708,14 +2940,18 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>68</v>
       </c>
@@ -2729,7 +2965,7 @@
       </c>
       <c r="D62" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2741,20 +2977,24 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H62" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2762,11 +3002,11 @@
       </c>
       <c r="D63" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2780,14 +3020,18 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2799,11 +3043,11 @@
       </c>
       <c r="E64" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G64" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2813,30 +3057,34 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D65" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G65" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2846,14 +3094,18 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2861,15 +3113,15 @@
       </c>
       <c r="D66" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E66" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G66" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2877,16 +3129,20 @@
       </c>
       <c r="H66" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="I66">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B102" ca="1" si="7">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
-        <v>E</v>
+        <f t="shared" ref="B67:B102" ca="1" si="8">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
+        <v>F</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2894,1178 +3150,1322 @@
       </c>
       <c r="D67" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E67" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G67" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H67" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>Ég</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I67">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>A</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>F</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" ref="C68:C102" ca="1" si="8" xml:space="preserve"> IF(_xlfn.XOR(B68 = $C$1, C67 = "Ég"),"Ég","")</f>
-        <v/>
+        <f t="shared" ref="C68:C102" ca="1" si="9" xml:space="preserve"> IF(_xlfn.XOR(B68 = $C$1, C67 = "Ég"),"Ég","")</f>
+        <v>Ég</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" ref="D68:D102" ca="1" si="9" xml:space="preserve"> IF(_xlfn.XOR(B68 = $D$1, D67 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <f t="shared" ref="D68:D102" ca="1" si="10" xml:space="preserve"> IF(_xlfn.XOR(B68 = $D$1, D67 = "Ég"),"Ég","")</f>
+        <v/>
       </c>
       <c r="E68" t="str">
-        <f t="shared" ref="E68:E102" ca="1" si="10" xml:space="preserve"> IF(_xlfn.XOR(B68 = $E$1, E67 = "Ég"),"Ég","")</f>
-        <v/>
+        <f t="shared" ref="E68:E102" ca="1" si="11" xml:space="preserve"> IF(_xlfn.XOR(B68 = $E$1, E67 = "Ég"),"Ég","")</f>
+        <v>Ég</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" ref="F68:F102" ca="1" si="11" xml:space="preserve"> IF(_xlfn.XOR(B68 = $F$1, F67 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <f t="shared" ref="F68:F102" ca="1" si="12" xml:space="preserve"> IF(_xlfn.XOR(B68 = $F$1, F67 = "Ég"),"Ég","")</f>
+        <v/>
       </c>
       <c r="G68" t="str">
-        <f t="shared" ref="G68:G102" ca="1" si="12" xml:space="preserve"> IF(_xlfn.XOR(B68 = $G$1, G67 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <f t="shared" ref="G68:G102" ca="1" si="13" xml:space="preserve"> IF(_xlfn.XOR(B68 = $G$1, G67 = "Ég"),"Ég","")</f>
+        <v/>
       </c>
       <c r="H68" t="str">
-        <f t="shared" ref="H68:H102" ca="1" si="13" xml:space="preserve"> IF(_xlfn.XOR(B68 = $H$1, H67 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ref="H68:H102" ca="1" si="14" xml:space="preserve"> IF(_xlfn.XOR(B68 = $H$1, H67 = "Ég"),"Ég","")</f>
+        <v/>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68:I102" ca="1" si="15">COUNTIF(B68:H68,"Ég")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>D</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="10"/>
+        <v/>
       </c>
       <c r="E69" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
+        <f t="shared" ca="1" si="11"/>
+        <v>Ég</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
+        <f t="shared" ca="1" si="12"/>
+        <v>Ég</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="13"/>
+        <v/>
       </c>
       <c r="H69" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="I69">
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>C</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>B</v>
       </c>
       <c r="C70" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>Ég</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
+        <f t="shared" ca="1" si="12"/>
+        <v>Ég</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="13"/>
+        <v/>
       </c>
       <c r="H70" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="I70">
+        <f t="shared" ca="1" si="15"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>A</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>E</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>Ég</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
+        <f t="shared" ca="1" si="12"/>
+        <v>Ég</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>Ég</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="I71">
+        <f t="shared" ca="1" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>C</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>F</v>
       </c>
       <c r="C72" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
+        <f t="shared" ca="1" si="11"/>
+        <v>Ég</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
+        <f t="shared" ca="1" si="12"/>
+        <v>Ég</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>Ég</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v>Ég</v>
+      </c>
+      <c r="I72">
+        <f t="shared" ca="1" si="15"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>D</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>C</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="F73" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>Ég</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>Ég</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v>Ég</v>
+      </c>
+      <c r="I73">
+        <f t="shared" ca="1" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>E</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>B</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="10"/>
+        <v/>
       </c>
       <c r="E74" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="F74" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>Ég</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v>Ég</v>
+      </c>
+      <c r="I74">
+        <f t="shared" ca="1" si="15"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>D</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>C</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="10"/>
+        <v/>
       </c>
       <c r="E75" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
+        <f t="shared" ca="1" si="11"/>
+        <v>Ég</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
+        <f t="shared" ca="1" si="12"/>
+        <v>Ég</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v>Ég</v>
+      </c>
+      <c r="I75">
+        <f t="shared" ca="1" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>D</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="10"/>
+        <v/>
       </c>
       <c r="E76" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
+        <f t="shared" ca="1" si="11"/>
+        <v>Ég</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="12"/>
+        <v/>
       </c>
       <c r="G76" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v>Ég</v>
+      </c>
+      <c r="I76">
+        <f t="shared" ca="1" si="15"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>B</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
+        <f t="shared" ca="1" si="11"/>
+        <v>Ég</v>
       </c>
       <c r="F77" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="12"/>
+        <v/>
       </c>
       <c r="G77" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v>Ég</v>
+      </c>
+      <c r="I77">
+        <f t="shared" ca="1" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>B</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>D</v>
       </c>
       <c r="C78" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
+        <f t="shared" ca="1" si="11"/>
+        <v>Ég</v>
       </c>
       <c r="F78" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>Ég</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v>Ég</v>
+      </c>
+      <c r="I78">
+        <f t="shared" ca="1" si="15"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>D</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
+        <f t="shared" ca="1" si="11"/>
+        <v>Ég</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="12"/>
+        <v/>
       </c>
       <c r="G79" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v>Ég</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ca="1" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>C</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>E</v>
       </c>
       <c r="C80" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>Ég</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="12"/>
+        <v/>
       </c>
       <c r="G80" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="H80" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v>Ég</v>
+      </c>
+      <c r="I80">
+        <f t="shared" ca="1" si="15"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B81" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>E</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>D</v>
       </c>
       <c r="C81" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>Ég</v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>Ég</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="13"/>
+        <v/>
       </c>
       <c r="H81" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v>Ég</v>
+      </c>
+      <c r="I81">
+        <f t="shared" ca="1" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B82" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>D</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>A</v>
       </c>
       <c r="C82" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="9"/>
+        <v/>
       </c>
       <c r="D82" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>Ég</v>
       </c>
       <c r="F82" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
+        <f t="shared" ca="1" si="12"/>
+        <v>Ég</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="13"/>
+        <v/>
       </c>
       <c r="H82" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v>Ég</v>
+      </c>
+      <c r="I82">
+        <f t="shared" ca="1" si="15"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>E</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>A</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>Ég</v>
       </c>
       <c r="F83" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
+        <f t="shared" ca="1" si="12"/>
+        <v>Ég</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="H83" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v>Ég</v>
+      </c>
+      <c r="I83">
+        <f t="shared" ca="1" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>A</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>F</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>Ég</v>
       </c>
       <c r="F84" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
+        <f t="shared" ca="1" si="12"/>
+        <v>Ég</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="H84" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="I84">
+        <f t="shared" ca="1" si="15"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>C</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>E</v>
       </c>
       <c r="C85" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
+        <f t="shared" ca="1" si="11"/>
+        <v>Ég</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
+        <f t="shared" ca="1" si="12"/>
+        <v>Ég</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="I85">
+        <f t="shared" ca="1" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>E</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>D</v>
       </c>
       <c r="C86" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
+        <f t="shared" ca="1" si="11"/>
+        <v>Ég</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="G86" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>Ég</v>
       </c>
       <c r="H86" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="I86">
+        <f t="shared" ca="1" si="15"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>B</v>
       </c>
       <c r="C87" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="E87" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
+        <f t="shared" ca="1" si="11"/>
+        <v>Ég</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="G87" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>Ég</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="I87">
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>C</v>
       </c>
       <c r="C88" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="E88" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="11"/>
+        <v/>
       </c>
       <c r="F88" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="G88" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>Ég</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="I88">
+        <f t="shared" ca="1" si="15"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>F</v>
       </c>
       <c r="C89" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="E89" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="11"/>
+        <v/>
       </c>
       <c r="F89" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="G89" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>Ég</v>
       </c>
       <c r="H89" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v>Ég</v>
+      </c>
+      <c r="I89">
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>B</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>E</v>
       </c>
       <c r="C90" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="10"/>
+        <v/>
       </c>
       <c r="E90" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="11"/>
+        <v/>
       </c>
       <c r="F90" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="G90" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="13"/>
+        <v/>
       </c>
       <c r="H90" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v>Ég</v>
+      </c>
+      <c r="I90">
+        <f t="shared" ca="1" si="15"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>A</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>E</v>
       </c>
       <c r="C91" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="10"/>
+        <v/>
       </c>
       <c r="E91" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="11"/>
+        <v/>
       </c>
       <c r="F91" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="G91" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>Ég</v>
       </c>
       <c r="H91" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v>Ég</v>
+      </c>
+      <c r="I91">
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>C</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>B</v>
       </c>
       <c r="C92" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="F92" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="G92" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>Ég</v>
       </c>
       <c r="H92" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v>Ég</v>
+      </c>
+      <c r="I92">
+        <f t="shared" ca="1" si="15"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>D</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>B</v>
       </c>
       <c r="C93" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="10"/>
+        <v/>
       </c>
       <c r="E93" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="F93" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="12"/>
+        <v/>
       </c>
       <c r="G93" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>Ég</v>
       </c>
       <c r="H93" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v>Ég</v>
+      </c>
+      <c r="I93">
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B94" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>E</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>F</v>
       </c>
       <c r="C94" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="10"/>
+        <v/>
       </c>
       <c r="E94" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="F94" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="12"/>
+        <v/>
       </c>
       <c r="G94" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
       </c>
       <c r="H94" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="I94">
+        <f t="shared" ca="1" si="15"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>C</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>F</v>
       </c>
       <c r="C95" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="10"/>
+        <v/>
       </c>
       <c r="E95" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="11"/>
+        <v/>
       </c>
       <c r="F95" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="12"/>
+        <v/>
       </c>
       <c r="G95" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
       </c>
       <c r="H95" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v>Ég</v>
+      </c>
+      <c r="I95">
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>D</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>A</v>
       </c>
       <c r="C96" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="9"/>
+        <v/>
       </c>
       <c r="D96" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="10"/>
+        <v/>
       </c>
       <c r="E96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="11"/>
+        <v/>
       </c>
       <c r="F96" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="G96" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
       </c>
       <c r="H96" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v>Ég</v>
+      </c>
+      <c r="I96">
+        <f t="shared" ca="1" si="15"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>A</v>
       </c>
       <c r="C97" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
       </c>
       <c r="D97" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="10"/>
+        <v/>
       </c>
       <c r="E97" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="11"/>
+        <v/>
       </c>
       <c r="F97" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="G97" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
       </c>
       <c r="H97" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v>Ég</v>
+      </c>
+      <c r="I97">
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>B</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>F</v>
       </c>
       <c r="C98" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
+        <f t="shared" ca="1" si="9"/>
+        <v>Ég</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="E98" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="11"/>
+        <v/>
       </c>
       <c r="F98" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="G98" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
       </c>
       <c r="H98" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="I98">
+        <f t="shared" ca="1" si="15"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>105</v>
       </c>
       <c r="B99" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>A</v>
       </c>
       <c r="C99" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="D99" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="E99" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="11"/>
+        <v/>
       </c>
       <c r="F99" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="G99" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
       </c>
       <c r="H99" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="I99">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B100" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>F</v>
       </c>
       <c r="C100" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="D100" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="E100" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="11"/>
+        <v/>
       </c>
       <c r="F100" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="G100" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
       </c>
       <c r="H100" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v>Ég</v>
+      </c>
+      <c r="I100">
+        <f t="shared" ca="1" si="15"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B101" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>D</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>B</v>
       </c>
       <c r="C101" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="D101" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="11"/>
+        <v/>
       </c>
       <c r="F101" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="12"/>
+        <v/>
       </c>
       <c r="G101" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
       </c>
       <c r="H101" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="14"/>
+        <v>Ég</v>
+      </c>
+      <c r="I101">
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>108</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>C</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>F</v>
       </c>
       <c r="C102" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="D102" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
+        <f t="shared" ca="1" si="10"/>
+        <v>Ég</v>
       </c>
       <c r="E102" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="F102" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="12"/>
+        <v/>
       </c>
       <c r="G102" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <f t="shared" ca="1" si="13"/>
+        <v>Ég</v>
       </c>
       <c r="H102" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="I102">
+        <f t="shared" ca="1" si="15"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/ZelenakSz_13.A_lampak.xlsx
+++ b/ZelenakSz_13.A_lampak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zelenaksz\Desktop\cucc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430CF6E8-3716-4320-96BC-E7F50073BBB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8ABD90-30AF-4F75-BC8B-F4AAFEBE60AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{83E2134B-7878-4807-8A5C-88B4790D783A}"/>
   </bookViews>
@@ -412,9 +412,59 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -428,7 +478,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -726,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A68BDDD-20BA-41B3-BFB5-B7E05B9F6C62}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -774,7 +824,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B66" ca="1" si="0">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="C3" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $C$1, C2 = "Ég"),"Ég","")</f>
@@ -794,11 +844,11 @@
       </c>
       <c r="G3" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $G$1, G2 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H3" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $H$1, H2 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I3">
         <f ca="1">COUNTIF(B3:H3,"Ég")</f>
@@ -811,7 +861,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ref="C4:C67" ca="1" si="1" xml:space="preserve"> IF(_xlfn.XOR(B4 = $C$1, C3 = "Ég"),"Ég","")</f>
@@ -823,19 +873,19 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" ref="E4:E67" ca="1" si="3" xml:space="preserve"> IF(_xlfn.XOR(B4 = $E$1, E3 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F67" ca="1" si="4" xml:space="preserve"> IF(_xlfn.XOR(B4 = $F$1, F3 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G67" ca="1" si="5" xml:space="preserve"> IF(_xlfn.XOR(B4 = $G$1, G3 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ref="H4:H67" ca="1" si="6" xml:space="preserve"> IF(_xlfn.XOR(B4 = $H$1, H3 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I67" ca="1" si="7">COUNTIF(B4:H4,"Ég")</f>
@@ -848,11 +898,11 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -864,19 +914,19 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -885,15 +935,15 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -901,7 +951,7 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -909,11 +959,11 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -922,11 +972,11 @@
       </c>
       <c r="B7" t="str">
         <f ca="1">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -938,7 +988,7 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -950,7 +1000,7 @@
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -959,11 +1009,11 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -975,19 +1025,19 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1000,7 +1050,7 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1012,19 +1062,19 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1033,11 +1083,11 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1057,11 +1107,11 @@
       </c>
       <c r="H10" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1070,7 +1120,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1107,7 +1157,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1119,11 +1169,11 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1135,7 +1185,7 @@
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1144,7 +1194,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1152,19 +1202,19 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1172,7 +1222,7 @@
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1181,11 +1231,11 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1193,15 +1243,15 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1209,7 +1259,7 @@
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1218,35 +1268,35 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
+        <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B15 = $H$1, H14 = "Ég"),"Ég","")</f>
+        <v>Ég</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1255,11 +1305,11 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1271,19 +1321,19 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1292,11 +1342,11 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1304,15 +1354,15 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1320,7 +1370,7 @@
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1329,11 +1379,11 @@
       </c>
       <c r="B18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1341,11 +1391,11 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F18" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1353,7 +1403,7 @@
       </c>
       <c r="H18" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="7"/>
@@ -1366,7 +1416,7 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1378,11 +1428,11 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F19" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1403,11 +1453,11 @@
       </c>
       <c r="B20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1415,7 +1465,7 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F20" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1444,7 +1494,7 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1452,7 +1502,7 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F21" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1477,19 +1527,19 @@
       </c>
       <c r="B22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1497,7 +1547,7 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1514,11 +1564,11 @@
       </c>
       <c r="B23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1526,15 +1576,15 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1542,7 +1592,7 @@
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1551,19 +1601,19 @@
       </c>
       <c r="B24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F24" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1571,7 +1621,7 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1579,7 +1629,7 @@
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1588,11 +1638,11 @@
       </c>
       <c r="B25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1600,15 +1650,15 @@
       </c>
       <c r="E25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F25" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1616,7 +1666,7 @@
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1625,11 +1675,11 @@
       </c>
       <c r="B26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1641,19 +1691,19 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1666,7 +1716,7 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1678,19 +1728,19 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H27" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1699,15 +1749,15 @@
       </c>
       <c r="B28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1715,7 +1765,7 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1723,11 +1773,11 @@
       </c>
       <c r="H28" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1736,7 +1786,7 @@
       </c>
       <c r="B29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1744,7 +1794,7 @@
       </c>
       <c r="D29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1760,11 +1810,11 @@
       </c>
       <c r="H29" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1773,7 +1823,7 @@
       </c>
       <c r="B30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1781,11 +1831,11 @@
       </c>
       <c r="D30" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1801,7 +1851,7 @@
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1810,7 +1860,7 @@
       </c>
       <c r="B31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1847,7 +1897,7 @@
       </c>
       <c r="B32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1867,15 +1917,15 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1884,7 +1934,7 @@
       </c>
       <c r="B33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1892,7 +1942,7 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1908,11 +1958,11 @@
       </c>
       <c r="H33" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1921,15 +1971,15 @@
       </c>
       <c r="B34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1958,15 +2008,15 @@
       </c>
       <c r="B35" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D35" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1978,11 +2028,11 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H35" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="7"/>
@@ -1995,7 +2045,7 @@
       </c>
       <c r="B36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2003,7 +2053,7 @@
       </c>
       <c r="D36" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2015,7 +2065,7 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H36" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2032,7 +2082,7 @@
       </c>
       <c r="B37" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2040,7 +2090,7 @@
       </c>
       <c r="D37" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2048,7 +2098,7 @@
       </c>
       <c r="F37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G37" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2069,15 +2119,15 @@
       </c>
       <c r="B38" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2085,7 +2135,7 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G38" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2093,7 +2143,7 @@
       </c>
       <c r="H38" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="7"/>
@@ -2106,19 +2156,19 @@
       </c>
       <c r="B39" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2130,11 +2180,11 @@
       </c>
       <c r="H39" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -2143,11 +2193,11 @@
       </c>
       <c r="B40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2155,11 +2205,11 @@
       </c>
       <c r="E40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2167,11 +2217,11 @@
       </c>
       <c r="H40" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -2180,11 +2230,11 @@
       </c>
       <c r="B41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2192,7 +2242,7 @@
       </c>
       <c r="E41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2208,7 +2258,7 @@
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -2217,11 +2267,11 @@
       </c>
       <c r="B42" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2229,11 +2279,11 @@
       </c>
       <c r="E42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G42" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2241,11 +2291,11 @@
       </c>
       <c r="H42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -2254,7 +2304,7 @@
       </c>
       <c r="B43" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2266,7 +2316,7 @@
       </c>
       <c r="E43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2278,11 +2328,11 @@
       </c>
       <c r="H43" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -2291,11 +2341,11 @@
       </c>
       <c r="B44" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2315,11 +2365,11 @@
       </c>
       <c r="H44" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -2328,11 +2378,11 @@
       </c>
       <c r="B45" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2340,11 +2390,11 @@
       </c>
       <c r="E45" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2352,11 +2402,11 @@
       </c>
       <c r="H45" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -2365,7 +2415,7 @@
       </c>
       <c r="B46" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2381,7 +2431,7 @@
       </c>
       <c r="F46" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2389,11 +2439,11 @@
       </c>
       <c r="H46" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -2402,15 +2452,15 @@
       </c>
       <c r="B47" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D47" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2418,7 +2468,7 @@
       </c>
       <c r="F47" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2426,11 +2476,11 @@
       </c>
       <c r="H47" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -2439,15 +2489,15 @@
       </c>
       <c r="B48" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D48" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2459,11 +2509,11 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H48" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="7"/>
@@ -2476,11 +2526,11 @@
       </c>
       <c r="B49" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D49" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2492,15 +2542,15 @@
       </c>
       <c r="F49" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H49" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="7"/>
@@ -2513,15 +2563,15 @@
       </c>
       <c r="B50" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D50" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E50" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2529,11 +2579,11 @@
       </c>
       <c r="F50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H50" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2541,7 +2591,7 @@
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -2554,11 +2604,11 @@
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E51" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2566,11 +2616,11 @@
       </c>
       <c r="F51" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H51" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2591,11 +2641,11 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2603,11 +2653,11 @@
       </c>
       <c r="F52" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H52" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2615,7 +2665,7 @@
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -2628,11 +2678,11 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2640,11 +2690,11 @@
       </c>
       <c r="F53" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H53" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2652,7 +2702,7 @@
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -2661,7 +2711,7 @@
       </c>
       <c r="B54" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2669,7 +2719,7 @@
       </c>
       <c r="D54" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2677,7 +2727,7 @@
       </c>
       <c r="F54" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2689,7 +2739,7 @@
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -2706,7 +2756,7 @@
       </c>
       <c r="D55" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2714,7 +2764,7 @@
       </c>
       <c r="F55" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2726,7 +2776,7 @@
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -2735,11 +2785,11 @@
       </c>
       <c r="B56" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D56" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2751,7 +2801,7 @@
       </c>
       <c r="F56" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2772,7 +2822,7 @@
       </c>
       <c r="B57" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2788,11 +2838,11 @@
       </c>
       <c r="F57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H57" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2825,11 +2875,11 @@
       </c>
       <c r="F58" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H58" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2846,11 +2896,11 @@
       </c>
       <c r="B59" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2862,19 +2912,19 @@
       </c>
       <c r="F59" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H59" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -2883,11 +2933,11 @@
       </c>
       <c r="B60" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2907,11 +2957,11 @@
       </c>
       <c r="H60" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -2920,15 +2970,15 @@
       </c>
       <c r="B61" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E61" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2940,11 +2990,11 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H61" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="7"/>
@@ -2957,19 +3007,19 @@
       </c>
       <c r="B62" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2981,11 +3031,11 @@
       </c>
       <c r="H62" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -2994,7 +3044,7 @@
       </c>
       <c r="B63" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3002,7 +3052,7 @@
       </c>
       <c r="D63" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E63" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3018,7 +3068,7 @@
       </c>
       <c r="H63" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="7"/>
@@ -3031,7 +3081,7 @@
       </c>
       <c r="B64" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3039,7 +3089,7 @@
       </c>
       <c r="D64" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E64" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3047,19 +3097,19 @@
       </c>
       <c r="F64" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -3068,11 +3118,11 @@
       </c>
       <c r="B65" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3084,19 +3134,19 @@
       </c>
       <c r="F65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -3105,7 +3155,7 @@
       </c>
       <c r="B66" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3117,23 +3167,23 @@
       </c>
       <c r="E66" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F66" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I66">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -3154,19 +3204,19 @@
       </c>
       <c r="E67" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F67" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="7"/>
@@ -3179,7 +3229,7 @@
       </c>
       <c r="B68" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" ref="C68:C102" ca="1" si="9" xml:space="preserve"> IF(_xlfn.XOR(B68 = $C$1, C67 = "Ég"),"Ég","")</f>
@@ -3187,19 +3237,19 @@
       </c>
       <c r="D68" t="str">
         <f t="shared" ref="D68:D102" ca="1" si="10" xml:space="preserve"> IF(_xlfn.XOR(B68 = $D$1, D67 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" ref="E68:E102" ca="1" si="11" xml:space="preserve"> IF(_xlfn.XOR(B68 = $E$1, E67 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F68" t="str">
         <f t="shared" ref="F68:F102" ca="1" si="12" xml:space="preserve"> IF(_xlfn.XOR(B68 = $F$1, F67 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" ref="G68:G102" ca="1" si="13" xml:space="preserve"> IF(_xlfn.XOR(B68 = $G$1, G67 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" ref="H68:H102" ca="1" si="14" xml:space="preserve"> IF(_xlfn.XOR(B68 = $H$1, H67 = "Ég"),"Ég","")</f>
@@ -3207,7 +3257,7 @@
       </c>
       <c r="I68">
         <f t="shared" ref="I68:I102" ca="1" si="15">COUNTIF(B68:H68,"Ég")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -3216,7 +3266,7 @@
       </c>
       <c r="B69" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3224,7 +3274,7 @@
       </c>
       <c r="D69" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3236,7 +3286,7 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3244,7 +3294,7 @@
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -3253,7 +3303,7 @@
       </c>
       <c r="B70" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3273,15 +3323,15 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -3290,11 +3340,11 @@
       </c>
       <c r="B71" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D71" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3314,7 +3364,7 @@
       </c>
       <c r="H71" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="15"/>
@@ -3331,7 +3381,7 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D72" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3351,11 +3401,11 @@
       </c>
       <c r="H72" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -3364,11 +3414,11 @@
       </c>
       <c r="B73" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D73" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3376,7 +3426,7 @@
       </c>
       <c r="E73" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3384,15 +3434,15 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H73" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -3401,7 +3451,7 @@
       </c>
       <c r="B74" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3409,11 +3459,11 @@
       </c>
       <c r="D74" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3421,11 +3471,11 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H74" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="15"/>
@@ -3438,7 +3488,7 @@
       </c>
       <c r="B75" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3446,7 +3496,7 @@
       </c>
       <c r="D75" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3462,7 +3512,7 @@
       </c>
       <c r="H75" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="15"/>
@@ -3475,15 +3525,15 @@
       </c>
       <c r="B76" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D76" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3491,7 +3541,7 @@
       </c>
       <c r="F76" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -3499,7 +3549,7 @@
       </c>
       <c r="H76" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="15"/>
@@ -3512,11 +3562,11 @@
       </c>
       <c r="B77" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D77" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3524,11 +3574,11 @@
       </c>
       <c r="E77" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F77" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -3536,11 +3586,11 @@
       </c>
       <c r="H77" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -3553,7 +3603,7 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D78" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3561,11 +3611,11 @@
       </c>
       <c r="E78" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F78" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G78" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -3573,11 +3623,11 @@
       </c>
       <c r="H78" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -3586,11 +3636,11 @@
       </c>
       <c r="B79" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D79" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3598,7 +3648,7 @@
       </c>
       <c r="E79" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F79" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3614,7 +3664,7 @@
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -3627,7 +3677,7 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D80" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3635,7 +3685,7 @@
       </c>
       <c r="E80" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F80" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3651,7 +3701,7 @@
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -3660,11 +3710,11 @@
       </c>
       <c r="B81" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D81" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3672,11 +3722,11 @@
       </c>
       <c r="E81" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F81" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G81" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -3684,11 +3734,11 @@
       </c>
       <c r="H81" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -3697,7 +3747,7 @@
       </c>
       <c r="B82" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3709,7 +3759,7 @@
       </c>
       <c r="E82" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F82" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3721,11 +3771,11 @@
       </c>
       <c r="H82" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -3746,7 +3796,7 @@
       </c>
       <c r="E83" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F83" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3758,11 +3808,11 @@
       </c>
       <c r="H83" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -3771,7 +3821,7 @@
       </c>
       <c r="B84" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3808,11 +3858,11 @@
       </c>
       <c r="B85" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D85" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3828,7 +3878,7 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H85" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3836,7 +3886,7 @@
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -3845,11 +3895,11 @@
       </c>
       <c r="B86" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D86" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3861,15 +3911,15 @@
       </c>
       <c r="F86" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H86" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="15"/>
@@ -3882,15 +3932,15 @@
       </c>
       <c r="B87" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D87" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3902,11 +3952,11 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H87" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="15"/>
@@ -3923,11 +3973,11 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D88" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3939,11 +3989,11 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H88" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I88">
         <f t="shared" ca="1" si="15"/>
@@ -3956,11 +4006,11 @@
       </c>
       <c r="B89" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D89" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3976,7 +4026,7 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H89" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3984,7 +4034,7 @@
       </c>
       <c r="I89">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -3993,11 +4043,11 @@
       </c>
       <c r="B90" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D90" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4017,11 +4067,11 @@
       </c>
       <c r="H90" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I90">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -4030,11 +4080,11 @@
       </c>
       <c r="B91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D91" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4042,7 +4092,7 @@
       </c>
       <c r="E91" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4050,15 +4100,15 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -4067,35 +4117,35 @@
       </c>
       <c r="B92" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D92" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E92" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H92" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -4108,27 +4158,27 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D93" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H93" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="15"/>
@@ -4145,31 +4195,31 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D94" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H94" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I94">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -4178,23 +4228,23 @@
       </c>
       <c r="B95" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D95" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4206,7 +4256,7 @@
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -4219,19 +4269,19 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4243,7 +4293,7 @@
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -4252,7 +4302,7 @@
       </c>
       <c r="B97" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4260,15 +4310,15 @@
       </c>
       <c r="D97" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4276,11 +4326,11 @@
       </c>
       <c r="H97" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -4289,7 +4339,7 @@
       </c>
       <c r="B98" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4297,19 +4347,19 @@
       </c>
       <c r="D98" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H98" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4317,7 +4367,7 @@
       </c>
       <c r="I98">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -4326,35 +4376,35 @@
       </c>
       <c r="B99" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F99" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H99" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -4363,7 +4413,7 @@
       </c>
       <c r="B100" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4371,19 +4421,19 @@
       </c>
       <c r="D100" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H100" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4391,7 +4441,7 @@
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -4408,19 +4458,19 @@
       </c>
       <c r="D101" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E101" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H101" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4437,7 +4487,7 @@
       </c>
       <c r="B102" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4445,11 +4495,11 @@
       </c>
       <c r="D102" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E102" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4457,11 +4507,11 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H102" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I102">
         <f t="shared" ca="1" si="15"/>
@@ -4469,6 +4519,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C3:H102">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$I3 = 6</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ZelenakSz_13.A_lampak.xlsx
+++ b/ZelenakSz_13.A_lampak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zelenaksz\Desktop\cucc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8ABD90-30AF-4F75-BC8B-F4AAFEBE60AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5209B690-A4BF-4C56-AFC7-FED8EE9F5189}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{83E2134B-7878-4807-8A5C-88B4790D783A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
   <si>
     <t>Sorszám</t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t>100.</t>
+  </si>
+  <si>
+    <t>Előfordulás</t>
+  </si>
+  <si>
+    <t>Először ég az összes:</t>
   </si>
 </sst>
 </file>
@@ -384,7 +390,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -392,11 +398,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -410,53 +431,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -774,15 +757,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A68BDDD-20BA-41B3-BFB5-B7E05B9F6C62}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -811,24 +797,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="C2" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B66" ca="1" si="0">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="C3" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $C$1, C2 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D3" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $D$1, D2 = "Ég"),"Ég","")</f>
@@ -844,7 +830,7 @@
       </c>
       <c r="G3" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $G$1, G2 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H3" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $H$1, H2 = "Ég"),"Ég","")</f>
@@ -854,14 +840,35 @@
         <f ca="1">COUNTIF(B3:H3,"Ég")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6">
+        <v>2</v>
+      </c>
+      <c r="N3" s="6">
+        <v>3</v>
+      </c>
+      <c r="O3" s="6">
+        <v>4</v>
+      </c>
+      <c r="P3" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ref="C4:C67" ca="1" si="1" xml:space="preserve"> IF(_xlfn.XOR(B4 = $C$1, C3 = "Ég"),"Ég","")</f>
@@ -877,11 +884,11 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F67" ca="1" si="4" xml:space="preserve"> IF(_xlfn.XOR(B4 = $F$1, F3 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G67" ca="1" si="5" xml:space="preserve"> IF(_xlfn.XOR(B4 = $G$1, G3 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H4" t="str">
         <f t="shared" ref="H4:H67" ca="1" si="6" xml:space="preserve"> IF(_xlfn.XOR(B4 = $H$1, H3 = "Ég"),"Ég","")</f>
@@ -889,20 +896,47 @@
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I67" ca="1" si="7">COUNTIF(B4:H4,"Ég")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4">
+        <f ca="1">COUNTIF($I$3:$I$102,1)</f>
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <f ca="1">COUNTIF($I$3:$I$102,2)</f>
+        <v>26</v>
+      </c>
+      <c r="N4">
+        <f ca="1">COUNTIF($I$3:$I$102,3)</f>
+        <v>32</v>
+      </c>
+      <c r="O4">
+        <f ca="1">COUNTIF($I$3:$I$102,4)</f>
+        <v>22</v>
+      </c>
+      <c r="P4">
+        <f ca="1">COUNTIF($I$3:$I$102,5)</f>
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <f ca="1">COUNTIF($I$3:$I$102,6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D5" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -918,7 +952,7 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H5" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -926,16 +960,19 @@
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -943,7 +980,7 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -955,7 +992,7 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H6" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -963,10 +1000,10 @@
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -980,7 +1017,7 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -992,7 +1029,7 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H7" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1003,13 +1040,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1017,7 +1054,7 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1025,28 +1062,28 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1054,7 +1091,7 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1066,7 +1103,7 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H9" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1077,13 +1114,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1091,19 +1128,19 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G10" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H10" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1114,7 +1151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -1128,19 +1165,19 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H11" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1151,7 +1188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1165,19 +1202,19 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H12" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1185,16 +1222,16 @@
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1206,11 +1243,11 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1222,16 +1259,16 @@
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1239,11 +1276,11 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F14" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1262,13 +1299,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1276,15 +1313,15 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1292,20 +1329,20 @@
       </c>
       <c r="H15" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B15 = $H$1, H14 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1313,7 +1350,7 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1321,28 +1358,28 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H16" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1350,7 +1387,7 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1358,7 +1395,7 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G17" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1373,13 +1410,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1387,19 +1424,19 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G18" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1407,16 +1444,16 @@
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1428,32 +1465,32 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G19" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1473,24 +1510,24 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1506,11 +1543,11 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G21" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1521,13 +1558,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1543,7 +1580,7 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G22" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1551,20 +1588,20 @@
       </c>
       <c r="H22" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1572,15 +1609,15 @@
       </c>
       <c r="D23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G23" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1588,14 +1625,14 @@
       </c>
       <c r="H23" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
@@ -1609,15 +1646,15 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1625,20 +1662,20 @@
       </c>
       <c r="H24" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1650,7 +1687,7 @@
       </c>
       <c r="E25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1662,20 +1699,20 @@
       </c>
       <c r="H25" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="7"/>
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1691,7 +1728,7 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G26" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1699,14 +1736,14 @@
       </c>
       <c r="H26" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>33</v>
       </c>
@@ -1728,7 +1765,7 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G27" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1736,24 +1773,24 @@
       </c>
       <c r="H27" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D28" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1765,28 +1802,28 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G28" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H28" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1806,24 +1843,24 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H29" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1839,11 +1876,11 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H30" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1854,7 +1891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>37</v>
       </c>
@@ -1876,11 +1913,11 @@
       </c>
       <c r="F31" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H31" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1891,7 +1928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>38</v>
       </c>
@@ -1913,11 +1950,11 @@
       </c>
       <c r="F32" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H32" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1928,7 +1965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>39</v>
       </c>
@@ -1950,11 +1987,11 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H33" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1965,17 +2002,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1983,15 +2020,15 @@
       </c>
       <c r="E34" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F34" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H34" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2002,7 +2039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
@@ -2012,7 +2049,7 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2020,15 +2057,15 @@
       </c>
       <c r="E35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2036,16 +2073,16 @@
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2057,7 +2094,7 @@
       </c>
       <c r="E36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F36" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2065,7 +2102,7 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2076,13 +2113,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2113,17 +2150,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D38" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2143,20 +2180,20 @@
       </c>
       <c r="H38" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2172,7 +2209,7 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G39" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2180,20 +2217,20 @@
       </c>
       <c r="H39" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="7"/>
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2201,15 +2238,15 @@
       </c>
       <c r="D40" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G40" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2217,32 +2254,32 @@
       </c>
       <c r="H40" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D41" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F41" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2254,32 +2291,32 @@
       </c>
       <c r="H41" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D42" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F42" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2287,7 +2324,7 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H42" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2295,16 +2332,16 @@
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2312,11 +2349,11 @@
       </c>
       <c r="D43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F43" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2335,25 +2372,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D44" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F44" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2365,24 +2402,24 @@
       </c>
       <c r="H44" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D45" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2390,11 +2427,11 @@
       </c>
       <c r="E45" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F45" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G45" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2402,14 +2439,14 @@
       </c>
       <c r="H45" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>52</v>
       </c>
@@ -2419,7 +2456,7 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2427,11 +2464,11 @@
       </c>
       <c r="E46" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F46" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G46" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2439,36 +2476,36 @@
       </c>
       <c r="H46" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E47" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F47" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G47" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2480,28 +2517,28 @@
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E48" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F48" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2509,7 +2546,7 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2520,17 +2557,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2538,7 +2575,7 @@
       </c>
       <c r="E49" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F49" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2557,7 +2594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>56</v>
       </c>
@@ -2567,7 +2604,7 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2575,7 +2612,7 @@
       </c>
       <c r="E50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F50" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2594,13 +2631,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2612,7 +2649,7 @@
       </c>
       <c r="E51" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F51" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2624,14 +2661,14 @@
       </c>
       <c r="H51" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>58</v>
       </c>
@@ -2649,7 +2686,7 @@
       </c>
       <c r="E52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F52" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2661,20 +2698,20 @@
       </c>
       <c r="H52" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2705,7 +2742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>60</v>
       </c>
@@ -2742,17 +2779,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D55" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2764,7 +2801,7 @@
       </c>
       <c r="F55" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G55" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2776,16 +2813,16 @@
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2801,11 +2838,11 @@
       </c>
       <c r="F56" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G56" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2816,17 +2853,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D57" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2838,7 +2875,7 @@
       </c>
       <c r="F57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G57" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2850,10 +2887,10 @@
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>64</v>
       </c>
@@ -2863,7 +2900,7 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D58" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2875,7 +2912,7 @@
       </c>
       <c r="F58" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G58" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2887,10 +2924,10 @@
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>65</v>
       </c>
@@ -2900,7 +2937,7 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D59" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2912,7 +2949,7 @@
       </c>
       <c r="F59" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G59" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2924,16 +2961,16 @@
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2949,11 +2986,11 @@
       </c>
       <c r="F60" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G60" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H60" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2961,16 +2998,16 @@
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3001,13 +3038,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3019,11 +3056,11 @@
       </c>
       <c r="E62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G62" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3035,32 +3072,32 @@
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F63" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G63" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3075,25 +3112,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F64" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3101,7 +3138,7 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H64" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3112,13 +3149,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3126,19 +3163,19 @@
       </c>
       <c r="D65" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G65" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H65" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3146,16 +3183,16 @@
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3163,7 +3200,7 @@
       </c>
       <c r="D66" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3171,28 +3208,28 @@
       </c>
       <c r="F66" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G66" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H66" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I66">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" ref="B67:B102" ca="1" si="8">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3200,19 +3237,19 @@
       </c>
       <c r="D67" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G67" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H67" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3223,13 +3260,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" ref="C68:C102" ca="1" si="9" xml:space="preserve"> IF(_xlfn.XOR(B68 = $C$1, C67 = "Ég"),"Ég","")</f>
@@ -3241,7 +3278,7 @@
       </c>
       <c r="E68" t="str">
         <f t="shared" ref="E68:E102" ca="1" si="11" xml:space="preserve"> IF(_xlfn.XOR(B68 = $E$1, E67 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" ref="F68:F102" ca="1" si="12" xml:space="preserve"> IF(_xlfn.XOR(B68 = $F$1, F67 = "Ég"),"Ég","")</f>
@@ -3249,7 +3286,7 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" ref="G68:G102" ca="1" si="13" xml:space="preserve"> IF(_xlfn.XOR(B68 = $G$1, G67 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H68" t="str">
         <f t="shared" ref="H68:H102" ca="1" si="14" xml:space="preserve"> IF(_xlfn.XOR(B68 = $H$1, H67 = "Ég"),"Ég","")</f>
@@ -3260,13 +3297,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3274,7 +3311,7 @@
       </c>
       <c r="D69" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E69" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3286,7 +3323,7 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H69" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3294,10 +3331,10 @@
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>76</v>
       </c>
@@ -3311,7 +3348,7 @@
       </c>
       <c r="D70" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E70" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3323,7 +3360,7 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H70" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3331,24 +3368,24 @@
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E71" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3371,7 +3408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>78</v>
       </c>
@@ -3381,11 +3418,11 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E72" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3408,21 +3445,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E73" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3434,24 +3471,24 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3459,7 +3496,7 @@
       </c>
       <c r="D74" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E74" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3475,20 +3512,20 @@
       </c>
       <c r="H74" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="15"/>
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3496,11 +3533,11 @@
       </c>
       <c r="D75" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E75" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F75" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3508,28 +3545,28 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H75" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3537,7 +3574,7 @@
       </c>
       <c r="E76" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F76" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3545,18 +3582,18 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H76" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="15"/>
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>83</v>
       </c>
@@ -3566,7 +3603,7 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3574,7 +3611,7 @@
       </c>
       <c r="E77" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3582,18 +3619,18 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H77" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>84</v>
       </c>
@@ -3603,7 +3640,7 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3611,7 +3648,7 @@
       </c>
       <c r="E78" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3619,28 +3656,28 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H78" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3656,7 +3693,7 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H79" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3667,17 +3704,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3697,28 +3734,28 @@
       </c>
       <c r="H80" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E81" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3741,29 +3778,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E82" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G82" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -3778,13 +3815,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3796,11 +3833,11 @@
       </c>
       <c r="E83" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G83" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -3815,7 +3852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>90</v>
       </c>
@@ -3833,11 +3870,11 @@
       </c>
       <c r="E84" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F84" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G84" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -3849,10 +3886,10 @@
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>91</v>
       </c>
@@ -3870,11 +3907,11 @@
       </c>
       <c r="E85" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F85" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G85" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -3886,16 +3923,16 @@
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3907,32 +3944,32 @@
       </c>
       <c r="E86" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F86" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G86" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3940,11 +3977,11 @@
       </c>
       <c r="D87" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E87" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F87" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3952,24 +3989,24 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3977,7 +4014,7 @@
       </c>
       <c r="D88" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E88" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3989,7 +4026,7 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4000,13 +4037,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4022,11 +4059,11 @@
       </c>
       <c r="F89" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4034,16 +4071,16 @@
       </c>
       <c r="I89">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4059,7 +4096,7 @@
       </c>
       <c r="F90" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4067,20 +4104,20 @@
       </c>
       <c r="H90" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I90">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4092,7 +4129,7 @@
       </c>
       <c r="E91" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F91" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4104,20 +4141,20 @@
       </c>
       <c r="H91" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4125,15 +4162,15 @@
       </c>
       <c r="D92" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F92" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G92" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4141,20 +4178,20 @@
       </c>
       <c r="H92" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4166,7 +4203,7 @@
       </c>
       <c r="E93" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F93" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4178,20 +4215,20 @@
       </c>
       <c r="H93" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4203,11 +4240,11 @@
       </c>
       <c r="E94" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F94" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G94" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4219,20 +4256,20 @@
       </c>
       <c r="I94">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4240,15 +4277,15 @@
       </c>
       <c r="E95" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F95" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G95" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H95" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4256,16 +4293,16 @@
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4281,11 +4318,11 @@
       </c>
       <c r="F96" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G96" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H96" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4293,16 +4330,16 @@
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4310,7 +4347,7 @@
       </c>
       <c r="D97" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E97" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4318,28 +4355,28 @@
       </c>
       <c r="F97" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G97" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H97" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4347,15 +4384,15 @@
       </c>
       <c r="D98" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E98" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F98" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G98" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4363,20 +4400,20 @@
       </c>
       <c r="H98" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I98">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>105</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4388,11 +4425,11 @@
       </c>
       <c r="E99" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F99" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G99" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4404,20 +4441,20 @@
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4425,11 +4462,11 @@
       </c>
       <c r="E100" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F100" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G100" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4437,36 +4474,36 @@
       </c>
       <c r="H100" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F101" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G101" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4481,21 +4518,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>108</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4515,12 +4552,12 @@
       </c>
       <c r="I102">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:H102">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$I3 = 6</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ZelenakSz_13.A_lampak.xlsx
+++ b/ZelenakSz_13.A_lampak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zelenaksz\Desktop\cucc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5209B690-A4BF-4C56-AFC7-FED8EE9F5189}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA99ACA1-5881-4B66-9C93-BCED78A77C29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{83E2134B-7878-4807-8A5C-88B4790D783A}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -433,6 +433,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -757,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A68BDDD-20BA-41B3-BFB5-B7E05B9F6C62}">
-  <dimension ref="A1:Q102"/>
+  <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +771,7 @@
     <col min="11" max="11" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,24 +800,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="C2" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B66" ca="1" si="0">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C3" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $C$1, C2 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D3" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $D$1, D2 = "Ég"),"Ég","")</f>
@@ -826,7 +829,7 @@
       </c>
       <c r="F3" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $F$1, F2 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G3" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $G$1, G2 = "Ég"),"Ég","")</f>
@@ -861,14 +864,17 @@
       <c r="Q3" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ref="C4:C67" ca="1" si="1" xml:space="preserve"> IF(_xlfn.XOR(B4 = $C$1, C3 = "Ég"),"Ég","")</f>
@@ -901,38 +907,42 @@
       <c r="K4" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="6">
         <f ca="1">COUNTIF($I$3:$I$102,1)</f>
+        <v>14</v>
+      </c>
+      <c r="M4" s="6">
+        <f ca="1">COUNTIF($I$3:$I$102,2)</f>
+        <v>25</v>
+      </c>
+      <c r="N4" s="6">
+        <f ca="1">COUNTIF($I$3:$I$102,3)</f>
+        <v>26</v>
+      </c>
+      <c r="O4" s="6">
+        <f ca="1">COUNTIF($I$3:$I$102,4)</f>
+        <v>18</v>
+      </c>
+      <c r="P4" s="6">
+        <f ca="1">COUNTIF($I$3:$I$102,5)</f>
         <v>10</v>
       </c>
-      <c r="M4">
-        <f ca="1">COUNTIF($I$3:$I$102,2)</f>
-        <v>26</v>
-      </c>
-      <c r="N4">
-        <f ca="1">COUNTIF($I$3:$I$102,3)</f>
-        <v>32</v>
-      </c>
-      <c r="O4">
-        <f ca="1">COUNTIF($I$3:$I$102,4)</f>
-        <v>22</v>
-      </c>
-      <c r="P4">
-        <f ca="1">COUNTIF($I$3:$I$102,5)</f>
-        <v>8</v>
-      </c>
-      <c r="Q4">
+      <c r="Q4" s="6">
         <f ca="1">COUNTIF($I$3:$I$102,6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="R4" s="6">
+        <f ca="1">COUNTIF($I$3:$I$102,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -944,11 +954,11 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -966,17 +976,17 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -984,15 +994,15 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1003,13 +1013,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="str">
         <f ca="1">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1017,19 +1027,19 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1040,13 +1050,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1058,7 +1068,7 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1066,7 +1076,7 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1074,16 +1084,16 @@
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1095,32 +1105,32 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1136,11 +1146,11 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1148,16 +1158,16 @@
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1165,7 +1175,7 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1173,28 +1183,28 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1206,26 +1216,26 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
@@ -1243,32 +1253,32 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H13" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1280,7 +1290,7 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1292,20 +1302,20 @@
       </c>
       <c r="H14" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1321,7 +1331,7 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1329,20 +1339,20 @@
       </c>
       <c r="H15" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B15 = $H$1, H14 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1358,11 +1368,11 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1370,7 +1380,7 @@
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1379,7 +1389,7 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1387,7 +1397,7 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E17" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1395,7 +1405,7 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1424,7 +1434,7 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E18" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1432,7 +1442,7 @@
       </c>
       <c r="F18" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1453,7 +1463,7 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1465,11 +1475,11 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F19" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1490,7 +1500,7 @@
       </c>
       <c r="B20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1527,11 +1537,11 @@
       </c>
       <c r="B21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D21" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1551,11 +1561,11 @@
       </c>
       <c r="H21" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1564,11 +1574,11 @@
       </c>
       <c r="B22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D22" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1580,7 +1590,7 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1601,11 +1611,11 @@
       </c>
       <c r="B23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D23" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1613,7 +1623,7 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F23" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1629,7 +1639,7 @@
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1638,7 +1648,7 @@
       </c>
       <c r="B24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1650,11 +1660,11 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F24" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G24" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1666,7 +1676,7 @@
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1675,7 +1685,7 @@
       </c>
       <c r="B25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1683,19 +1693,19 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F25" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G25" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H25" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1703,7 +1713,7 @@
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1720,19 +1730,19 @@
       </c>
       <c r="D26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E26" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F26" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H26" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1740,7 +1750,7 @@
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1757,19 +1767,19 @@
       </c>
       <c r="D27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F27" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1794,19 +1804,19 @@
       </c>
       <c r="D28" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E28" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F28" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1823,19 +1833,19 @@
       </c>
       <c r="B29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E29" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F29" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1843,7 +1853,7 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1851,7 +1861,7 @@
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1860,23 +1870,23 @@
       </c>
       <c r="B30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D30" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E30" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G30" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1888,7 +1898,7 @@
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1897,11 +1907,11 @@
       </c>
       <c r="B31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D31" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1909,7 +1919,7 @@
       </c>
       <c r="E31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F31" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1925,7 +1935,7 @@
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1934,11 +1944,11 @@
       </c>
       <c r="B32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D32" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1946,11 +1956,11 @@
       </c>
       <c r="E32" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F32" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G32" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1958,11 +1968,11 @@
       </c>
       <c r="H32" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1971,35 +1981,35 @@
       </c>
       <c r="B33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2008,15 +2018,15 @@
       </c>
       <c r="B34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E34" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2028,15 +2038,15 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2045,15 +2055,15 @@
       </c>
       <c r="B35" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D35" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E35" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2061,7 +2071,7 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2069,11 +2079,11 @@
       </c>
       <c r="H35" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2082,7 +2092,7 @@
       </c>
       <c r="B36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2090,7 +2100,7 @@
       </c>
       <c r="D36" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2106,11 +2116,11 @@
       </c>
       <c r="H36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2119,19 +2129,19 @@
       </c>
       <c r="B37" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D37" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F37" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2143,11 +2153,11 @@
       </c>
       <c r="H37" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2160,15 +2170,15 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F38" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2180,11 +2190,11 @@
       </c>
       <c r="H38" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2193,7 +2203,7 @@
       </c>
       <c r="B39" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2201,11 +2211,11 @@
       </c>
       <c r="D39" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E39" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F39" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2221,7 +2231,7 @@
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2230,7 +2240,7 @@
       </c>
       <c r="B40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2238,7 +2248,7 @@
       </c>
       <c r="D40" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E40" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2254,11 +2264,11 @@
       </c>
       <c r="H40" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2267,15 +2277,15 @@
       </c>
       <c r="B41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E41" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2283,7 +2293,7 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2291,7 +2301,7 @@
       </c>
       <c r="H41" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="7"/>
@@ -2304,15 +2314,15 @@
       </c>
       <c r="B42" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E42" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2320,11 +2330,11 @@
       </c>
       <c r="F42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2332,7 +2342,7 @@
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2341,15 +2351,15 @@
       </c>
       <c r="B43" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E43" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2357,7 +2367,7 @@
       </c>
       <c r="F43" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2365,7 +2375,7 @@
       </c>
       <c r="H43" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="7"/>
@@ -2382,11 +2392,11 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E44" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2394,7 +2404,7 @@
       </c>
       <c r="F44" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2402,11 +2412,11 @@
       </c>
       <c r="H44" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2415,11 +2425,11 @@
       </c>
       <c r="B45" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2439,11 +2449,11 @@
       </c>
       <c r="H45" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2452,7 +2462,7 @@
       </c>
       <c r="B46" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2468,7 +2478,7 @@
       </c>
       <c r="F46" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2476,11 +2486,11 @@
       </c>
       <c r="H46" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2505,7 +2515,7 @@
       </c>
       <c r="F47" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2513,7 +2523,7 @@
       </c>
       <c r="H47" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="7"/>
@@ -2526,7 +2536,7 @@
       </c>
       <c r="B48" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2534,7 +2544,7 @@
       </c>
       <c r="D48" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2550,7 +2560,7 @@
       </c>
       <c r="H48" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="7"/>
@@ -2563,7 +2573,7 @@
       </c>
       <c r="B49" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2583,11 +2593,11 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="7"/>
@@ -2600,7 +2610,7 @@
       </c>
       <c r="B50" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2612,7 +2622,7 @@
       </c>
       <c r="E50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2620,7 +2630,7 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2628,7 +2638,7 @@
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2637,7 +2647,7 @@
       </c>
       <c r="B51" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2657,11 +2667,11 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="7"/>
@@ -2674,7 +2684,7 @@
       </c>
       <c r="B52" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2682,7 +2692,7 @@
       </c>
       <c r="D52" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E52" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2694,7 +2704,7 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2711,7 +2721,7 @@
       </c>
       <c r="B53" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2731,15 +2741,15 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2748,15 +2758,15 @@
       </c>
       <c r="B54" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E54" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2768,15 +2778,15 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2785,35 +2795,35 @@
       </c>
       <c r="B55" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2822,15 +2832,15 @@
       </c>
       <c r="B56" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E56" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2838,7 +2848,7 @@
       </c>
       <c r="F56" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2846,11 +2856,11 @@
       </c>
       <c r="H56" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2859,35 +2869,35 @@
       </c>
       <c r="B57" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2896,11 +2906,11 @@
       </c>
       <c r="B58" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2908,15 +2918,15 @@
       </c>
       <c r="E58" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2924,7 +2934,7 @@
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2933,35 +2943,35 @@
       </c>
       <c r="B59" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2970,7 +2980,7 @@
       </c>
       <c r="B60" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2982,23 +2992,23 @@
       </c>
       <c r="E60" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3019,19 +3029,19 @@
       </c>
       <c r="E61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G61" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="7"/>
@@ -3044,7 +3054,7 @@
       </c>
       <c r="B62" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3064,11 +3074,11 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="7"/>
@@ -3081,7 +3091,7 @@
       </c>
       <c r="B63" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3089,11 +3099,11 @@
       </c>
       <c r="D63" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E63" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3101,11 +3111,11 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="7"/>
@@ -3118,7 +3128,7 @@
       </c>
       <c r="B64" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3126,15 +3136,15 @@
       </c>
       <c r="D64" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E64" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G64" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3142,11 +3152,11 @@
       </c>
       <c r="H64" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3163,15 +3173,15 @@
       </c>
       <c r="D65" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3179,7 +3189,7 @@
       </c>
       <c r="H65" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="7"/>
@@ -3192,23 +3202,23 @@
       </c>
       <c r="B66" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D66" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E66" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3229,7 +3239,7 @@
       </c>
       <c r="B67" t="str">
         <f t="shared" ref="B67:B102" ca="1" si="8">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3237,7 +3247,7 @@
       </c>
       <c r="D67" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E67" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3245,7 +3255,7 @@
       </c>
       <c r="F67" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3266,7 +3276,7 @@
       </c>
       <c r="B68" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" ref="C68:C102" ca="1" si="9" xml:space="preserve"> IF(_xlfn.XOR(B68 = $C$1, C67 = "Ég"),"Ég","")</f>
@@ -3274,11 +3284,11 @@
       </c>
       <c r="D68" t="str">
         <f t="shared" ref="D68:D102" ca="1" si="10" xml:space="preserve"> IF(_xlfn.XOR(B68 = $D$1, D67 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E68" t="str">
         <f t="shared" ref="E68:E102" ca="1" si="11" xml:space="preserve"> IF(_xlfn.XOR(B68 = $E$1, E67 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F68" t="str">
         <f t="shared" ref="F68:F102" ca="1" si="12" xml:space="preserve"> IF(_xlfn.XOR(B68 = $F$1, F67 = "Ég"),"Ég","")</f>
@@ -3294,7 +3304,7 @@
       </c>
       <c r="I68">
         <f t="shared" ref="I68:I102" ca="1" si="15">COUNTIF(B68:H68,"Ég")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3303,11 +3313,11 @@
       </c>
       <c r="B69" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D69" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3315,7 +3325,7 @@
       </c>
       <c r="E69" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F69" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3331,7 +3341,7 @@
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3340,11 +3350,11 @@
       </c>
       <c r="B70" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D70" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3352,7 +3362,7 @@
       </c>
       <c r="E70" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F70" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3360,15 +3370,15 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3377,7 +3387,7 @@
       </c>
       <c r="B71" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3389,7 +3399,7 @@
       </c>
       <c r="E71" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F71" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3401,11 +3411,11 @@
       </c>
       <c r="H71" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3414,7 +3424,7 @@
       </c>
       <c r="B72" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3451,7 +3461,7 @@
       </c>
       <c r="B73" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3471,15 +3481,15 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H73" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3488,11 +3498,11 @@
       </c>
       <c r="B74" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D74" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3512,11 +3522,11 @@
       </c>
       <c r="H74" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3525,11 +3535,11 @@
       </c>
       <c r="B75" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D75" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3537,11 +3547,11 @@
       </c>
       <c r="E75" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G75" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -3549,11 +3559,11 @@
       </c>
       <c r="H75" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3566,7 +3576,7 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D76" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3574,11 +3584,11 @@
       </c>
       <c r="E76" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G76" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -3586,11 +3596,11 @@
       </c>
       <c r="H76" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3599,15 +3609,15 @@
       </c>
       <c r="B77" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D77" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E77" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3615,7 +3625,7 @@
       </c>
       <c r="F77" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G77" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -3623,11 +3633,11 @@
       </c>
       <c r="H77" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3636,11 +3646,11 @@
       </c>
       <c r="B78" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D78" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3660,11 +3670,11 @@
       </c>
       <c r="H78" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3673,11 +3683,11 @@
       </c>
       <c r="B79" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D79" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3685,7 +3695,7 @@
       </c>
       <c r="E79" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3693,11 +3703,11 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="15"/>
@@ -3710,19 +3720,19 @@
       </c>
       <c r="B80" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D80" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E80" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3730,7 +3740,7 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3747,11 +3757,11 @@
       </c>
       <c r="B81" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D81" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3759,7 +3769,7 @@
       </c>
       <c r="E81" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3767,15 +3777,15 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3788,7 +3798,7 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D82" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3796,7 +3806,7 @@
       </c>
       <c r="E82" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F82" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3804,11 +3814,11 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="15"/>
@@ -3821,19 +3831,19 @@
       </c>
       <c r="B83" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D83" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E83" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F83" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3841,7 +3851,7 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3849,7 +3859,7 @@
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3862,15 +3872,15 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D84" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E84" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3878,7 +3888,7 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3895,7 +3905,7 @@
       </c>
       <c r="B85" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3907,7 +3917,7 @@
       </c>
       <c r="E85" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3915,7 +3925,7 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3923,7 +3933,7 @@
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3932,11 +3942,11 @@
       </c>
       <c r="B86" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3944,7 +3954,7 @@
       </c>
       <c r="E86" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3960,7 +3970,7 @@
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3969,15 +3979,15 @@
       </c>
       <c r="B87" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3997,7 +4007,7 @@
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -4006,15 +4016,15 @@
       </c>
       <c r="B88" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4026,11 +4036,11 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H88" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I88">
         <f t="shared" ca="1" si="15"/>
@@ -4043,15 +4053,15 @@
       </c>
       <c r="B89" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4059,7 +4069,7 @@
       </c>
       <c r="F89" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G89" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4067,7 +4077,7 @@
       </c>
       <c r="H89" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I89">
         <f t="shared" ca="1" si="15"/>
@@ -4080,11 +4090,11 @@
       </c>
       <c r="B90" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4096,15 +4106,15 @@
       </c>
       <c r="F90" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G90" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I90">
         <f t="shared" ca="1" si="15"/>
@@ -4117,11 +4127,11 @@
       </c>
       <c r="B91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4137,7 +4147,7 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4145,7 +4155,7 @@
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -4154,15 +4164,15 @@
       </c>
       <c r="B92" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E92" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4174,11 +4184,11 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="15"/>
@@ -4191,15 +4201,15 @@
       </c>
       <c r="B93" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E93" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4207,11 +4217,11 @@
       </c>
       <c r="F93" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G93" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4232,11 +4242,11 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E94" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4244,11 +4254,11 @@
       </c>
       <c r="F94" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4256,7 +4266,7 @@
       </c>
       <c r="I94">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -4265,7 +4275,7 @@
       </c>
       <c r="B95" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4281,11 +4291,11 @@
       </c>
       <c r="F95" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4293,7 +4303,7 @@
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -4318,11 +4328,11 @@
       </c>
       <c r="F96" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4330,7 +4340,7 @@
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -4339,7 +4349,7 @@
       </c>
       <c r="B97" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4347,19 +4357,19 @@
       </c>
       <c r="D97" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F97" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4367,7 +4377,7 @@
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -4376,7 +4386,7 @@
       </c>
       <c r="B98" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4392,11 +4402,11 @@
       </c>
       <c r="F98" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4404,7 +4414,7 @@
       </c>
       <c r="I98">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -4413,7 +4423,7 @@
       </c>
       <c r="B99" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4421,7 +4431,7 @@
       </c>
       <c r="D99" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E99" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4433,7 +4443,7 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4450,7 +4460,7 @@
       </c>
       <c r="B100" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4458,7 +4468,7 @@
       </c>
       <c r="D100" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E100" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4466,19 +4476,19 @@
       </c>
       <c r="F100" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -4487,7 +4497,7 @@
       </c>
       <c r="B101" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4495,7 +4505,7 @@
       </c>
       <c r="D101" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E101" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4503,7 +4513,7 @@
       </c>
       <c r="F101" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4524,7 +4534,7 @@
       </c>
       <c r="B102" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4532,11 +4542,11 @@
       </c>
       <c r="D102" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E102" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F102" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4552,7 +4562,7 @@
       </c>
       <c r="I102">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/ZelenakSz_13.A_lampak.xlsx
+++ b/ZelenakSz_13.A_lampak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zelenaksz\Desktop\cucc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA99ACA1-5881-4B66-9C93-BCED78A77C29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1E690C-952C-4B09-8090-3391A8C2D459}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{83E2134B-7878-4807-8A5C-88B4790D783A}"/>
   </bookViews>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A68BDDD-20BA-41B3-BFB5-B7E05B9F6C62}">
   <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,7 +813,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B66" ca="1" si="0">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="C3" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $C$1, C2 = "Ég"),"Ég","")</f>
@@ -829,7 +829,7 @@
       </c>
       <c r="F3" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $F$1, F2 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G3" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $G$1, G2 = "Ég"),"Ég","")</f>
@@ -837,7 +837,7 @@
       </c>
       <c r="H3" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $H$1, H2 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I3">
         <f ca="1">COUNTIF(B3:H3,"Ég")</f>
@@ -874,7 +874,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ref="C4:C67" ca="1" si="1" xml:space="preserve"> IF(_xlfn.XOR(B4 = $C$1, C3 = "Ég"),"Ég","")</f>
@@ -882,7 +882,7 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4:D67" ca="1" si="2" xml:space="preserve"> IF(_xlfn.XOR(B4 = $D$1, D3 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ref="E4:E67" ca="1" si="3" xml:space="preserve"> IF(_xlfn.XOR(B4 = $E$1, E3 = "Ég"),"Ég","")</f>
@@ -898,30 +898,30 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" ref="H4:H67" ca="1" si="6" xml:space="preserve"> IF(_xlfn.XOR(B4 = $H$1, H3 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I67" ca="1" si="7">COUNTIF(B4:H4,"Ég")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>109</v>
       </c>
       <c r="L4" s="6">
         <f ca="1">COUNTIF($I$3:$I$102,1)</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M4" s="6">
         <f ca="1">COUNTIF($I$3:$I$102,2)</f>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N4" s="6">
         <f ca="1">COUNTIF($I$3:$I$102,3)</f>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O4" s="6">
         <f ca="1">COUNTIF($I$3:$I$102,4)</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P4" s="6">
         <f ca="1">COUNTIF($I$3:$I$102,5)</f>
@@ -929,11 +929,11 @@
       </c>
       <c r="Q4" s="6">
         <f ca="1">COUNTIF($I$3:$I$102,6)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R4" s="6">
         <f ca="1">COUNTIF($I$3:$I$102,0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -942,7 +942,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -950,11 +950,11 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F5" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -962,18 +962,22 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5" t="s">
         <v>110</v>
+      </c>
+      <c r="L5">
+        <f ca="1">IFERROR(MATCH(6,$I$3:$I$102,0),"Nincs ilyen")</f>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -982,7 +986,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -990,15 +994,15 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1006,11 +1010,11 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1019,19 +1023,19 @@
       </c>
       <c r="B7" t="str">
         <f ca="1">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F7" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1043,7 +1047,7 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="7"/>
@@ -1056,11 +1060,11 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1068,11 +1072,11 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1080,7 +1084,7 @@
       </c>
       <c r="H8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="7"/>
@@ -1097,7 +1101,7 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D9" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1105,11 +1109,11 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1117,11 +1121,11 @@
       </c>
       <c r="H9" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1130,11 +1134,11 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D10" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1146,7 +1150,7 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G10" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1158,7 +1162,7 @@
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1167,23 +1171,23 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1195,7 +1199,7 @@
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1204,11 +1208,11 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D12" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1216,11 +1220,11 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1228,11 +1232,11 @@
       </c>
       <c r="H12" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1241,11 +1245,11 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1253,15 +1257,15 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1269,7 +1273,7 @@
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1282,7 +1286,7 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D14" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1290,15 +1294,15 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G14" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H14" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1306,7 +1310,7 @@
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1315,11 +1319,11 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1331,7 +1335,7 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1343,7 +1347,7 @@
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1352,11 +1356,11 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D16" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1364,11 +1368,11 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1376,7 +1380,7 @@
       </c>
       <c r="H16" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="7"/>
@@ -1389,31 +1393,31 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G17" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H17" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="7"/>
@@ -1430,31 +1434,31 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D18" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F18" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G18" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H18" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1463,15 +1467,15 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D19" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1479,11 +1483,11 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G19" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H19" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1491,7 +1495,7 @@
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1500,15 +1504,15 @@
       </c>
       <c r="B20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1537,7 +1541,7 @@
       </c>
       <c r="B21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1545,7 +1549,7 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1557,7 +1561,7 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H21" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1582,7 +1586,7 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1594,7 +1598,7 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H22" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1611,7 +1615,7 @@
       </c>
       <c r="B23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1627,11 +1631,11 @@
       </c>
       <c r="F23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H23" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1648,11 +1652,11 @@
       </c>
       <c r="B24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D24" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1668,7 +1672,7 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H24" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1676,7 +1680,7 @@
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1689,7 +1693,7 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D25" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1705,7 +1709,7 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1722,11 +1726,11 @@
       </c>
       <c r="B26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D26" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1734,15 +1738,15 @@
       </c>
       <c r="E26" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G26" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1759,11 +1763,11 @@
       </c>
       <c r="B27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D27" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1771,11 +1775,11 @@
       </c>
       <c r="E27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G27" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1783,7 +1787,7 @@
       </c>
       <c r="H27" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="7"/>
@@ -1796,7 +1800,7 @@
       </c>
       <c r="B28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1804,15 +1808,15 @@
       </c>
       <c r="D28" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G28" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1820,11 +1824,11 @@
       </c>
       <c r="H28" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1833,7 +1837,7 @@
       </c>
       <c r="B29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1841,7 +1845,7 @@
       </c>
       <c r="D29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1857,11 +1861,11 @@
       </c>
       <c r="H29" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1870,7 +1874,7 @@
       </c>
       <c r="B30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1878,7 +1882,7 @@
       </c>
       <c r="D30" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1886,19 +1890,19 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1907,7 +1911,7 @@
       </c>
       <c r="B31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1915,11 +1919,11 @@
       </c>
       <c r="D31" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1927,15 +1931,15 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1944,35 +1948,35 @@
       </c>
       <c r="B32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1981,23 +1985,23 @@
       </c>
       <c r="B33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2009,7 +2013,7 @@
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2018,19 +2022,19 @@
       </c>
       <c r="B34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2042,11 +2046,11 @@
       </c>
       <c r="H34" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2055,7 +2059,7 @@
       </c>
       <c r="B35" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2063,15 +2067,15 @@
       </c>
       <c r="D35" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2079,11 +2083,11 @@
       </c>
       <c r="H35" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2092,15 +2096,15 @@
       </c>
       <c r="B36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D36" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2108,7 +2112,7 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2116,11 +2120,11 @@
       </c>
       <c r="H36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2129,7 +2133,7 @@
       </c>
       <c r="B37" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2137,7 +2141,7 @@
       </c>
       <c r="D37" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2153,11 +2157,11 @@
       </c>
       <c r="H37" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2166,15 +2170,15 @@
       </c>
       <c r="B38" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D38" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2182,7 +2186,7 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2190,11 +2194,11 @@
       </c>
       <c r="H38" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2203,15 +2207,15 @@
       </c>
       <c r="B39" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D39" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2219,11 +2223,11 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H39" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2240,7 +2244,7 @@
       </c>
       <c r="B40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2248,7 +2252,7 @@
       </c>
       <c r="D40" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2256,19 +2260,19 @@
       </c>
       <c r="F40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H40" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2277,7 +2281,7 @@
       </c>
       <c r="B41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2285,7 +2289,7 @@
       </c>
       <c r="D41" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2297,7 +2301,7 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H41" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2314,7 +2318,7 @@
       </c>
       <c r="B42" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2322,7 +2326,7 @@
       </c>
       <c r="D42" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2330,19 +2334,19 @@
       </c>
       <c r="F42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2359,7 +2363,7 @@
       </c>
       <c r="D43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2367,15 +2371,15 @@
       </c>
       <c r="F43" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G43" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H43" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="7"/>
@@ -2388,7 +2392,7 @@
       </c>
       <c r="B44" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2396,19 +2400,19 @@
       </c>
       <c r="D44" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G44" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H44" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2425,7 +2429,7 @@
       </c>
       <c r="B45" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2433,7 +2437,7 @@
       </c>
       <c r="D45" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2445,7 +2449,7 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H45" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2462,7 +2466,7 @@
       </c>
       <c r="B46" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2470,19 +2474,19 @@
       </c>
       <c r="D46" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G46" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H46" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2499,7 +2503,7 @@
       </c>
       <c r="B47" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2511,19 +2515,19 @@
       </c>
       <c r="E47" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G47" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H47" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="7"/>
@@ -2536,7 +2540,7 @@
       </c>
       <c r="B48" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2544,7 +2548,7 @@
       </c>
       <c r="D48" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E48" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2552,19 +2556,19 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G48" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H48" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2581,7 +2585,7 @@
       </c>
       <c r="D49" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2589,15 +2593,15 @@
       </c>
       <c r="F49" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G49" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H49" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="7"/>
@@ -2618,7 +2622,7 @@
       </c>
       <c r="D50" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2626,15 +2630,15 @@
       </c>
       <c r="F50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G50" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H50" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="7"/>
@@ -2655,7 +2659,7 @@
       </c>
       <c r="D51" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2663,15 +2667,15 @@
       </c>
       <c r="F51" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G51" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H51" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="7"/>
@@ -2684,7 +2688,7 @@
       </c>
       <c r="B52" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2692,7 +2696,7 @@
       </c>
       <c r="D52" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2700,7 +2704,7 @@
       </c>
       <c r="F52" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G52" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2721,7 +2725,7 @@
       </c>
       <c r="B53" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2758,15 +2762,15 @@
       </c>
       <c r="B54" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D54" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2799,11 +2803,11 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D55" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2836,11 +2840,11 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D56" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2869,11 +2873,11 @@
       </c>
       <c r="B57" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D57" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2881,7 +2885,7 @@
       </c>
       <c r="E57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F57" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2897,7 +2901,7 @@
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2906,11 +2910,11 @@
       </c>
       <c r="B58" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D58" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2918,7 +2922,7 @@
       </c>
       <c r="E58" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F58" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2926,15 +2930,15 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H58" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2947,7 +2951,7 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D59" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2955,7 +2959,7 @@
       </c>
       <c r="E59" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F59" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2963,15 +2967,15 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H59" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2980,19 +2984,19 @@
       </c>
       <c r="B60" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D60" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F60" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3004,7 +3008,7 @@
       </c>
       <c r="H60" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="7"/>
@@ -3017,7 +3021,7 @@
       </c>
       <c r="B61" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3025,15 +3029,15 @@
       </c>
       <c r="D61" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F61" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3041,11 +3045,11 @@
       </c>
       <c r="H61" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3054,7 +3058,7 @@
       </c>
       <c r="B62" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3062,7 +3066,7 @@
       </c>
       <c r="D62" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3070,7 +3074,7 @@
       </c>
       <c r="F62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3082,7 +3086,7 @@
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3091,7 +3095,7 @@
       </c>
       <c r="B63" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3103,11 +3107,11 @@
       </c>
       <c r="E63" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F63" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3128,7 +3132,7 @@
       </c>
       <c r="B64" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3140,23 +3144,23 @@
       </c>
       <c r="E64" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F64" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3165,7 +3169,7 @@
       </c>
       <c r="B65" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3173,11 +3177,11 @@
       </c>
       <c r="D65" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F65" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3185,15 +3189,15 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3202,15 +3206,15 @@
       </c>
       <c r="B66" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3222,15 +3226,15 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I66">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3239,7 +3243,7 @@
       </c>
       <c r="B67" t="str">
         <f t="shared" ref="B67:B102" ca="1" si="8">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3247,7 +3251,7 @@
       </c>
       <c r="D67" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3255,19 +3259,19 @@
       </c>
       <c r="F67" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G67" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3284,7 +3288,7 @@
       </c>
       <c r="D68" t="str">
         <f t="shared" ref="D68:D102" ca="1" si="10" xml:space="preserve"> IF(_xlfn.XOR(B68 = $D$1, D67 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" ref="E68:E102" ca="1" si="11" xml:space="preserve"> IF(_xlfn.XOR(B68 = $E$1, E67 = "Ég"),"Ég","")</f>
@@ -3292,19 +3296,19 @@
       </c>
       <c r="F68" t="str">
         <f t="shared" ref="F68:F102" ca="1" si="12" xml:space="preserve"> IF(_xlfn.XOR(B68 = $F$1, F67 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G68" t="str">
         <f t="shared" ref="G68:G102" ca="1" si="13" xml:space="preserve"> IF(_xlfn.XOR(B68 = $G$1, G67 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" ref="H68:H102" ca="1" si="14" xml:space="preserve"> IF(_xlfn.XOR(B68 = $H$1, H67 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I68">
         <f t="shared" ref="I68:I102" ca="1" si="15">COUNTIF(B68:H68,"Ég")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3313,15 +3317,15 @@
       </c>
       <c r="B69" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3333,15 +3337,15 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3354,11 +3358,11 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3370,15 +3374,15 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H70" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3387,7 +3391,7 @@
       </c>
       <c r="B71" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3395,7 +3399,7 @@
       </c>
       <c r="D71" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3407,7 +3411,7 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H71" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3424,7 +3428,7 @@
       </c>
       <c r="B72" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3432,11 +3436,11 @@
       </c>
       <c r="D72" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F72" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3444,11 +3448,11 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H72" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="15"/>
@@ -3461,19 +3465,19 @@
       </c>
       <c r="B73" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D73" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F73" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3485,7 +3489,7 @@
       </c>
       <c r="H73" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="15"/>
@@ -3498,7 +3502,7 @@
       </c>
       <c r="B74" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3506,11 +3510,11 @@
       </c>
       <c r="D74" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F74" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3535,7 +3539,7 @@
       </c>
       <c r="B75" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3547,11 +3551,11 @@
       </c>
       <c r="E75" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F75" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -3584,11 +3588,11 @@
       </c>
       <c r="E76" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F76" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -3609,7 +3613,7 @@
       </c>
       <c r="B77" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3617,11 +3621,11 @@
       </c>
       <c r="D77" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F77" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3654,11 +3658,11 @@
       </c>
       <c r="D78" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E78" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F78" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3674,7 +3678,7 @@
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3691,11 +3695,11 @@
       </c>
       <c r="D79" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E79" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F79" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3711,7 +3715,7 @@
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3720,7 +3724,7 @@
       </c>
       <c r="B80" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3732,11 +3736,11 @@
       </c>
       <c r="E80" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F80" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -3757,11 +3761,11 @@
       </c>
       <c r="B81" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3769,11 +3773,11 @@
       </c>
       <c r="E81" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F81" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G81" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -3781,7 +3785,7 @@
       </c>
       <c r="H81" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="15"/>
@@ -3794,15 +3798,15 @@
       </c>
       <c r="B82" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3810,7 +3814,7 @@
       </c>
       <c r="F82" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -3818,11 +3822,11 @@
       </c>
       <c r="H82" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3831,11 +3835,11 @@
       </c>
       <c r="B83" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3847,7 +3851,7 @@
       </c>
       <c r="F83" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -3859,7 +3863,7 @@
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3868,11 +3872,11 @@
       </c>
       <c r="B84" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3880,15 +3884,15 @@
       </c>
       <c r="E84" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F84" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H84" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3905,15 +3909,15 @@
       </c>
       <c r="B85" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E85" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3921,11 +3925,11 @@
       </c>
       <c r="F85" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H85" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3942,7 +3946,7 @@
       </c>
       <c r="B86" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3950,19 +3954,19 @@
       </c>
       <c r="D86" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E86" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F86" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H86" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3970,7 +3974,7 @@
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3979,7 +3983,7 @@
       </c>
       <c r="B87" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3987,7 +3991,7 @@
       </c>
       <c r="D87" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E87" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3995,15 +3999,15 @@
       </c>
       <c r="F87" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H87" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="15"/>
@@ -4016,7 +4020,7 @@
       </c>
       <c r="B88" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4024,7 +4028,7 @@
       </c>
       <c r="D88" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E88" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4040,7 +4044,7 @@
       </c>
       <c r="H88" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I88">
         <f t="shared" ca="1" si="15"/>
@@ -4061,7 +4065,7 @@
       </c>
       <c r="D89" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E89" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4077,7 +4081,7 @@
       </c>
       <c r="H89" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I89">
         <f t="shared" ca="1" si="15"/>
@@ -4090,7 +4094,7 @@
       </c>
       <c r="B90" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4106,7 +4110,7 @@
       </c>
       <c r="F90" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4114,11 +4118,11 @@
       </c>
       <c r="H90" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I90">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -4127,7 +4131,7 @@
       </c>
       <c r="B91" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4164,7 +4168,7 @@
       </c>
       <c r="B92" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4180,7 +4184,7 @@
       </c>
       <c r="F92" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4188,11 +4192,11 @@
       </c>
       <c r="H92" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -4201,7 +4205,7 @@
       </c>
       <c r="B93" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4213,11 +4217,11 @@
       </c>
       <c r="E93" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4229,7 +4233,7 @@
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -4238,7 +4242,7 @@
       </c>
       <c r="B94" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4250,7 +4254,7 @@
       </c>
       <c r="E94" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4262,7 +4266,7 @@
       </c>
       <c r="H94" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I94">
         <f t="shared" ca="1" si="15"/>
@@ -4275,7 +4279,7 @@
       </c>
       <c r="B95" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4283,15 +4287,15 @@
       </c>
       <c r="D95" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E95" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G95" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4299,11 +4303,11 @@
       </c>
       <c r="H95" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -4312,7 +4316,7 @@
       </c>
       <c r="B96" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4320,7 +4324,7 @@
       </c>
       <c r="D96" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E96" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4336,11 +4340,11 @@
       </c>
       <c r="H96" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -4349,19 +4353,19 @@
       </c>
       <c r="B97" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D97" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E97" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4373,11 +4377,11 @@
       </c>
       <c r="H97" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -4386,11 +4390,11 @@
       </c>
       <c r="B98" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D98" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4410,11 +4414,11 @@
       </c>
       <c r="H98" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I98">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -4423,15 +4427,15 @@
       </c>
       <c r="B99" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D99" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4439,7 +4443,7 @@
       </c>
       <c r="F99" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4447,7 +4451,7 @@
       </c>
       <c r="H99" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="15"/>
@@ -4460,19 +4464,19 @@
       </c>
       <c r="B100" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D100" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4484,7 +4488,7 @@
       </c>
       <c r="H100" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="15"/>
@@ -4497,15 +4501,15 @@
       </c>
       <c r="B101" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D101" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4517,11 +4521,11 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I101">
         <f t="shared" ca="1" si="15"/>
@@ -4534,7 +4538,7 @@
       </c>
       <c r="B102" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4542,7 +4546,7 @@
       </c>
       <c r="D102" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4550,19 +4554,19 @@
       </c>
       <c r="F102" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G102" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I102">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/ZelenakSz_13.A_lampak.xlsx
+++ b/ZelenakSz_13.A_lampak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zelenaksz\Desktop\cucc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1E690C-952C-4B09-8090-3391A8C2D459}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2F0D80-DF83-4CD3-AC0E-7E149B517300}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{83E2134B-7878-4807-8A5C-88B4790D783A}"/>
   </bookViews>
@@ -364,6 +364,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0/"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -436,6 +439,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -763,7 +769,7 @@
   <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,7 +819,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B66" ca="1" si="0">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="C3" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $C$1, C2 = "Ég"),"Ég","")</f>
@@ -825,7 +831,7 @@
       </c>
       <c r="E3" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $E$1, E2 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F3" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $F$1, F2 = "Ég"),"Ég","")</f>
@@ -837,7 +843,7 @@
       </c>
       <c r="H3" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $H$1, H2 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I3">
         <f ca="1">COUNTIF(B3:H3,"Ég")</f>
@@ -874,7 +880,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ref="C4:C67" ca="1" si="1" xml:space="preserve"> IF(_xlfn.XOR(B4 = $C$1, C3 = "Ég"),"Ég","")</f>
@@ -882,11 +888,11 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4:D67" ca="1" si="2" xml:space="preserve"> IF(_xlfn.XOR(B4 = $D$1, D3 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E4" t="str">
         <f t="shared" ref="E4:E67" ca="1" si="3" xml:space="preserve"> IF(_xlfn.XOR(B4 = $E$1, E3 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F67" ca="1" si="4" xml:space="preserve"> IF(_xlfn.XOR(B4 = $F$1, F3 = "Ég"),"Ég","")</f>
@@ -894,11 +900,11 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G67" ca="1" si="5" xml:space="preserve"> IF(_xlfn.XOR(B4 = $G$1, G3 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ref="H4:H67" ca="1" si="6" xml:space="preserve"> IF(_xlfn.XOR(B4 = $H$1, H3 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I67" ca="1" si="7">COUNTIF(B4:H4,"Ég")</f>
@@ -909,27 +915,27 @@
       </c>
       <c r="L4" s="6">
         <f ca="1">COUNTIF($I$3:$I$102,1)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M4" s="6">
         <f ca="1">COUNTIF($I$3:$I$102,2)</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N4" s="6">
         <f ca="1">COUNTIF($I$3:$I$102,3)</f>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O4" s="6">
         <f ca="1">COUNTIF($I$3:$I$102,4)</f>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="P4" s="6">
         <f ca="1">COUNTIF($I$3:$I$102,5)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q4" s="6">
         <f ca="1">COUNTIF($I$3:$I$102,6)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R4" s="6">
         <f ca="1">COUNTIF($I$3:$I$102,0)</f>
@@ -942,7 +948,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -950,11 +956,11 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -975,9 +981,9 @@
       <c r="K5" t="s">
         <v>110</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="8">
         <f ca="1">IFERROR(MATCH(6,$I$3:$I$102,0),"Nincs ilyen")</f>
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -986,7 +992,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -994,7 +1000,7 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1002,7 +1008,7 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1014,7 +1020,7 @@
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1023,15 +1029,15 @@
       </c>
       <c r="B7" t="str">
         <f ca="1">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1060,15 +1066,15 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1076,11 +1082,11 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1088,7 +1094,7 @@
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1097,19 +1103,19 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1117,7 +1123,7 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H9" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1134,15 +1140,15 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E10" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1150,11 +1156,11 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H10" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1171,23 +1177,23 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1199,7 +1205,7 @@
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1208,19 +1214,19 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1232,11 +1238,11 @@
       </c>
       <c r="H12" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1245,15 +1251,15 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E13" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1282,11 +1288,11 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1302,7 +1308,7 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1310,7 +1316,7 @@
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1319,11 +1325,11 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1335,7 +1341,7 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1347,7 +1353,7 @@
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1356,23 +1362,23 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1393,19 +1399,19 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F17" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1413,7 +1419,7 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1430,11 +1436,11 @@
       </c>
       <c r="B18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1450,7 +1456,7 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1458,7 +1464,7 @@
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1467,15 +1473,15 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E19" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1487,15 +1493,15 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1504,19 +1510,19 @@
       </c>
       <c r="B20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E20" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1528,11 +1534,11 @@
       </c>
       <c r="H20" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1541,15 +1547,15 @@
       </c>
       <c r="B21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E21" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1561,15 +1567,15 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1578,7 +1584,7 @@
       </c>
       <c r="B22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1586,7 +1592,7 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1594,15 +1600,15 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="7"/>
@@ -1615,7 +1621,7 @@
       </c>
       <c r="B23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1635,15 +1641,15 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1672,15 +1678,15 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1689,7 +1695,7 @@
       </c>
       <c r="B25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1705,7 +1711,7 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1713,11 +1719,11 @@
       </c>
       <c r="H25" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1742,7 +1748,7 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1750,11 +1756,11 @@
       </c>
       <c r="H26" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1763,7 +1769,7 @@
       </c>
       <c r="B27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1775,11 +1781,11 @@
       </c>
       <c r="E27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F27" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1800,7 +1806,7 @@
       </c>
       <c r="B28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1808,11 +1814,11 @@
       </c>
       <c r="D28" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E28" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F28" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1828,7 +1834,7 @@
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1837,7 +1843,7 @@
       </c>
       <c r="B29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1845,7 +1851,7 @@
       </c>
       <c r="D29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E29" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1853,7 +1859,7 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1882,7 +1888,7 @@
       </c>
       <c r="D30" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E30" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1890,7 +1896,7 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G30" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1902,7 +1908,7 @@
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1911,23 +1917,23 @@
       </c>
       <c r="B31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F31" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G31" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1939,7 +1945,7 @@
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1948,7 +1954,7 @@
       </c>
       <c r="B32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1956,7 +1962,7 @@
       </c>
       <c r="D32" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E32" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1964,7 +1970,7 @@
       </c>
       <c r="F32" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G32" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1976,7 +1982,7 @@
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1985,7 +1991,7 @@
       </c>
       <c r="B33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1993,7 +1999,7 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2001,19 +2007,19 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H33" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2030,7 +2036,7 @@
       </c>
       <c r="D34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E34" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2038,19 +2044,19 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G34" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H34" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2067,7 +2073,7 @@
       </c>
       <c r="D35" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E35" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2075,19 +2081,19 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G35" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H35" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2096,35 +2102,35 @@
       </c>
       <c r="B36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G36" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2133,7 +2139,7 @@
       </c>
       <c r="B37" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2141,11 +2147,11 @@
       </c>
       <c r="D37" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2153,15 +2159,15 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H37" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2170,7 +2176,7 @@
       </c>
       <c r="B38" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2178,7 +2184,7 @@
       </c>
       <c r="D38" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E38" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2186,19 +2192,19 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G38" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H38" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2207,7 +2213,7 @@
       </c>
       <c r="B39" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2215,15 +2221,15 @@
       </c>
       <c r="D39" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E39" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G39" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2231,11 +2237,11 @@
       </c>
       <c r="H39" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2252,15 +2258,15 @@
       </c>
       <c r="D40" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G40" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2268,11 +2274,11 @@
       </c>
       <c r="H40" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2281,7 +2287,7 @@
       </c>
       <c r="B41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2289,7 +2295,7 @@
       </c>
       <c r="D41" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E41" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2297,7 +2303,7 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G41" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2309,7 +2315,7 @@
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2326,7 +2332,7 @@
       </c>
       <c r="D42" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E42" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2334,7 +2340,7 @@
       </c>
       <c r="F42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2355,15 +2361,15 @@
       </c>
       <c r="B43" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E43" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2371,7 +2377,7 @@
       </c>
       <c r="F43" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2379,11 +2385,11 @@
       </c>
       <c r="H43" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2392,19 +2398,19 @@
       </c>
       <c r="B44" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D44" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E44" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F44" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2416,11 +2422,11 @@
       </c>
       <c r="H44" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2429,15 +2435,15 @@
       </c>
       <c r="B45" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D45" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E45" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2449,15 +2455,15 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2466,11 +2472,11 @@
       </c>
       <c r="B46" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D46" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2478,7 +2484,7 @@
       </c>
       <c r="E46" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F46" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2486,15 +2492,15 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2507,7 +2513,7 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D47" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2515,7 +2521,7 @@
       </c>
       <c r="E47" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F47" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2523,15 +2529,15 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2540,11 +2546,11 @@
       </c>
       <c r="B48" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D48" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2556,15 +2562,15 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="7"/>
@@ -2577,15 +2583,15 @@
       </c>
       <c r="B49" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D49" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E49" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2593,7 +2599,7 @@
       </c>
       <c r="F49" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2601,11 +2607,11 @@
       </c>
       <c r="H49" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2614,23 +2620,23 @@
       </c>
       <c r="B50" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D50" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2642,7 +2648,7 @@
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2651,11 +2657,11 @@
       </c>
       <c r="B51" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D51" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2667,7 +2673,7 @@
       </c>
       <c r="F51" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2692,7 +2698,7 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D52" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2704,7 +2710,7 @@
       </c>
       <c r="F52" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2725,15 +2731,15 @@
       </c>
       <c r="B53" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D53" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E53" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2753,7 +2759,7 @@
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2762,7 +2768,7 @@
       </c>
       <c r="B54" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2836,7 +2842,7 @@
       </c>
       <c r="B56" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2844,11 +2850,11 @@
       </c>
       <c r="D56" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E56" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2873,11 +2879,11 @@
       </c>
       <c r="B57" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2885,7 +2891,7 @@
       </c>
       <c r="E57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2901,7 +2907,7 @@
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2910,11 +2916,11 @@
       </c>
       <c r="B58" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2922,15 +2928,15 @@
       </c>
       <c r="E58" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G58" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2938,7 +2944,7 @@
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2947,7 +2953,7 @@
       </c>
       <c r="B59" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2955,19 +2961,19 @@
       </c>
       <c r="D59" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E59" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G59" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2992,19 +2998,19 @@
       </c>
       <c r="D60" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E60" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G60" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H60" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3012,7 +3018,7 @@
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3021,15 +3027,15 @@
       </c>
       <c r="B61" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D61" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E61" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3037,11 +3043,11 @@
       </c>
       <c r="F61" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G61" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H61" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3049,7 +3055,7 @@
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3058,11 +3064,11 @@
       </c>
       <c r="B62" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D62" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3074,19 +3080,19 @@
       </c>
       <c r="F62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G62" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H62" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3095,15 +3101,15 @@
       </c>
       <c r="B63" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D63" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3115,11 +3121,11 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H63" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="7"/>
@@ -3136,11 +3142,11 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D64" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3152,15 +3158,15 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H64" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3169,11 +3175,11 @@
       </c>
       <c r="B65" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D65" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3185,19 +3191,19 @@
       </c>
       <c r="F65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G65" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H65" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3206,11 +3212,11 @@
       </c>
       <c r="B66" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D66" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3218,11 +3224,11 @@
       </c>
       <c r="E66" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F66" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G66" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3230,11 +3236,11 @@
       </c>
       <c r="H66" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I66">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3247,7 +3253,7 @@
       </c>
       <c r="C67" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D67" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3255,11 +3261,11 @@
       </c>
       <c r="E67" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F67" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3267,11 +3273,11 @@
       </c>
       <c r="H67" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3284,7 +3290,7 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" ref="C68:C102" ca="1" si="9" xml:space="preserve"> IF(_xlfn.XOR(B68 = $C$1, C67 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D68" t="str">
         <f t="shared" ref="D68:D102" ca="1" si="10" xml:space="preserve"> IF(_xlfn.XOR(B68 = $D$1, D67 = "Ég"),"Ég","")</f>
@@ -3292,11 +3298,11 @@
       </c>
       <c r="E68" t="str">
         <f t="shared" ref="E68:E102" ca="1" si="11" xml:space="preserve"> IF(_xlfn.XOR(B68 = $E$1, E67 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" ref="F68:F102" ca="1" si="12" xml:space="preserve"> IF(_xlfn.XOR(B68 = $F$1, F67 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" ref="G68:G102" ca="1" si="13" xml:space="preserve"> IF(_xlfn.XOR(B68 = $G$1, G67 = "Ég"),"Ég","")</f>
@@ -3304,7 +3310,7 @@
       </c>
       <c r="H68" t="str">
         <f t="shared" ref="H68:H102" ca="1" si="14" xml:space="preserve"> IF(_xlfn.XOR(B68 = $H$1, H67 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I68">
         <f t="shared" ref="I68:I102" ca="1" si="15">COUNTIF(B68:H68,"Ég")</f>
@@ -3317,11 +3323,11 @@
       </c>
       <c r="B69" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D69" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3329,7 +3335,7 @@
       </c>
       <c r="E69" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3358,7 +3364,7 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D70" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3366,7 +3372,7 @@
       </c>
       <c r="E70" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3395,7 +3401,7 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D71" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3403,7 +3409,7 @@
       </c>
       <c r="E71" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3432,7 +3438,7 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D72" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3440,7 +3446,7 @@
       </c>
       <c r="E72" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3469,7 +3475,7 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3477,7 +3483,7 @@
       </c>
       <c r="E73" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3493,7 +3499,7 @@
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3502,11 +3508,11 @@
       </c>
       <c r="B74" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3514,11 +3520,11 @@
       </c>
       <c r="E74" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G74" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -3526,11 +3532,11 @@
       </c>
       <c r="H74" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3539,23 +3545,23 @@
       </c>
       <c r="B75" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G75" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -3567,7 +3573,7 @@
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3576,11 +3582,11 @@
       </c>
       <c r="B76" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3592,7 +3598,7 @@
       </c>
       <c r="F76" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G76" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -3613,7 +3619,7 @@
       </c>
       <c r="B77" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3650,7 +3656,7 @@
       </c>
       <c r="B78" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3658,11 +3664,11 @@
       </c>
       <c r="D78" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3678,7 +3684,7 @@
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3687,7 +3693,7 @@
       </c>
       <c r="B79" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3695,19 +3701,19 @@
       </c>
       <c r="D79" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H79" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3715,7 +3721,7 @@
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3724,7 +3730,7 @@
       </c>
       <c r="B80" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3732,11 +3738,11 @@
       </c>
       <c r="D80" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3744,15 +3750,15 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H80" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3761,15 +3767,15 @@
       </c>
       <c r="B81" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D81" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3781,11 +3787,11 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H81" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="15"/>
@@ -3798,11 +3804,11 @@
       </c>
       <c r="B82" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D82" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3818,7 +3824,7 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H82" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3826,7 +3832,7 @@
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3839,7 +3845,7 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D83" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3855,7 +3861,7 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H83" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3863,7 +3869,7 @@
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3872,11 +3878,11 @@
       </c>
       <c r="B84" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D84" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3896,7 +3902,7 @@
       </c>
       <c r="H84" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="15"/>
@@ -3909,11 +3915,11 @@
       </c>
       <c r="B85" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D85" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3921,11 +3927,11 @@
       </c>
       <c r="E85" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F85" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G85" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -3933,11 +3939,11 @@
       </c>
       <c r="H85" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3950,7 +3956,7 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D86" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3958,11 +3964,11 @@
       </c>
       <c r="E86" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G86" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -3970,7 +3976,7 @@
       </c>
       <c r="H86" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="15"/>
@@ -3983,23 +3989,23 @@
       </c>
       <c r="B87" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D87" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G87" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4020,11 +4026,11 @@
       </c>
       <c r="B88" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D88" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4032,7 +4038,7 @@
       </c>
       <c r="E88" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4057,19 +4063,19 @@
       </c>
       <c r="B89" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D89" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4077,7 +4083,7 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H89" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4094,23 +4100,23 @@
       </c>
       <c r="B90" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D90" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G90" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4135,19 +4141,19 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D91" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4159,7 +4165,7 @@
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -4168,7 +4174,7 @@
       </c>
       <c r="B92" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4176,11 +4182,11 @@
       </c>
       <c r="D92" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4196,7 +4202,7 @@
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -4213,11 +4219,11 @@
       </c>
       <c r="D93" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F93" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4242,7 +4248,7 @@
       </c>
       <c r="B94" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4250,15 +4256,15 @@
       </c>
       <c r="D94" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F94" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G94" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4266,7 +4272,7 @@
       </c>
       <c r="H94" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I94">
         <f t="shared" ca="1" si="15"/>
@@ -4279,7 +4285,7 @@
       </c>
       <c r="B95" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4287,11 +4293,11 @@
       </c>
       <c r="D95" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F95" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4299,11 +4305,11 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H95" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="15"/>
@@ -4316,7 +4322,7 @@
       </c>
       <c r="B96" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4324,19 +4330,19 @@
       </c>
       <c r="D96" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F96" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G96" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H96" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4344,7 +4350,7 @@
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -4353,31 +4359,31 @@
       </c>
       <c r="B97" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F97" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G97" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H97" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="15"/>
@@ -4390,15 +4396,15 @@
       </c>
       <c r="B98" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4406,11 +4412,11 @@
       </c>
       <c r="F98" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G98" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H98" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4427,11 +4433,11 @@
       </c>
       <c r="B99" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4447,7 +4453,7 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H99" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4464,11 +4470,11 @@
       </c>
       <c r="B100" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4476,15 +4482,15 @@
       </c>
       <c r="E100" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F100" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G100" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H100" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4492,7 +4498,7 @@
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -4505,7 +4511,7 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4513,15 +4519,15 @@
       </c>
       <c r="E101" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G101" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H101" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4538,7 +4544,7 @@
       </c>
       <c r="B102" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4550,11 +4556,11 @@
       </c>
       <c r="E102" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G102" t="str">
         <f t="shared" ca="1" si="13"/>

--- a/ZelenakSz_13.A_lampak.xlsx
+++ b/ZelenakSz_13.A_lampak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zelenaksz\Desktop\cucc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2F0D80-DF83-4CD3-AC0E-7E149B517300}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBAAE9B-20AB-4578-875A-E241DEF52815}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{83E2134B-7878-4807-8A5C-88B4790D783A}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -434,7 +434,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -443,6 +442,15 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,12 +777,15 @@
   <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="1" max="8" width="5.140625" style="8" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="8"/>
+    <col min="11" max="11" width="18.28515625" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -808,7 +819,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="C2" t="str">
+      <c r="C2" s="8" t="str">
         <f>""</f>
         <v/>
       </c>
@@ -817,60 +828,60 @@
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="8" t="str">
         <f t="shared" ref="B3:B66" ca="1" si="0">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
         <v>C</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="8" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $C$1, C2 = "Ég"),"Ég","")</f>
         <v/>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" s="8" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $D$1, D2 = "Ég"),"Ég","")</f>
         <v/>
       </c>
-      <c r="E3" t="str">
+      <c r="E3" s="8" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $E$1, E2 = "Ég"),"Ég","")</f>
         <v>Ég</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3" s="8" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $F$1, F2 = "Ég"),"Ég","")</f>
         <v/>
       </c>
-      <c r="G3" t="str">
+      <c r="G3" s="8" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $G$1, G2 = "Ég"),"Ég","")</f>
         <v/>
       </c>
-      <c r="H3" t="str">
+      <c r="H3" s="8" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $H$1, H2 = "Ég"),"Ég","")</f>
         <v/>
       </c>
-      <c r="I3">
+      <c r="I3" s="8">
         <f ca="1">COUNTIF(B3:H3,"Ég")</f>
         <v>1</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>1</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <v>2</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="5">
         <v>3</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="5">
         <v>4</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="5">
         <v>5</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="5">
         <v>6</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="6">
         <v>0</v>
       </c>
     </row>
@@ -878,66 +889,66 @@
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="8" t="str">
         <f t="shared" ref="C4:C67" ca="1" si="1" xml:space="preserve"> IF(_xlfn.XOR(B4 = $C$1, C3 = "Ég"),"Ég","")</f>
         <v/>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" s="8" t="str">
         <f t="shared" ref="D4:D67" ca="1" si="2" xml:space="preserve"> IF(_xlfn.XOR(B4 = $D$1, D3 = "Ég"),"Ég","")</f>
         <v/>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" s="8" t="str">
         <f t="shared" ref="E4:E67" ca="1" si="3" xml:space="preserve"> IF(_xlfn.XOR(B4 = $E$1, E3 = "Ég"),"Ég","")</f>
         <v>Ég</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" s="8" t="str">
         <f t="shared" ref="F4:F67" ca="1" si="4" xml:space="preserve"> IF(_xlfn.XOR(B4 = $F$1, F3 = "Ég"),"Ég","")</f>
         <v/>
       </c>
-      <c r="G4" t="str">
+      <c r="G4" s="8" t="str">
         <f t="shared" ref="G4:G67" ca="1" si="5" xml:space="preserve"> IF(_xlfn.XOR(B4 = $G$1, G3 = "Ég"),"Ég","")</f>
         <v>Ég</v>
       </c>
-      <c r="H4" t="str">
+      <c r="H4" s="8" t="str">
         <f t="shared" ref="H4:H67" ca="1" si="6" xml:space="preserve"> IF(_xlfn.XOR(B4 = $H$1, H3 = "Ég"),"Ég","")</f>
         <v/>
       </c>
-      <c r="I4">
+      <c r="I4" s="8">
         <f t="shared" ref="I4:I67" ca="1" si="7">COUNTIF(B4:H4,"Ég")</f>
         <v>2</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <f ca="1">COUNTIF($I$3:$I$102,1)</f>
         <v>14</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <f ca="1">COUNTIF($I$3:$I$102,2)</f>
         <v>27</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <f ca="1">COUNTIF($I$3:$I$102,3)</f>
         <v>28</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <f ca="1">COUNTIF($I$3:$I$102,4)</f>
         <v>20</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <f ca="1">COUNTIF($I$3:$I$102,5)</f>
         <v>8</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="5">
         <f ca="1">COUNTIF($I$3:$I$102,6)</f>
         <v>1</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="5">
         <f ca="1">COUNTIF($I$3:$I$102,0)</f>
         <v>2</v>
       </c>
@@ -946,42 +957,42 @@
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>F</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I5">
+      <c r="C5" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D5" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E5" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F5" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G5" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H5" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I5" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <f ca="1">IFERROR(MATCH(6,$I$3:$I$102,0),"Nincs ilyen")</f>
         <v>90</v>
       </c>
@@ -990,35 +1001,35 @@
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>C</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I6">
+      <c r="C6" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D6" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E6" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F6" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G6" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H6" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I6" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
@@ -1027,35 +1038,35 @@
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="8" t="str">
         <f ca="1">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
         <v>A</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I7">
+      <c r="C7" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D7" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E7" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F7" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G7" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H7" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I7" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
@@ -1064,35 +1075,35 @@
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E</v>
       </c>
-      <c r="C8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I8">
+      <c r="C8" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D8" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E8" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F8" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G8" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H8" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I8" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
@@ -1101,35 +1112,35 @@
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>C</v>
       </c>
-      <c r="C9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I9">
+      <c r="C9" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D9" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E9" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F9" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G9" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H9" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I9" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
@@ -1138,35 +1149,35 @@
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>D</v>
       </c>
-      <c r="C10" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I10">
+      <c r="C10" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D10" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E10" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F10" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G10" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H10" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I10" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
@@ -1175,35 +1186,35 @@
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E</v>
       </c>
-      <c r="C11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I11">
+      <c r="C11" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D11" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E11" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F11" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G11" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H11" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I11" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>5</v>
       </c>
@@ -1212,35 +1223,35 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>D</v>
       </c>
-      <c r="C12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I12">
+      <c r="C12" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D12" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E12" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F12" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G12" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H12" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I12" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
@@ -1249,35 +1260,35 @@
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>C</v>
       </c>
-      <c r="C13" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I13">
+      <c r="C13" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D13" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E13" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F13" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G13" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H13" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I13" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
@@ -1286,35 +1297,35 @@
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>B</v>
       </c>
-      <c r="C14" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I14">
+      <c r="C14" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D14" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E14" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F14" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G14" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H14" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I14" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
@@ -1323,35 +1334,35 @@
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>D</v>
       </c>
-      <c r="C15" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H15" t="str">
+      <c r="C15" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D15" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E15" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F15" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G15" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H15" s="8" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B15 = $H$1, H14 = "Ég"),"Ég","")</f>
         <v>Ég</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>5</v>
       </c>
@@ -1360,35 +1371,35 @@
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>B</v>
       </c>
-      <c r="C16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I16">
+      <c r="C16" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D16" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E16" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F16" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G16" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H16" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I16" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
@@ -1397,35 +1408,35 @@
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>D</v>
       </c>
-      <c r="C17" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I17">
+      <c r="C17" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D17" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E17" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F17" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G17" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H17" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I17" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
@@ -1434,35 +1445,35 @@
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B18" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>B</v>
       </c>
-      <c r="C18" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I18">
+      <c r="C18" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D18" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E18" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F18" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G18" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H18" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I18" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
@@ -1471,35 +1482,35 @@
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B19" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>B</v>
       </c>
-      <c r="C19" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I19">
+      <c r="C19" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D19" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E19" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F19" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G19" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H19" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I19" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
@@ -1508,35 +1519,35 @@
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B20" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>C</v>
       </c>
-      <c r="C20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I20">
+      <c r="C20" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D20" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E20" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F20" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G20" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H20" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I20" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
@@ -1545,35 +1556,35 @@
       <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B21" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>C</v>
       </c>
-      <c r="C21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I21">
+      <c r="C21" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D21" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E21" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F21" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G21" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H21" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I21" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
@@ -1582,35 +1593,35 @@
       <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B22" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>A</v>
       </c>
-      <c r="C22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I22">
+      <c r="C22" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D22" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E22" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F22" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G22" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H22" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I22" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
@@ -1619,35 +1630,35 @@
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B23" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>D</v>
       </c>
-      <c r="C23" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I23">
+      <c r="C23" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D23" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E23" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F23" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G23" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H23" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I23" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
@@ -1656,35 +1667,35 @@
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B24" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>D</v>
       </c>
-      <c r="C24" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I24">
+      <c r="C24" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D24" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E24" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F24" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G24" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H24" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I24" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
@@ -1693,35 +1704,35 @@
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B25" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>D</v>
       </c>
-      <c r="C25" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I25">
+      <c r="C25" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D25" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E25" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F25" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G25" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H25" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I25" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
@@ -1730,35 +1741,35 @@
       <c r="A26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B26" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>C</v>
       </c>
-      <c r="C26" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I26">
+      <c r="C26" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D26" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E26" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F26" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G26" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H26" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I26" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
@@ -1767,35 +1778,35 @@
       <c r="A27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B27" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>C</v>
       </c>
-      <c r="C27" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I27">
+      <c r="C27" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D27" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E27" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F27" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G27" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H27" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I27" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
@@ -1804,35 +1815,35 @@
       <c r="A28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B28" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>D</v>
       </c>
-      <c r="C28" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I28">
+      <c r="C28" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D28" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E28" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F28" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G28" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H28" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I28" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
@@ -1841,35 +1852,35 @@
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B29" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>D</v>
       </c>
-      <c r="C29" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I29">
+      <c r="C29" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D29" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E29" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F29" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G29" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H29" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I29" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
@@ -1878,35 +1889,35 @@
       <c r="A30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B30" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>D</v>
       </c>
-      <c r="C30" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I30">
+      <c r="C30" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D30" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E30" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F30" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G30" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H30" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I30" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
@@ -1915,35 +1926,35 @@
       <c r="A31" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B31" t="str">
+      <c r="B31" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>A</v>
       </c>
-      <c r="C31" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I31">
+      <c r="C31" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D31" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E31" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F31" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G31" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H31" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I31" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
@@ -1952,35 +1963,35 @@
       <c r="A32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B32" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>C</v>
       </c>
-      <c r="C32" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I32">
+      <c r="C32" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D32" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E32" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F32" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G32" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H32" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I32" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
@@ -1989,35 +2000,35 @@
       <c r="A33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B33" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E</v>
       </c>
-      <c r="C33" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I33">
+      <c r="C33" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D33" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E33" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F33" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G33" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H33" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I33" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
@@ -2026,35 +2037,35 @@
       <c r="A34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B34" t="str">
+      <c r="B34" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>F</v>
       </c>
-      <c r="C34" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="I34">
+      <c r="C34" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D34" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E34" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F34" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G34" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H34" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I34" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
@@ -2063,35 +2074,35 @@
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B35" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>A</v>
       </c>
-      <c r="C35" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="I35">
+      <c r="C35" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D35" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E35" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F35" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G35" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H35" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I35" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
@@ -2100,35 +2111,35 @@
       <c r="A36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B36" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>A</v>
       </c>
-      <c r="C36" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="I36">
+      <c r="C36" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D36" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E36" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F36" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G36" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H36" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I36" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
@@ -2137,35 +2148,35 @@
       <c r="A37" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B37" t="str">
+      <c r="B37" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>A</v>
       </c>
-      <c r="C37" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="I37">
+      <c r="C37" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D37" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E37" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F37" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G37" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H37" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I37" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
@@ -2174,35 +2185,35 @@
       <c r="A38" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B38" t="str">
+      <c r="B38" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>C</v>
       </c>
-      <c r="C38" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G38" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="H38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="I38">
+      <c r="C38" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D38" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E38" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F38" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G38" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H38" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I38" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
@@ -2211,35 +2222,35 @@
       <c r="A39" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B39" t="str">
+      <c r="B39" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>C</v>
       </c>
-      <c r="C39" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G39" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="I39">
+      <c r="C39" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D39" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E39" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F39" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G39" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H39" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I39" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
@@ -2248,35 +2259,35 @@
       <c r="A40" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B40" t="str">
+      <c r="B40" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>A</v>
       </c>
-      <c r="C40" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="I40">
+      <c r="C40" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D40" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E40" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F40" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G40" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H40" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I40" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
@@ -2285,35 +2296,35 @@
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B41" t="str">
+      <c r="B41" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>C</v>
       </c>
-      <c r="C41" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="I41">
+      <c r="C41" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D41" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E41" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F41" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G41" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H41" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I41" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
@@ -2322,35 +2333,35 @@
       <c r="A42" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B42" t="str">
+      <c r="B42" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>D</v>
       </c>
-      <c r="C42" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="I42">
+      <c r="C42" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D42" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E42" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F42" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G42" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H42" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I42" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
@@ -2359,35 +2370,35 @@
       <c r="A43" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B43" t="str">
+      <c r="B43" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>A</v>
       </c>
-      <c r="C43" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F43" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="I43">
+      <c r="C43" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D43" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E43" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F43" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G43" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H43" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I43" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
@@ -2396,35 +2407,35 @@
       <c r="A44" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B44" t="str">
+      <c r="B44" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>D</v>
       </c>
-      <c r="C44" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D44" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E44" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F44" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G44" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="H44" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="I44">
+      <c r="C44" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D44" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E44" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F44" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G44" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H44" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I44" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
@@ -2433,35 +2444,35 @@
       <c r="A45" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B45" t="str">
+      <c r="B45" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E</v>
       </c>
-      <c r="C45" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D45" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F45" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H45" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="I45">
+      <c r="C45" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D45" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E45" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F45" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G45" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H45" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I45" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
@@ -2470,35 +2481,35 @@
       <c r="A46" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B46" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>B</v>
       </c>
-      <c r="C46" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D46" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
-      </c>
-      <c r="E46" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G46" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H46" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="I46">
+      <c r="C46" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D46" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E46" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F46" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G46" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H46" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I46" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
@@ -2507,35 +2518,35 @@
       <c r="A47" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B47" t="str">
+      <c r="B47" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>B</v>
       </c>
-      <c r="C47" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E47" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F47" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G47" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H47" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="I47">
+      <c r="C47" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D47" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E47" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F47" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G47" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H47" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I47" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
@@ -2544,35 +2555,35 @@
       <c r="A48" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B48" t="str">
+      <c r="B48" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>D</v>
       </c>
-      <c r="C48" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D48" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F48" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
-      </c>
-      <c r="G48" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H48" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="I48">
+      <c r="C48" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D48" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E48" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F48" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G48" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H48" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I48" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
@@ -2581,35 +2592,35 @@
       <c r="A49" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B49" t="str">
+      <c r="B49" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E</v>
       </c>
-      <c r="C49" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D49" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E49" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F49" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
-      </c>
-      <c r="G49" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="H49" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="I49">
+      <c r="C49" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D49" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E49" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F49" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G49" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H49" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I49" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
@@ -2618,35 +2629,35 @@
       <c r="A50" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B50" t="str">
+      <c r="B50" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>F</v>
       </c>
-      <c r="C50" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D50" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E50" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F50" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
-      </c>
-      <c r="G50" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="H50" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I50">
+      <c r="C50" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D50" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E50" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F50" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G50" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H50" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I50" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
@@ -2655,35 +2666,35 @@
       <c r="A51" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B51" t="str">
+      <c r="B51" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>B</v>
       </c>
-      <c r="C51" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D51" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
-      </c>
-      <c r="E51" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F51" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
-      </c>
-      <c r="G51" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="H51" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I51">
+      <c r="C51" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D51" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E51" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F51" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G51" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H51" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I51" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
@@ -2692,35 +2703,35 @@
       <c r="A52" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B52" t="str">
+      <c r="B52" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E</v>
       </c>
-      <c r="C52" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D52" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
-      </c>
-      <c r="E52" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F52" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
-      </c>
-      <c r="G52" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H52" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I52">
+      <c r="C52" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D52" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E52" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F52" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G52" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H52" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I52" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
@@ -2729,35 +2740,35 @@
       <c r="A53" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B53" t="str">
+      <c r="B53" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>B</v>
       </c>
-      <c r="C53" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D53" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E53" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F53" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
-      </c>
-      <c r="G53" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H53" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I53">
+      <c r="C53" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D53" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E53" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F53" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G53" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H53" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I53" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
@@ -2766,35 +2777,35 @@
       <c r="A54" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B54" t="str">
+      <c r="B54" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>B</v>
       </c>
-      <c r="C54" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D54" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
-      </c>
-      <c r="E54" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F54" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
-      </c>
-      <c r="G54" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H54" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I54">
+      <c r="C54" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D54" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E54" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F54" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G54" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H54" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I54" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
@@ -2803,35 +2814,35 @@
       <c r="A55" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B55" t="str">
+      <c r="B55" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>C</v>
       </c>
-      <c r="C55" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D55" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
-      </c>
-      <c r="E55" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
-      </c>
-      <c r="F55" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
-      </c>
-      <c r="G55" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H55" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I55">
+      <c r="C55" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D55" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E55" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F55" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G55" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H55" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I55" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>5</v>
       </c>
@@ -2840,35 +2851,35 @@
       <c r="A56" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B56" t="str">
+      <c r="B56" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>B</v>
       </c>
-      <c r="C56" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D56" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E56" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
-      </c>
-      <c r="F56" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
-      </c>
-      <c r="G56" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H56" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I56">
+      <c r="C56" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D56" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E56" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F56" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G56" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H56" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I56" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
@@ -2877,35 +2888,35 @@
       <c r="A57" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B57" t="str">
+      <c r="B57" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>A</v>
       </c>
-      <c r="C57" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
-      </c>
-      <c r="D57" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E57" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
-      </c>
-      <c r="F57" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
-      </c>
-      <c r="G57" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H57" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I57">
+      <c r="C57" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D57" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E57" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F57" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G57" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H57" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I57" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>5</v>
       </c>
@@ -2914,35 +2925,35 @@
       <c r="A58" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B58" t="str">
+      <c r="B58" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>D</v>
       </c>
-      <c r="C58" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
-      </c>
-      <c r="D58" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E58" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
-      </c>
-      <c r="F58" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G58" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H58" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I58">
+      <c r="C58" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ég</v>
+      </c>
+      <c r="D58" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E58" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F58" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G58" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H58" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I58" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
@@ -2951,35 +2962,35 @@
       <c r="A59" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B59" t="str">
+      <c r="B59" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>A</v>
       </c>
-      <c r="C59" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D59" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E59" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
-      </c>
-      <c r="F59" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G59" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H59" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I59">
+      <c r="C59" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D59" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E59" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F59" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G59" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H59" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I59" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
@@ -2988,35 +2999,35 @@
       <c r="A60" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B60" t="str">
+      <c r="B60" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E</v>
       </c>
-      <c r="C60" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D60" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E60" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
-      </c>
-      <c r="F60" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G60" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="H60" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I60">
+      <c r="C60" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D60" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E60" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Ég</v>
+      </c>
+      <c r="F60" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G60" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H60" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I60" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
@@ -3025,35 +3036,35 @@
       <c r="A61" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B61" t="str">
+      <c r="B61" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>C</v>
       </c>
-      <c r="C61" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="E61" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F61" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G61" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="H61" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I61">
+      <c r="C61" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D61" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="E61" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F61" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G61" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H61" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I61" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
@@ -3062,35 +3073,35 @@
       <c r="A62" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B62" t="str">
+      <c r="B62" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>B</v>
       </c>
-      <c r="C62" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D62" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
-      </c>
-      <c r="E62" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F62" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G62" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="H62" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I62">
+      <c r="C62" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D62" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E62" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F62" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G62" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H62" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I62" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
@@ -3099,35 +3110,35 @@
       <c r="A63" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B63" t="str">
+      <c r="B63" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>D</v>
       </c>
-      <c r="C63" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D63" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
-      </c>
-      <c r="E63" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F63" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
-      </c>
-      <c r="G63" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="H63" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
-      </c>
-      <c r="I63">
+      <c r="C63" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D63" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E63" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F63" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G63" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H63" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Ég</v>
+      </c>
+      <c r="I63" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
@@ -3136,35 +3147,35 @@
       <c r="A64" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B64" t="str">
+      <c r="B64" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>F</v>
       </c>
-      <c r="C64" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D64" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
-      </c>
-      <c r="E64" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F64" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
-      </c>
-      <c r="G64" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="H64" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="I64">
+      <c r="C64" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D64" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E64" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F64" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G64" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H64" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I64" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
@@ -3173,35 +3184,35 @@
       <c r="A65" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B65" t="str">
+      <c r="B65" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>D</v>
       </c>
-      <c r="C65" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D65" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
-      </c>
-      <c r="E65" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F65" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G65" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="H65" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="I65">
+      <c r="C65" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D65" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E65" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F65" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G65" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="H65" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I65" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
@@ -3210,35 +3221,35 @@
       <c r="A66" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B66" t="str">
+      <c r="B66" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E</v>
       </c>
-      <c r="C66" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D66" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
-      </c>
-      <c r="E66" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F66" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="G66" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H66" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="I66">
+      <c r="C66" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D66" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E66" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F66" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="G66" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H66" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I66" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
@@ -3247,35 +3258,35 @@
       <c r="A67" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B67" t="str">
+      <c r="B67" s="8" t="str">
         <f t="shared" ref="B67:B102" ca="1" si="8">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
         <v>D</v>
       </c>
-      <c r="C67" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="D67" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
-      </c>
-      <c r="E67" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="F67" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
-      </c>
-      <c r="G67" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
-      </c>
-      <c r="H67" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="I67">
+      <c r="C67" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="D67" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ég</v>
+      </c>
+      <c r="E67" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="F67" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Ég</v>
+      </c>
+      <c r="G67" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Ég</v>
+      </c>
+      <c r="H67" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I67" s="8">
         <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
@@ -3284,35 +3295,35 @@
       <c r="A68" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B68" t="str">
+      <c r="B68" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>C</v>
       </c>
-      <c r="C68" t="str">
+      <c r="C68" s="8" t="str">
         <f t="shared" ref="C68:C102" ca="1" si="9" xml:space="preserve"> IF(_xlfn.XOR(B68 = $C$1, C67 = "Ég"),"Ég","")</f>
         <v/>
       </c>
-      <c r="D68" t="str">
+      <c r="D68" s="8" t="str">
         <f t="shared" ref="D68:D102" ca="1" si="10" xml:space="preserve"> IF(_xlfn.XOR(B68 = $D$1, D67 = "Ég"),"Ég","")</f>
         <v>Ég</v>
       </c>
-      <c r="E68" t="str">
+      <c r="E68" s="8" t="str">
         <f t="shared" ref="E68:E102" ca="1" si="11" xml:space="preserve"> IF(_xlfn.XOR(B68 = $E$1, E67 = "Ég"),"Ég","")</f>
         <v>Ég</v>
       </c>
-      <c r="F68" t="str">
+      <c r="F68" s="8" t="str">
         <f t="shared" ref="F68:F102" ca="1" si="12" xml:space="preserve"> IF(_xlfn.XOR(B68 = $F$1, F67 = "Ég"),"Ég","")</f>
         <v>Ég</v>
       </c>
-      <c r="G68" t="str">
+      <c r="G68" s="8" t="str">
         <f t="shared" ref="G68:G102" ca="1" si="13" xml:space="preserve"> IF(_xlfn.XOR(B68 = $G$1, G67 = "Ég"),"Ég","")</f>
         <v>Ég</v>
       </c>
-      <c r="H68" t="str">
+      <c r="H68" s="8" t="str">
         <f t="shared" ref="H68:H102" ca="1" si="14" xml:space="preserve"> IF(_xlfn.XOR(B68 = $H$1, H67 = "Ég"),"Ég","")</f>
         <v/>
       </c>
-      <c r="I68">
+      <c r="I68" s="8">
         <f t="shared" ref="I68:I102" ca="1" si="15">COUNTIF(B68:H68,"Ég")</f>
         <v>4</v>
       </c>
@@ -3321,35 +3332,35 @@
       <c r="A69" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B69" t="str">
+      <c r="B69" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>F</v>
       </c>
-      <c r="C69" t="str">
+      <c r="C69" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="D69" t="str">
+      <c r="D69" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E69" t="str">
+      <c r="E69" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>Ég</v>
       </c>
-      <c r="F69" t="str">
+      <c r="F69" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>Ég</v>
       </c>
-      <c r="G69" t="str">
+      <c r="G69" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>Ég</v>
       </c>
-      <c r="H69" t="str">
+      <c r="H69" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>Ég</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>5</v>
       </c>
@@ -3358,35 +3369,35 @@
       <c r="A70" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B70" t="str">
+      <c r="B70" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>E</v>
       </c>
-      <c r="C70" t="str">
+      <c r="C70" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="D70" t="str">
+      <c r="D70" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E70" t="str">
+      <c r="E70" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>Ég</v>
       </c>
-      <c r="F70" t="str">
+      <c r="F70" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>Ég</v>
       </c>
-      <c r="G70" t="str">
+      <c r="G70" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="H70" t="str">
+      <c r="H70" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>Ég</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>4</v>
       </c>
@@ -3395,35 +3406,35 @@
       <c r="A71" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B71" t="str">
+      <c r="B71" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>F</v>
       </c>
-      <c r="C71" t="str">
+      <c r="C71" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="D71" t="str">
+      <c r="D71" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E71" t="str">
+      <c r="E71" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>Ég</v>
       </c>
-      <c r="F71" t="str">
+      <c r="F71" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>Ég</v>
       </c>
-      <c r="G71" t="str">
+      <c r="G71" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="H71" t="str">
+      <c r="H71" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="I71">
+      <c r="I71" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
@@ -3432,35 +3443,35 @@
       <c r="A72" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B72" t="str">
+      <c r="B72" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>F</v>
       </c>
-      <c r="C72" t="str">
+      <c r="C72" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="D72" t="str">
+      <c r="D72" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E72" t="str">
+      <c r="E72" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>Ég</v>
       </c>
-      <c r="F72" t="str">
+      <c r="F72" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>Ég</v>
       </c>
-      <c r="G72" t="str">
+      <c r="G72" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="H72" t="str">
+      <c r="H72" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>Ég</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>4</v>
       </c>
@@ -3469,35 +3480,35 @@
       <c r="A73" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B73" t="str">
+      <c r="B73" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>A</v>
       </c>
-      <c r="C73" t="str">
+      <c r="C73" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
-      <c r="D73" t="str">
+      <c r="D73" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E73" t="str">
+      <c r="E73" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>Ég</v>
       </c>
-      <c r="F73" t="str">
+      <c r="F73" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>Ég</v>
       </c>
-      <c r="G73" t="str">
+      <c r="G73" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="H73" t="str">
+      <c r="H73" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>Ég</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>5</v>
       </c>
@@ -3506,35 +3517,35 @@
       <c r="A74" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B74" t="str">
+      <c r="B74" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>D</v>
       </c>
-      <c r="C74" t="str">
+      <c r="C74" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
-      <c r="D74" t="str">
+      <c r="D74" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E74" t="str">
+      <c r="E74" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>Ég</v>
       </c>
-      <c r="F74" t="str">
+      <c r="F74" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="G74" t="str">
+      <c r="G74" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="H74" t="str">
+      <c r="H74" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>Ég</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>4</v>
       </c>
@@ -3543,35 +3554,35 @@
       <c r="A75" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B75" t="str">
+      <c r="B75" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>F</v>
       </c>
-      <c r="C75" t="str">
+      <c r="C75" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
-      <c r="D75" t="str">
+      <c r="D75" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E75" t="str">
+      <c r="E75" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>Ég</v>
       </c>
-      <c r="F75" t="str">
+      <c r="F75" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="G75" t="str">
+      <c r="G75" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="H75" t="str">
+      <c r="H75" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="I75">
+      <c r="I75" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
@@ -3580,35 +3591,35 @@
       <c r="A76" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B76" t="str">
+      <c r="B76" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>C</v>
       </c>
-      <c r="C76" t="str">
+      <c r="C76" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
-      <c r="D76" t="str">
+      <c r="D76" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E76" t="str">
+      <c r="E76" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F76" t="str">
+      <c r="F76" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="G76" t="str">
+      <c r="G76" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="H76" t="str">
+      <c r="H76" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="I76">
+      <c r="I76" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
@@ -3617,35 +3628,35 @@
       <c r="A77" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B77" t="str">
+      <c r="B77" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>A</v>
       </c>
-      <c r="C77" t="str">
+      <c r="C77" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="D77" t="str">
+      <c r="D77" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E77" t="str">
+      <c r="E77" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F77" t="str">
+      <c r="F77" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="G77" t="str">
+      <c r="G77" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="H77" t="str">
+      <c r="H77" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="I77">
+      <c r="I77" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
@@ -3654,35 +3665,35 @@
       <c r="A78" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B78" t="str">
+      <c r="B78" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>C</v>
       </c>
-      <c r="C78" t="str">
+      <c r="C78" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="D78" t="str">
+      <c r="D78" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E78" t="str">
+      <c r="E78" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>Ég</v>
       </c>
-      <c r="F78" t="str">
+      <c r="F78" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="G78" t="str">
+      <c r="G78" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="H78" t="str">
+      <c r="H78" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="I78">
+      <c r="I78" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
@@ -3691,35 +3702,35 @@
       <c r="A79" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B79" t="str">
+      <c r="B79" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>D</v>
       </c>
-      <c r="C79" t="str">
+      <c r="C79" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="D79" t="str">
+      <c r="D79" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E79" t="str">
+      <c r="E79" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>Ég</v>
       </c>
-      <c r="F79" t="str">
+      <c r="F79" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>Ég</v>
       </c>
-      <c r="G79" t="str">
+      <c r="G79" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="H79" t="str">
+      <c r="H79" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="I79">
+      <c r="I79" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
@@ -3728,35 +3739,35 @@
       <c r="A80" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B80" t="str">
+      <c r="B80" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>F</v>
       </c>
-      <c r="C80" t="str">
+      <c r="C80" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="D80" t="str">
+      <c r="D80" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E80" t="str">
+      <c r="E80" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>Ég</v>
       </c>
-      <c r="F80" t="str">
+      <c r="F80" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>Ég</v>
       </c>
-      <c r="G80" t="str">
+      <c r="G80" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="H80" t="str">
+      <c r="H80" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>Ég</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>4</v>
       </c>
@@ -3765,35 +3776,35 @@
       <c r="A81" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B81" t="str">
+      <c r="B81" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>C</v>
       </c>
-      <c r="C81" t="str">
+      <c r="C81" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="D81" t="str">
+      <c r="D81" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E81" t="str">
+      <c r="E81" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F81" t="str">
+      <c r="F81" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>Ég</v>
       </c>
-      <c r="G81" t="str">
+      <c r="G81" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="H81" t="str">
+      <c r="H81" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>Ég</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
@@ -3802,35 +3813,35 @@
       <c r="A82" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B82" t="str">
+      <c r="B82" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>F</v>
       </c>
-      <c r="C82" t="str">
+      <c r="C82" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="D82" t="str">
+      <c r="D82" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E82" t="str">
+      <c r="E82" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F82" t="str">
+      <c r="F82" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>Ég</v>
       </c>
-      <c r="G82" t="str">
+      <c r="G82" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="H82" t="str">
+      <c r="H82" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="I82">
+      <c r="I82" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
@@ -3839,35 +3850,35 @@
       <c r="A83" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B83" t="str">
+      <c r="B83" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>B</v>
       </c>
-      <c r="C83" t="str">
+      <c r="C83" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="D83" t="str">
+      <c r="D83" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="E83" t="str">
+      <c r="E83" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F83" t="str">
+      <c r="F83" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>Ég</v>
       </c>
-      <c r="G83" t="str">
+      <c r="G83" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="H83" t="str">
+      <c r="H83" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="I83">
+      <c r="I83" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
@@ -3876,35 +3887,35 @@
       <c r="A84" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B84" t="str">
+      <c r="B84" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>F</v>
       </c>
-      <c r="C84" t="str">
+      <c r="C84" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="D84" t="str">
+      <c r="D84" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="E84" t="str">
+      <c r="E84" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F84" t="str">
+      <c r="F84" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>Ég</v>
       </c>
-      <c r="G84" t="str">
+      <c r="G84" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="H84" t="str">
+      <c r="H84" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>Ég</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
@@ -3913,35 +3924,35 @@
       <c r="A85" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B85" t="str">
+      <c r="B85" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>D</v>
       </c>
-      <c r="C85" t="str">
+      <c r="C85" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="D85" t="str">
+      <c r="D85" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="E85" t="str">
+      <c r="E85" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F85" t="str">
+      <c r="F85" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="G85" t="str">
+      <c r="G85" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="H85" t="str">
+      <c r="H85" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>Ég</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
@@ -3950,35 +3961,35 @@
       <c r="A86" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B86" t="str">
+      <c r="B86" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>C</v>
       </c>
-      <c r="C86" t="str">
+      <c r="C86" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="D86" t="str">
+      <c r="D86" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="E86" t="str">
+      <c r="E86" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>Ég</v>
       </c>
-      <c r="F86" t="str">
+      <c r="F86" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="G86" t="str">
+      <c r="G86" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="H86" t="str">
+      <c r="H86" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>Ég</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
@@ -3987,35 +3998,35 @@
       <c r="A87" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B87" t="str">
+      <c r="B87" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>B</v>
       </c>
-      <c r="C87" t="str">
+      <c r="C87" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="D87" t="str">
+      <c r="D87" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E87" t="str">
+      <c r="E87" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>Ég</v>
       </c>
-      <c r="F87" t="str">
+      <c r="F87" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="G87" t="str">
+      <c r="G87" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="H87" t="str">
+      <c r="H87" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>Ég</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
@@ -4024,35 +4035,35 @@
       <c r="A88" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B88" t="str">
+      <c r="B88" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>B</v>
       </c>
-      <c r="C88" t="str">
+      <c r="C88" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="D88" t="str">
+      <c r="D88" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="E88" t="str">
+      <c r="E88" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>Ég</v>
       </c>
-      <c r="F88" t="str">
+      <c r="F88" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="G88" t="str">
+      <c r="G88" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="H88" t="str">
+      <c r="H88" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>Ég</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
@@ -4061,35 +4072,35 @@
       <c r="A89" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B89" t="str">
+      <c r="B89" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>B</v>
       </c>
-      <c r="C89" t="str">
+      <c r="C89" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="D89" t="str">
+      <c r="D89" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E89" t="str">
+      <c r="E89" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>Ég</v>
       </c>
-      <c r="F89" t="str">
+      <c r="F89" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="G89" t="str">
+      <c r="G89" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="H89" t="str">
+      <c r="H89" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>Ég</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
@@ -4098,35 +4109,35 @@
       <c r="A90" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B90" t="str">
+      <c r="B90" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>E</v>
       </c>
-      <c r="C90" t="str">
+      <c r="C90" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="D90" t="str">
+      <c r="D90" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E90" t="str">
+      <c r="E90" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>Ég</v>
       </c>
-      <c r="F90" t="str">
+      <c r="F90" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="G90" t="str">
+      <c r="G90" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>Ég</v>
       </c>
-      <c r="H90" t="str">
+      <c r="H90" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>Ég</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>4</v>
       </c>
@@ -4135,35 +4146,35 @@
       <c r="A91" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B91" t="str">
+      <c r="B91" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>D</v>
       </c>
-      <c r="C91" t="str">
+      <c r="C91" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="D91" t="str">
+      <c r="D91" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E91" t="str">
+      <c r="E91" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>Ég</v>
       </c>
-      <c r="F91" t="str">
+      <c r="F91" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>Ég</v>
       </c>
-      <c r="G91" t="str">
+      <c r="G91" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>Ég</v>
       </c>
-      <c r="H91" t="str">
+      <c r="H91" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>Ég</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>5</v>
       </c>
@@ -4172,35 +4183,35 @@
       <c r="A92" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B92" t="str">
+      <c r="B92" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>A</v>
       </c>
-      <c r="C92" t="str">
+      <c r="C92" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
-      <c r="D92" t="str">
+      <c r="D92" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E92" t="str">
+      <c r="E92" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>Ég</v>
       </c>
-      <c r="F92" t="str">
+      <c r="F92" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>Ég</v>
       </c>
-      <c r="G92" t="str">
+      <c r="G92" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>Ég</v>
       </c>
-      <c r="H92" t="str">
+      <c r="H92" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>Ég</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>6</v>
       </c>
@@ -4209,35 +4220,35 @@
       <c r="A93" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B93" t="str">
+      <c r="B93" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>C</v>
       </c>
-      <c r="C93" t="str">
+      <c r="C93" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
-      <c r="D93" t="str">
+      <c r="D93" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E93" t="str">
+      <c r="E93" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F93" t="str">
+      <c r="F93" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>Ég</v>
       </c>
-      <c r="G93" t="str">
+      <c r="G93" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>Ég</v>
       </c>
-      <c r="H93" t="str">
+      <c r="H93" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>Ég</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>5</v>
       </c>
@@ -4246,35 +4257,35 @@
       <c r="A94" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B94" t="str">
+      <c r="B94" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>D</v>
       </c>
-      <c r="C94" t="str">
+      <c r="C94" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
-      <c r="D94" t="str">
+      <c r="D94" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E94" t="str">
+      <c r="E94" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F94" t="str">
+      <c r="F94" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="G94" t="str">
+      <c r="G94" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>Ég</v>
       </c>
-      <c r="H94" t="str">
+      <c r="H94" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>Ég</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>4</v>
       </c>
@@ -4283,35 +4294,35 @@
       <c r="A95" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B95" t="str">
+      <c r="B95" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>E</v>
       </c>
-      <c r="C95" t="str">
+      <c r="C95" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
-      <c r="D95" t="str">
+      <c r="D95" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E95" t="str">
+      <c r="E95" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F95" t="str">
+      <c r="F95" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="G95" t="str">
+      <c r="G95" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="H95" t="str">
+      <c r="H95" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>Ég</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
@@ -4320,35 +4331,35 @@
       <c r="A96" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B96" t="str">
+      <c r="B96" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>F</v>
       </c>
-      <c r="C96" t="str">
+      <c r="C96" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
-      <c r="D96" t="str">
+      <c r="D96" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E96" t="str">
+      <c r="E96" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F96" t="str">
+      <c r="F96" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="G96" t="str">
+      <c r="G96" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="H96" t="str">
+      <c r="H96" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="I96">
+      <c r="I96" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
@@ -4357,35 +4368,35 @@
       <c r="A97" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B97" t="str">
+      <c r="B97" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>F</v>
       </c>
-      <c r="C97" t="str">
+      <c r="C97" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
-      <c r="D97" t="str">
+      <c r="D97" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E97" t="str">
+      <c r="E97" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F97" t="str">
+      <c r="F97" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="G97" t="str">
+      <c r="G97" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="H97" t="str">
+      <c r="H97" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>Ég</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
@@ -4394,35 +4405,35 @@
       <c r="A98" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B98" t="str">
+      <c r="B98" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>F</v>
       </c>
-      <c r="C98" t="str">
+      <c r="C98" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
-      <c r="D98" t="str">
+      <c r="D98" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E98" t="str">
+      <c r="E98" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F98" t="str">
+      <c r="F98" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="G98" t="str">
+      <c r="G98" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="H98" t="str">
+      <c r="H98" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="I98">
+      <c r="I98" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
@@ -4431,35 +4442,35 @@
       <c r="A99" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B99" t="str">
+      <c r="B99" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>D</v>
       </c>
-      <c r="C99" t="str">
+      <c r="C99" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
-      <c r="D99" t="str">
+      <c r="D99" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E99" t="str">
+      <c r="E99" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F99" t="str">
+      <c r="F99" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>Ég</v>
       </c>
-      <c r="G99" t="str">
+      <c r="G99" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="H99" t="str">
+      <c r="H99" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="I99">
+      <c r="I99" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
@@ -4468,35 +4479,35 @@
       <c r="A100" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B100" t="str">
+      <c r="B100" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>D</v>
       </c>
-      <c r="C100" t="str">
+      <c r="C100" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
-      <c r="D100" t="str">
+      <c r="D100" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E100" t="str">
+      <c r="E100" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="F100" t="str">
+      <c r="F100" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="G100" t="str">
+      <c r="G100" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="H100" t="str">
+      <c r="H100" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="I100">
+      <c r="I100" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
@@ -4505,35 +4516,35 @@
       <c r="A101" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B101" t="str">
+      <c r="B101" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>C</v>
       </c>
-      <c r="C101" t="str">
+      <c r="C101" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
-      <c r="D101" t="str">
+      <c r="D101" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E101" t="str">
+      <c r="E101" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>Ég</v>
       </c>
-      <c r="F101" t="str">
+      <c r="F101" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="G101" t="str">
+      <c r="G101" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="H101" t="str">
+      <c r="H101" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="I101">
+      <c r="I101" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
@@ -4542,35 +4553,35 @@
       <c r="A102" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B102" t="str">
+      <c r="B102" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>E</v>
       </c>
-      <c r="C102" t="str">
+      <c r="C102" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>Ég</v>
       </c>
-      <c r="D102" t="str">
+      <c r="D102" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>Ég</v>
       </c>
-      <c r="E102" t="str">
+      <c r="E102" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>Ég</v>
       </c>
-      <c r="F102" t="str">
+      <c r="F102" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="G102" t="str">
+      <c r="G102" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>Ég</v>
       </c>
-      <c r="H102" t="str">
+      <c r="H102" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="I102">
+      <c r="I102" s="8">
         <f t="shared" ca="1" si="15"/>
         <v>4</v>
       </c>

--- a/ZelenakSz_13.A_lampak.xlsx
+++ b/ZelenakSz_13.A_lampak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zelenaksz\Desktop\cucc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBAAE9B-20AB-4578-875A-E241DEF52815}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{44290CD8-F6A4-4B4B-BF94-5CBA450D90F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{83E2134B-7878-4807-8A5C-88B4790D783A}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -364,9 +365,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0/"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -440,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -475,6 +473,896 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Előfordulás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Munka1!$L$3:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$L$4:$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A1F3-49F6-ADCA-B9CDF546D07E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="992636480"/>
+        <c:axId val="1042808032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="992636480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1042808032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1042808032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="992636480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C18BD387-1EB4-44D5-AF1C-098B0A13C27F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -777,7 +1665,7 @@
   <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,7 +1718,7 @@
       </c>
       <c r="B3" s="8" t="str">
         <f t="shared" ref="B3:B66" ca="1" si="0">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="C3" s="8" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $C$1, C2 = "Ég"),"Ég","")</f>
@@ -842,7 +1730,7 @@
       </c>
       <c r="E3" s="8" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $E$1, E2 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F3" s="8" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $F$1, F2 = "Ég"),"Ég","")</f>
@@ -854,7 +1742,7 @@
       </c>
       <c r="H3" s="8" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $H$1, H2 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I3" s="8">
         <f ca="1">COUNTIF(B3:H3,"Ég")</f>
@@ -863,26 +1751,26 @@
       <c r="K3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
         <v>1</v>
       </c>
-      <c r="M3" s="5">
+      <c r="N3" s="5">
         <v>2</v>
       </c>
-      <c r="N3" s="5">
+      <c r="O3" s="5">
         <v>3</v>
       </c>
-      <c r="O3" s="5">
+      <c r="P3" s="5">
         <v>4</v>
       </c>
-      <c r="P3" s="5">
+      <c r="Q3" s="5">
         <v>5</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="R3" s="5">
         <v>6</v>
-      </c>
-      <c r="R3" s="6">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -891,11 +1779,11 @@
       </c>
       <c r="B4" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="C4" s="8" t="str">
         <f t="shared" ref="C4:C67" ca="1" si="1" xml:space="preserve"> IF(_xlfn.XOR(B4 = $C$1, C3 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D4" s="8" t="str">
         <f t="shared" ref="D4:D67" ca="1" si="2" xml:space="preserve"> IF(_xlfn.XOR(B4 = $D$1, D3 = "Ég"),"Ég","")</f>
@@ -903,7 +1791,7 @@
       </c>
       <c r="E4" s="8" t="str">
         <f t="shared" ref="E4:E67" ca="1" si="3" xml:space="preserve"> IF(_xlfn.XOR(B4 = $E$1, E3 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F4" s="8" t="str">
         <f t="shared" ref="F4:F67" ca="1" si="4" xml:space="preserve"> IF(_xlfn.XOR(B4 = $F$1, F3 = "Ég"),"Ég","")</f>
@@ -911,11 +1799,11 @@
       </c>
       <c r="G4" s="8" t="str">
         <f t="shared" ref="G4:G67" ca="1" si="5" xml:space="preserve"> IF(_xlfn.XOR(B4 = $G$1, G3 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H4" s="8" t="str">
         <f t="shared" ref="H4:H67" ca="1" si="6" xml:space="preserve"> IF(_xlfn.XOR(B4 = $H$1, H3 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" ref="I4:I67" ca="1" si="7">COUNTIF(B4:H4,"Ég")</f>
@@ -925,32 +1813,32 @@
         <v>109</v>
       </c>
       <c r="L4" s="5">
+        <f ca="1">COUNTIF($I$3:$I$102,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="5">
         <f ca="1">COUNTIF($I$3:$I$102,1)</f>
-        <v>14</v>
-      </c>
-      <c r="M4" s="5">
+        <v>10</v>
+      </c>
+      <c r="N4" s="5">
         <f ca="1">COUNTIF($I$3:$I$102,2)</f>
-        <v>27</v>
-      </c>
-      <c r="N4" s="5">
+        <v>28</v>
+      </c>
+      <c r="O4" s="5">
         <f ca="1">COUNTIF($I$3:$I$102,3)</f>
-        <v>28</v>
-      </c>
-      <c r="O4" s="5">
+        <v>33</v>
+      </c>
+      <c r="P4" s="5">
         <f ca="1">COUNTIF($I$3:$I$102,4)</f>
-        <v>20</v>
-      </c>
-      <c r="P4" s="5">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="5">
         <f ca="1">COUNTIF($I$3:$I$102,5)</f>
-        <v>8</v>
-      </c>
-      <c r="Q4" s="5">
+        <v>7</v>
+      </c>
+      <c r="R4" s="5">
         <f ca="1">COUNTIF($I$3:$I$102,6)</f>
-        <v>1</v>
-      </c>
-      <c r="R4" s="5">
-        <f ca="1">COUNTIF($I$3:$I$102,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -963,7 +1851,7 @@
       </c>
       <c r="C5" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D5" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -971,7 +1859,7 @@
       </c>
       <c r="E5" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F5" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -979,22 +1867,22 @@
       </c>
       <c r="G5" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H5" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I5" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="7" t="str">
         <f ca="1">IFERROR(MATCH(6,$I$3:$I$102,0),"Nincs ilyen")</f>
-        <v>90</v>
+        <v>Nincs ilyen</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1003,15 +1891,15 @@
       </c>
       <c r="B6" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C6" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D6" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E6" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1023,11 +1911,11 @@
       </c>
       <c r="G6" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H6" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I6" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -1040,7 +1928,7 @@
       </c>
       <c r="B7" s="8" t="str">
         <f ca="1">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="C7" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1048,7 +1936,7 @@
       </c>
       <c r="D7" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E7" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1064,7 +1952,7 @@
       </c>
       <c r="H7" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I7" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -1077,7 +1965,7 @@
       </c>
       <c r="B8" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="C8" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1097,11 +1985,11 @@
       </c>
       <c r="G8" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H8" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I8" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -1114,11 +2002,11 @@
       </c>
       <c r="B9" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="C9" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D9" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1126,7 +2014,7 @@
       </c>
       <c r="E9" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F9" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1134,15 +2022,15 @@
       </c>
       <c r="G9" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H9" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I9" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1151,11 +2039,11 @@
       </c>
       <c r="B10" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="C10" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D10" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1163,11 +2051,11 @@
       </c>
       <c r="E10" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F10" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G10" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1175,11 +2063,11 @@
       </c>
       <c r="H10" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I10" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1188,11 +2076,11 @@
       </c>
       <c r="B11" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="C11" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D11" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1204,19 +2092,19 @@
       </c>
       <c r="F11" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G11" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H11" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I11" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1225,7 +2113,7 @@
       </c>
       <c r="B12" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C12" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1245,15 +2133,15 @@
       </c>
       <c r="G12" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H12" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I12" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1262,7 +2150,7 @@
       </c>
       <c r="B13" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C13" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1270,11 +2158,11 @@
       </c>
       <c r="D13" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E13" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F13" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1282,11 +2170,11 @@
       </c>
       <c r="G13" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H13" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I13" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -1299,7 +2187,7 @@
       </c>
       <c r="B14" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="C14" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1311,7 +2199,7 @@
       </c>
       <c r="E14" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F14" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1319,7 +2207,7 @@
       </c>
       <c r="G14" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H14" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1348,7 +2236,7 @@
       </c>
       <c r="E15" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F15" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1356,7 +2244,7 @@
       </c>
       <c r="G15" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H15" s="8" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B15 = $H$1, H14 = "Ég"),"Ég","")</f>
@@ -1373,19 +2261,19 @@
       </c>
       <c r="B16" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="C16" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D16" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E16" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F16" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1393,7 +2281,7 @@
       </c>
       <c r="G16" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H16" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1410,31 +2298,31 @@
       </c>
       <c r="B17" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="C17" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D17" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E17" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F17" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G17" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H17" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I17" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -1447,11 +2335,11 @@
       </c>
       <c r="B18" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="C18" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D18" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1459,15 +2347,15 @@
       </c>
       <c r="E18" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F18" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G18" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H18" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1488,7 +2376,7 @@
       </c>
       <c r="C19" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D19" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1496,15 +2384,15 @@
       </c>
       <c r="E19" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F19" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G19" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H19" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1521,11 +2409,11 @@
       </c>
       <c r="B20" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="C20" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D20" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1537,19 +2425,19 @@
       </c>
       <c r="F20" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G20" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H20" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I20" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1558,11 +2446,11 @@
       </c>
       <c r="B21" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="C21" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D21" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1570,15 +2458,15 @@
       </c>
       <c r="E21" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F21" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G21" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H21" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1595,7 +2483,7 @@
       </c>
       <c r="B22" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="C22" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1603,19 +2491,19 @@
       </c>
       <c r="D22" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E22" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F22" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G22" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H22" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1623,7 +2511,7 @@
       </c>
       <c r="I22" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1632,7 +2520,7 @@
       </c>
       <c r="B23" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="C23" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1640,11 +2528,11 @@
       </c>
       <c r="D23" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E23" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F23" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1652,11 +2540,11 @@
       </c>
       <c r="G23" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H23" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I23" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -1669,35 +2557,35 @@
       </c>
       <c r="B24" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C24" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D24" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E24" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F24" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G24" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H24" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I24" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1706,15 +2594,15 @@
       </c>
       <c r="B25" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C25" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D25" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E25" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1726,11 +2614,11 @@
       </c>
       <c r="G25" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H25" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I25" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -1743,35 +2631,35 @@
       </c>
       <c r="B26" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C26" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D26" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E26" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F26" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G26" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H26" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I26" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1780,11 +2668,11 @@
       </c>
       <c r="B27" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C27" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D27" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1796,19 +2684,19 @@
       </c>
       <c r="F27" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G27" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H27" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I27" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1817,11 +2705,11 @@
       </c>
       <c r="B28" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="C28" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D28" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1837,7 +2725,7 @@
       </c>
       <c r="G28" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H28" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1854,7 +2742,7 @@
       </c>
       <c r="B29" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C29" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1870,11 +2758,11 @@
       </c>
       <c r="F29" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G29" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H29" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1882,7 +2770,7 @@
       </c>
       <c r="I29" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1907,11 +2795,11 @@
       </c>
       <c r="F30" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G30" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H30" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -1928,11 +2816,11 @@
       </c>
       <c r="B31" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="C31" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D31" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1944,7 +2832,7 @@
       </c>
       <c r="F31" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G31" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1965,11 +2853,11 @@
       </c>
       <c r="B32" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="C32" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D32" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1977,11 +2865,11 @@
       </c>
       <c r="E32" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F32" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G32" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1989,11 +2877,11 @@
       </c>
       <c r="H32" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I32" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2002,11 +2890,11 @@
       </c>
       <c r="B33" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="C33" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D33" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2018,15 +2906,15 @@
       </c>
       <c r="F33" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G33" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H33" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I33" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -2039,11 +2927,11 @@
       </c>
       <c r="B34" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="C34" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D34" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2051,15 +2939,15 @@
       </c>
       <c r="E34" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F34" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G34" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H34" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2076,7 +2964,7 @@
       </c>
       <c r="B35" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C35" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2088,7 +2976,7 @@
       </c>
       <c r="E35" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F35" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2096,7 +2984,7 @@
       </c>
       <c r="G35" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H35" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2113,11 +3001,11 @@
       </c>
       <c r="B36" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="C36" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D36" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2125,7 +3013,7 @@
       </c>
       <c r="E36" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F36" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2133,11 +3021,11 @@
       </c>
       <c r="G36" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H36" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I36" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -2154,7 +3042,7 @@
       </c>
       <c r="C37" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D37" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2162,7 +3050,7 @@
       </c>
       <c r="E37" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F37" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2170,15 +3058,15 @@
       </c>
       <c r="G37" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H37" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I37" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2187,11 +3075,11 @@
       </c>
       <c r="B38" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="C38" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D38" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2211,11 +3099,11 @@
       </c>
       <c r="H38" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I38" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2224,19 +3112,19 @@
       </c>
       <c r="B39" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C39" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D39" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E39" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F39" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2248,11 +3136,11 @@
       </c>
       <c r="H39" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I39" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2261,7 +3149,7 @@
       </c>
       <c r="B40" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="C40" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2273,7 +3161,7 @@
       </c>
       <c r="E40" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F40" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2285,7 +3173,7 @@
       </c>
       <c r="H40" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I40" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -2298,7 +3186,7 @@
       </c>
       <c r="B41" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C41" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2306,7 +3194,7 @@
       </c>
       <c r="D41" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E41" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2322,11 +3210,11 @@
       </c>
       <c r="H41" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I41" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2335,7 +3223,7 @@
       </c>
       <c r="B42" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C42" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2351,7 +3239,7 @@
       </c>
       <c r="F42" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G42" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2359,7 +3247,7 @@
       </c>
       <c r="H42" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I42" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -2372,15 +3260,15 @@
       </c>
       <c r="B43" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="C43" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D43" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E43" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2388,7 +3276,7 @@
       </c>
       <c r="F43" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G43" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2396,11 +3284,11 @@
       </c>
       <c r="H43" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I43" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2409,7 +3297,7 @@
       </c>
       <c r="B44" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C44" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2417,7 +3305,7 @@
       </c>
       <c r="D44" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E44" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2433,11 +3321,11 @@
       </c>
       <c r="H44" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I44" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2446,15 +3334,15 @@
       </c>
       <c r="B45" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="C45" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D45" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E45" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2466,15 +3354,15 @@
       </c>
       <c r="G45" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H45" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I45" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2483,11 +3371,11 @@
       </c>
       <c r="B46" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C46" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D46" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2499,19 +3387,19 @@
       </c>
       <c r="F46" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G46" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H46" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I46" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2520,35 +3408,35 @@
       </c>
       <c r="B47" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="C47" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D47" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E47" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F47" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G47" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H47" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I47" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2557,15 +3445,15 @@
       </c>
       <c r="B48" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C48" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D48" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E48" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2577,15 +3465,15 @@
       </c>
       <c r="G48" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H48" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I48" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2594,15 +3482,15 @@
       </c>
       <c r="B49" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="C49" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D49" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E49" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2622,7 +3510,7 @@
       </c>
       <c r="I49" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2631,7 +3519,7 @@
       </c>
       <c r="B50" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="C50" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2639,7 +3527,7 @@
       </c>
       <c r="D50" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E50" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2655,7 +3543,7 @@
       </c>
       <c r="H50" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I50" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -2668,7 +3556,7 @@
       </c>
       <c r="B51" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C51" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2684,7 +3572,7 @@
       </c>
       <c r="F51" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G51" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2692,11 +3580,11 @@
       </c>
       <c r="H51" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I51" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2705,7 +3593,7 @@
       </c>
       <c r="B52" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="C52" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2725,15 +3613,15 @@
       </c>
       <c r="G52" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H52" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I52" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2742,7 +3630,7 @@
       </c>
       <c r="B53" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="C53" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2750,7 +3638,7 @@
       </c>
       <c r="D53" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E53" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2762,7 +3650,7 @@
       </c>
       <c r="G53" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H53" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2787,7 +3675,7 @@
       </c>
       <c r="D54" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E54" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2799,7 +3687,7 @@
       </c>
       <c r="G54" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H54" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2807,7 +3695,7 @@
       </c>
       <c r="I54" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2824,7 +3712,7 @@
       </c>
       <c r="D55" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E55" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2836,7 +3724,7 @@
       </c>
       <c r="G55" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H55" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2844,7 +3732,7 @@
       </c>
       <c r="I55" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2853,11 +3741,11 @@
       </c>
       <c r="B56" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="C56" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D56" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2873,7 +3761,7 @@
       </c>
       <c r="G56" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H56" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2890,7 +3778,7 @@
       </c>
       <c r="B57" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="C57" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2927,11 +3815,11 @@
       </c>
       <c r="B58" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C58" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D58" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2943,7 +3831,7 @@
       </c>
       <c r="F58" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G58" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2964,7 +3852,7 @@
       </c>
       <c r="B59" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C59" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3001,7 +3889,7 @@
       </c>
       <c r="B60" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="C60" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3013,7 +3901,7 @@
       </c>
       <c r="E60" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F60" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3021,7 +3909,7 @@
       </c>
       <c r="G60" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H60" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3038,7 +3926,7 @@
       </c>
       <c r="B61" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C61" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3054,11 +3942,11 @@
       </c>
       <c r="F61" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G61" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H61" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3066,7 +3954,7 @@
       </c>
       <c r="I61" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3075,7 +3963,7 @@
       </c>
       <c r="B62" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="C62" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3083,7 +3971,7 @@
       </c>
       <c r="D62" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E62" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3091,15 +3979,15 @@
       </c>
       <c r="F62" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G62" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H62" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I62" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -3112,7 +4000,7 @@
       </c>
       <c r="B63" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="C63" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3120,7 +4008,7 @@
       </c>
       <c r="D63" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E63" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3132,7 +4020,7 @@
       </c>
       <c r="G63" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H63" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3149,7 +4037,7 @@
       </c>
       <c r="B64" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="C64" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3169,15 +4057,15 @@
       </c>
       <c r="G64" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H64" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I64" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3186,7 +4074,7 @@
       </c>
       <c r="B65" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="C65" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3202,7 +4090,7 @@
       </c>
       <c r="F65" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G65" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3210,11 +4098,11 @@
       </c>
       <c r="H65" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I65" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3223,7 +4111,7 @@
       </c>
       <c r="B66" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="C66" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3231,7 +4119,7 @@
       </c>
       <c r="D66" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E66" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3239,15 +4127,15 @@
       </c>
       <c r="F66" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G66" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H66" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I66" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -3260,15 +4148,15 @@
       </c>
       <c r="B67" s="8" t="str">
         <f t="shared" ref="B67:B102" ca="1" si="8">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C67" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D67" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E67" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3280,11 +4168,11 @@
       </c>
       <c r="G67" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H67" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I67" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -3297,11 +4185,11 @@
       </c>
       <c r="B68" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C68" s="8" t="str">
         <f t="shared" ref="C68:C102" ca="1" si="9" xml:space="preserve"> IF(_xlfn.XOR(B68 = $C$1, C67 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D68" s="8" t="str">
         <f t="shared" ref="D68:D102" ca="1" si="10" xml:space="preserve"> IF(_xlfn.XOR(B68 = $D$1, D67 = "Ég"),"Ég","")</f>
@@ -3309,7 +4197,7 @@
       </c>
       <c r="E68" s="8" t="str">
         <f t="shared" ref="E68:E102" ca="1" si="11" xml:space="preserve"> IF(_xlfn.XOR(B68 = $E$1, E67 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F68" s="8" t="str">
         <f t="shared" ref="F68:F102" ca="1" si="12" xml:space="preserve"> IF(_xlfn.XOR(B68 = $F$1, F67 = "Ég"),"Ég","")</f>
@@ -3317,11 +4205,11 @@
       </c>
       <c r="G68" s="8" t="str">
         <f t="shared" ref="G68:G102" ca="1" si="13" xml:space="preserve"> IF(_xlfn.XOR(B68 = $G$1, G67 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H68" s="8" t="str">
         <f t="shared" ref="H68:H102" ca="1" si="14" xml:space="preserve"> IF(_xlfn.XOR(B68 = $H$1, H67 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I68" s="8">
         <f t="shared" ref="I68:I102" ca="1" si="15">COUNTIF(B68:H68,"Ég")</f>
@@ -3334,11 +4222,11 @@
       </c>
       <c r="B69" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="C69" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D69" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3354,7 +4242,7 @@
       </c>
       <c r="G69" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H69" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3371,11 +4259,11 @@
       </c>
       <c r="B70" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="C70" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D70" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3387,7 +4275,7 @@
       </c>
       <c r="F70" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G70" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -3408,11 +4296,11 @@
       </c>
       <c r="B71" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="C71" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D71" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3424,19 +4312,19 @@
       </c>
       <c r="F71" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G71" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H71" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I71" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3445,11 +4333,11 @@
       </c>
       <c r="B72" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="C72" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D72" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3457,15 +4345,15 @@
       </c>
       <c r="E72" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F72" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G72" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H72" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3482,7 +4370,7 @@
       </c>
       <c r="B73" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C73" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3494,7 +4382,7 @@
       </c>
       <c r="E73" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F73" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3502,7 +4390,7 @@
       </c>
       <c r="G73" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H73" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3519,7 +4407,7 @@
       </c>
       <c r="B74" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C74" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3527,19 +4415,19 @@
       </c>
       <c r="D74" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E74" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F74" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G74" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H74" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3556,7 +4444,7 @@
       </c>
       <c r="B75" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="C75" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3564,7 +4452,7 @@
       </c>
       <c r="D75" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E75" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3572,19 +4460,19 @@
       </c>
       <c r="F75" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G75" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H75" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I75" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3601,7 +4489,7 @@
       </c>
       <c r="D76" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E76" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3609,19 +4497,19 @@
       </c>
       <c r="F76" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G76" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H76" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I76" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3630,15 +4518,15 @@
       </c>
       <c r="B77" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="C77" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D77" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E77" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3646,7 +4534,7 @@
       </c>
       <c r="F77" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G77" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -3654,11 +4542,11 @@
       </c>
       <c r="H77" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I77" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3667,11 +4555,11 @@
       </c>
       <c r="B78" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C78" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D78" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3679,11 +4567,11 @@
       </c>
       <c r="E78" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F78" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G78" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -3691,11 +4579,11 @@
       </c>
       <c r="H78" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I78" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3704,19 +4592,19 @@
       </c>
       <c r="B79" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C79" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D79" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E79" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F79" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3728,7 +4616,7 @@
       </c>
       <c r="H79" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I79" s="8">
         <f t="shared" ca="1" si="15"/>
@@ -3741,19 +4629,19 @@
       </c>
       <c r="B80" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="C80" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D80" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E80" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F80" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3761,7 +4649,7 @@
       </c>
       <c r="G80" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H80" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3778,7 +4666,7 @@
       </c>
       <c r="B81" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="C81" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3786,7 +4674,7 @@
       </c>
       <c r="D81" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E81" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3798,7 +4686,7 @@
       </c>
       <c r="G81" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H81" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3815,15 +4703,15 @@
       </c>
       <c r="B82" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="C82" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D82" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E82" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3835,15 +4723,15 @@
       </c>
       <c r="G82" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H82" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I82" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3852,11 +4740,11 @@
       </c>
       <c r="B83" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C83" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D83" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3868,19 +4756,19 @@
       </c>
       <c r="F83" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G83" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H83" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I83" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3893,7 +4781,7 @@
       </c>
       <c r="C84" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D84" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3905,15 +4793,15 @@
       </c>
       <c r="F84" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G84" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H84" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I84" s="8">
         <f t="shared" ca="1" si="15"/>
@@ -3926,11 +4814,11 @@
       </c>
       <c r="B85" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="C85" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D85" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3950,7 +4838,7 @@
       </c>
       <c r="H85" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I85" s="8">
         <f t="shared" ca="1" si="15"/>
@@ -3963,19 +4851,19 @@
       </c>
       <c r="B86" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C86" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D86" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E86" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F86" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3987,7 +4875,7 @@
       </c>
       <c r="H86" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I86" s="8">
         <f t="shared" ca="1" si="15"/>
@@ -4000,11 +4888,11 @@
       </c>
       <c r="B87" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="C87" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D87" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4012,7 +4900,7 @@
       </c>
       <c r="E87" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F87" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4020,11 +4908,11 @@
       </c>
       <c r="G87" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H87" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I87" s="8">
         <f t="shared" ca="1" si="15"/>
@@ -4037,7 +4925,7 @@
       </c>
       <c r="B88" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="C88" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4045,11 +4933,11 @@
       </c>
       <c r="D88" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E88" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F88" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4057,11 +4945,11 @@
       </c>
       <c r="G88" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H88" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I88" s="8">
         <f t="shared" ca="1" si="15"/>
@@ -4074,7 +4962,7 @@
       </c>
       <c r="B89" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C89" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4086,19 +4974,19 @@
       </c>
       <c r="E89" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F89" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G89" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H89" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I89" s="8">
         <f t="shared" ca="1" si="15"/>
@@ -4111,11 +4999,11 @@
       </c>
       <c r="B90" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="C90" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D90" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4123,11 +5011,11 @@
       </c>
       <c r="E90" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F90" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G90" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4135,7 +5023,7 @@
       </c>
       <c r="H90" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I90" s="8">
         <f t="shared" ca="1" si="15"/>
@@ -4148,7 +5036,7 @@
       </c>
       <c r="B91" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C91" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4160,7 +5048,7 @@
       </c>
       <c r="E91" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F91" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4172,11 +5060,11 @@
       </c>
       <c r="H91" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I91" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -4185,19 +5073,19 @@
       </c>
       <c r="B92" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="C92" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D92" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E92" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F92" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4209,11 +5097,11 @@
       </c>
       <c r="H92" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I92" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -4226,15 +5114,15 @@
       </c>
       <c r="C93" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D93" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E93" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F93" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4246,11 +5134,11 @@
       </c>
       <c r="H93" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I93" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -4259,7 +5147,7 @@
       </c>
       <c r="B94" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C94" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4267,15 +5155,15 @@
       </c>
       <c r="D94" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E94" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F94" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G94" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4283,7 +5171,7 @@
       </c>
       <c r="H94" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I94" s="8">
         <f t="shared" ca="1" si="15"/>
@@ -4304,15 +5192,15 @@
       </c>
       <c r="D95" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E95" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F95" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G95" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4320,7 +5208,7 @@
       </c>
       <c r="H95" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I95" s="8">
         <f t="shared" ca="1" si="15"/>
@@ -4333,7 +5221,7 @@
       </c>
       <c r="B96" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="C96" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4345,11 +5233,11 @@
       </c>
       <c r="E96" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F96" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G96" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4361,7 +5249,7 @@
       </c>
       <c r="I96" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -4370,7 +5258,7 @@
       </c>
       <c r="B97" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="C97" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4386,7 +5274,7 @@
       </c>
       <c r="F97" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G97" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4394,7 +5282,7 @@
       </c>
       <c r="H97" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I97" s="8">
         <f t="shared" ca="1" si="15"/>
@@ -4407,7 +5295,7 @@
       </c>
       <c r="B98" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="C98" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4444,7 +5332,7 @@
       </c>
       <c r="B99" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="C99" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4460,7 +5348,7 @@
       </c>
       <c r="F99" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G99" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4468,7 +5356,7 @@
       </c>
       <c r="H99" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I99" s="8">
         <f t="shared" ca="1" si="15"/>
@@ -4481,11 +5369,11 @@
       </c>
       <c r="B100" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C100" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D100" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4505,7 +5393,7 @@
       </c>
       <c r="H100" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I100" s="8">
         <f t="shared" ca="1" si="15"/>
@@ -4518,11 +5406,11 @@
       </c>
       <c r="B101" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="C101" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D101" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4530,7 +5418,7 @@
       </c>
       <c r="E101" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F101" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4546,7 +5434,7 @@
       </c>
       <c r="I101" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -4555,7 +5443,7 @@
       </c>
       <c r="B102" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="C102" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4567,7 +5455,7 @@
       </c>
       <c r="E102" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F102" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4575,7 +5463,7 @@
       </c>
       <c r="G102" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H102" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4583,7 +5471,7 @@
       </c>
       <c r="I102" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4594,5 +5482,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ZelenakSz_13.A_lampak.xlsx
+++ b/ZelenakSz_13.A_lampak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zelenaksz\Desktop\cucc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{44290CD8-F6A4-4B4B-BF94-5CBA450D90F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{10F8FE12-3C32-43AA-94A5-83B7611F7F45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{83E2134B-7878-4807-8A5C-88B4790D783A}"/>
   </bookViews>
@@ -490,6 +490,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Bekapcsolt lámpák számának gyakorisága</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -587,25 +613,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1664,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A68BDDD-20BA-41B3-BFB5-B7E05B9F6C62}">
   <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,7 +1744,7 @@
       </c>
       <c r="B3" s="8" t="str">
         <f t="shared" ref="B3:B66" ca="1" si="0">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="C3" s="8" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $C$1, C2 = "Ég"),"Ég","")</f>
@@ -1734,7 +1760,7 @@
       </c>
       <c r="F3" s="8" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $F$1, F2 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G3" s="8" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $G$1, G2 = "Ég"),"Ég","")</f>
@@ -1742,7 +1768,7 @@
       </c>
       <c r="H3" s="8" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B3 = $H$1, H2 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I3" s="8">
         <f ca="1">COUNTIF(B3:H3,"Ég")</f>
@@ -1779,11 +1805,11 @@
       </c>
       <c r="B4" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="C4" s="8" t="str">
         <f t="shared" ref="C4:C67" ca="1" si="1" xml:space="preserve"> IF(_xlfn.XOR(B4 = $C$1, C3 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D4" s="8" t="str">
         <f t="shared" ref="D4:D67" ca="1" si="2" xml:space="preserve"> IF(_xlfn.XOR(B4 = $D$1, D3 = "Ég"),"Ég","")</f>
@@ -1795,15 +1821,15 @@
       </c>
       <c r="F4" s="8" t="str">
         <f t="shared" ref="F4:F67" ca="1" si="4" xml:space="preserve"> IF(_xlfn.XOR(B4 = $F$1, F3 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G4" s="8" t="str">
         <f t="shared" ref="G4:G67" ca="1" si="5" xml:space="preserve"> IF(_xlfn.XOR(B4 = $G$1, G3 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H4" s="8" t="str">
         <f t="shared" ref="H4:H67" ca="1" si="6" xml:space="preserve"> IF(_xlfn.XOR(B4 = $H$1, H3 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I4" s="8">
         <f t="shared" ref="I4:I67" ca="1" si="7">COUNTIF(B4:H4,"Ég")</f>
@@ -1814,23 +1840,23 @@
       </c>
       <c r="L4" s="5">
         <f ca="1">COUNTIF($I$3:$I$102,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="5">
         <f ca="1">COUNTIF($I$3:$I$102,1)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N4" s="5">
         <f ca="1">COUNTIF($I$3:$I$102,2)</f>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O4" s="5">
         <f ca="1">COUNTIF($I$3:$I$102,3)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P4" s="5">
         <f ca="1">COUNTIF($I$3:$I$102,4)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="5">
         <f ca="1">COUNTIF($I$3:$I$102,5)</f>
@@ -1838,7 +1864,7 @@
       </c>
       <c r="R4" s="5">
         <f ca="1">COUNTIF($I$3:$I$102,6)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1851,7 +1877,7 @@
       </c>
       <c r="C5" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D5" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1863,26 +1889,26 @@
       </c>
       <c r="F5" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G5" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H5" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I5" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="L5" s="7" t="str">
+      <c r="L5" s="7">
         <f ca="1">IFERROR(MATCH(6,$I$3:$I$102,0),"Nincs ilyen")</f>
-        <v>Nincs ilyen</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1891,7 +1917,7 @@
       </c>
       <c r="B6" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="C6" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1899,7 +1925,7 @@
       </c>
       <c r="D6" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E6" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1907,19 +1933,19 @@
       </c>
       <c r="F6" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G6" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H6" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I6" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1928,7 +1954,7 @@
       </c>
       <c r="B7" s="8" t="str">
         <f ca="1">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="C7" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1936,7 +1962,7 @@
       </c>
       <c r="D7" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E7" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1944,7 +1970,7 @@
       </c>
       <c r="F7" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G7" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1965,7 +1991,7 @@
       </c>
       <c r="B8" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="C8" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1981,11 +2007,11 @@
       </c>
       <c r="F8" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G8" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H8" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2002,11 +2028,11 @@
       </c>
       <c r="B9" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="C9" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D9" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2018,7 +2044,7 @@
       </c>
       <c r="F9" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G9" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2030,7 +2056,7 @@
       </c>
       <c r="I9" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -2039,11 +2065,11 @@
       </c>
       <c r="B10" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="C10" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D10" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2059,7 +2085,7 @@
       </c>
       <c r="G10" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H10" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2067,7 +2093,7 @@
       </c>
       <c r="I10" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -2080,7 +2106,7 @@
       </c>
       <c r="C11" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D11" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2096,7 +2122,7 @@
       </c>
       <c r="G11" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H11" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2104,7 +2130,7 @@
       </c>
       <c r="I11" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -2113,7 +2139,7 @@
       </c>
       <c r="B12" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="C12" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2150,7 +2176,7 @@
       </c>
       <c r="B13" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="C13" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2158,7 +2184,7 @@
       </c>
       <c r="D13" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E13" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2170,7 +2196,7 @@
       </c>
       <c r="G13" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H13" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2187,7 +2213,7 @@
       </c>
       <c r="B14" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="C14" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2195,7 +2221,7 @@
       </c>
       <c r="D14" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E14" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2211,11 +2237,11 @@
       </c>
       <c r="H14" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I14" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -2232,7 +2258,7 @@
       </c>
       <c r="D15" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E15" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2248,11 +2274,11 @@
       </c>
       <c r="H15" s="8" t="str">
         <f ca="1" xml:space="preserve"> IF(_xlfn.XOR(B15 = $H$1, H14 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I15" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -2261,15 +2287,15 @@
       </c>
       <c r="B16" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="C16" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D16" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E16" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2298,19 +2324,19 @@
       </c>
       <c r="B17" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="C17" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D17" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E17" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F17" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2322,7 +2348,7 @@
       </c>
       <c r="H17" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I17" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -2335,15 +2361,15 @@
       </c>
       <c r="B18" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="C18" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D18" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E18" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2376,11 +2402,11 @@
       </c>
       <c r="C19" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D19" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E19" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2400,7 +2426,7 @@
       </c>
       <c r="I19" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2409,19 +2435,19 @@
       </c>
       <c r="B20" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="C20" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D20" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E20" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F20" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2433,11 +2459,11 @@
       </c>
       <c r="H20" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2450,15 +2476,15 @@
       </c>
       <c r="C21" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D21" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E21" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F21" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2470,7 +2496,7 @@
       </c>
       <c r="H21" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I21" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -2483,11 +2509,11 @@
       </c>
       <c r="B22" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="C22" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D22" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2495,7 +2521,7 @@
       </c>
       <c r="E22" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F22" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2520,7 +2546,7 @@
       </c>
       <c r="B23" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="C23" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2532,7 +2558,7 @@
       </c>
       <c r="E23" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F23" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2544,7 +2570,7 @@
       </c>
       <c r="H23" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -2557,11 +2583,11 @@
       </c>
       <c r="B24" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="C24" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D24" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2569,7 +2595,7 @@
       </c>
       <c r="E24" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F24" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2585,7 +2611,7 @@
       </c>
       <c r="I24" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2594,11 +2620,11 @@
       </c>
       <c r="B25" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C25" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D25" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2610,7 +2636,7 @@
       </c>
       <c r="F25" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G25" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2622,7 +2648,7 @@
       </c>
       <c r="I25" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2631,11 +2657,11 @@
       </c>
       <c r="B26" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="C26" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D26" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2651,7 +2677,7 @@
       </c>
       <c r="G26" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H26" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2672,7 +2698,7 @@
       </c>
       <c r="C27" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D27" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2688,7 +2714,7 @@
       </c>
       <c r="G27" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H27" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2705,11 +2731,11 @@
       </c>
       <c r="B28" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="C28" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D28" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2717,7 +2743,7 @@
       </c>
       <c r="E28" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F28" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2725,11 +2751,11 @@
       </c>
       <c r="G28" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H28" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I28" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -2742,7 +2768,7 @@
       </c>
       <c r="B29" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="C29" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2762,11 +2788,11 @@
       </c>
       <c r="G29" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H29" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I29" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -2779,7 +2805,7 @@
       </c>
       <c r="B30" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C30" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2787,7 +2813,7 @@
       </c>
       <c r="D30" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E30" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2795,15 +2821,15 @@
       </c>
       <c r="F30" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G30" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H30" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I30" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -2824,7 +2850,7 @@
       </c>
       <c r="D31" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E31" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2832,19 +2858,19 @@
       </c>
       <c r="F31" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G31" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H31" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I31" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2853,7 +2879,7 @@
       </c>
       <c r="B32" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="C32" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2861,7 +2887,7 @@
       </c>
       <c r="D32" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E32" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2873,7 +2899,7 @@
       </c>
       <c r="G32" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H32" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2898,7 +2924,7 @@
       </c>
       <c r="D33" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E33" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2910,7 +2936,7 @@
       </c>
       <c r="G33" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H33" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2927,7 +2953,7 @@
       </c>
       <c r="B34" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="C34" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2935,11 +2961,11 @@
       </c>
       <c r="D34" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E34" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F34" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2955,7 +2981,7 @@
       </c>
       <c r="I34" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2964,7 +2990,7 @@
       </c>
       <c r="B35" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C35" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2976,11 +3002,11 @@
       </c>
       <c r="E35" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F35" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G35" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2992,7 +3018,7 @@
       </c>
       <c r="I35" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -3013,11 +3039,11 @@
       </c>
       <c r="E36" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F36" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G36" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3029,7 +3055,7 @@
       </c>
       <c r="I36" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -3038,11 +3064,11 @@
       </c>
       <c r="B37" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C37" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D37" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3050,7 +3076,7 @@
       </c>
       <c r="E37" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F37" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3075,11 +3101,11 @@
       </c>
       <c r="B38" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="C38" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D38" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3087,7 +3113,7 @@
       </c>
       <c r="E38" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F38" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3095,11 +3121,11 @@
       </c>
       <c r="G38" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H38" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I38" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -3112,19 +3138,19 @@
       </c>
       <c r="B39" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="C39" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D39" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E39" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F39" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3136,11 +3162,11 @@
       </c>
       <c r="H39" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I39" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3149,7 +3175,7 @@
       </c>
       <c r="B40" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="C40" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3161,7 +3187,7 @@
       </c>
       <c r="E40" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F40" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3173,7 +3199,7 @@
       </c>
       <c r="H40" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I40" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -3186,19 +3212,19 @@
       </c>
       <c r="B41" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="C41" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D41" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E41" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F41" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3210,11 +3236,11 @@
       </c>
       <c r="H41" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I41" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -3223,11 +3249,11 @@
       </c>
       <c r="B42" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C42" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D42" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3235,11 +3261,11 @@
       </c>
       <c r="E42" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F42" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G42" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3247,7 +3273,7 @@
       </c>
       <c r="H42" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I42" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -3260,15 +3286,15 @@
       </c>
       <c r="B43" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="C43" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D43" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E43" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3276,7 +3302,7 @@
       </c>
       <c r="F43" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G43" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3284,11 +3310,11 @@
       </c>
       <c r="H43" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I43" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -3297,7 +3323,7 @@
       </c>
       <c r="B44" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="C44" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3313,7 +3339,7 @@
       </c>
       <c r="F44" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G44" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3321,7 +3347,7 @@
       </c>
       <c r="H44" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I44" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -3334,15 +3360,15 @@
       </c>
       <c r="B45" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="C45" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D45" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E45" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3350,7 +3376,7 @@
       </c>
       <c r="F45" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G45" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3358,11 +3384,11 @@
       </c>
       <c r="H45" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I45" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3371,15 +3397,15 @@
       </c>
       <c r="B46" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="C46" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D46" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E46" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3391,15 +3417,15 @@
       </c>
       <c r="G46" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H46" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I46" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3408,7 +3434,7 @@
       </c>
       <c r="B47" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="C47" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3416,11 +3442,11 @@
       </c>
       <c r="D47" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E47" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F47" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3428,15 +3454,15 @@
       </c>
       <c r="G47" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H47" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I47" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3453,11 +3479,11 @@
       </c>
       <c r="D48" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E48" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F48" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3465,11 +3491,11 @@
       </c>
       <c r="G48" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H48" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I48" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -3482,7 +3508,7 @@
       </c>
       <c r="B49" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="C49" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3490,19 +3516,19 @@
       </c>
       <c r="D49" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E49" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F49" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G49" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H49" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3519,35 +3545,35 @@
       </c>
       <c r="B50" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="C50" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D50" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E50" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F50" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G50" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H50" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I50" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -3556,19 +3582,19 @@
       </c>
       <c r="B51" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="C51" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D51" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E51" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F51" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3580,11 +3606,11 @@
       </c>
       <c r="H51" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I51" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -3593,11 +3619,11 @@
       </c>
       <c r="B52" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C52" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D52" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3605,11 +3631,11 @@
       </c>
       <c r="E52" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F52" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G52" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3617,11 +3643,11 @@
       </c>
       <c r="H52" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I52" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -3630,11 +3656,11 @@
       </c>
       <c r="B53" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="C53" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D53" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3646,7 +3672,7 @@
       </c>
       <c r="F53" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G53" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3667,15 +3693,15 @@
       </c>
       <c r="B54" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C54" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D54" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E54" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3695,7 +3721,7 @@
       </c>
       <c r="I54" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -3704,23 +3730,23 @@
       </c>
       <c r="B55" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="C55" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D55" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E55" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F55" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G55" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3741,7 +3767,7 @@
       </c>
       <c r="B56" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="C56" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3749,19 +3775,19 @@
       </c>
       <c r="D56" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E56" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F56" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G56" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H56" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3778,7 +3804,7 @@
       </c>
       <c r="B57" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="C57" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3786,15 +3812,15 @@
       </c>
       <c r="D57" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E57" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F57" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G57" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3802,11 +3828,11 @@
       </c>
       <c r="H57" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I57" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3815,15 +3841,15 @@
       </c>
       <c r="B58" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="C58" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D58" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E58" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3831,7 +3857,7 @@
       </c>
       <c r="F58" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G58" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3839,7 +3865,7 @@
       </c>
       <c r="H58" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I58" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -3852,7 +3878,7 @@
       </c>
       <c r="B59" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="C59" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3860,7 +3886,7 @@
       </c>
       <c r="D59" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E59" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3876,7 +3902,7 @@
       </c>
       <c r="H59" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I59" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -3889,7 +3915,7 @@
       </c>
       <c r="B60" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C60" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3901,7 +3927,7 @@
       </c>
       <c r="E60" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F60" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3913,7 +3939,7 @@
       </c>
       <c r="H60" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I60" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -3926,7 +3952,7 @@
       </c>
       <c r="B61" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C61" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3934,15 +3960,15 @@
       </c>
       <c r="D61" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E61" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F61" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G61" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3950,7 +3976,7 @@
       </c>
       <c r="H61" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I61" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -3963,7 +3989,7 @@
       </c>
       <c r="B62" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="C62" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3971,19 +3997,19 @@
       </c>
       <c r="D62" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E62" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F62" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G62" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H62" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -4000,31 +4026,31 @@
       </c>
       <c r="B63" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="C63" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D63" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E63" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F63" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G63" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H63" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I63" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -4037,7 +4063,7 @@
       </c>
       <c r="B64" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="C64" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4049,23 +4075,23 @@
       </c>
       <c r="E64" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F64" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G64" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H64" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I64" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -4074,7 +4100,7 @@
       </c>
       <c r="B65" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="C65" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4086,7 +4112,7 @@
       </c>
       <c r="E65" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F65" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4098,7 +4124,7 @@
       </c>
       <c r="H65" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I65" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -4111,7 +4137,7 @@
       </c>
       <c r="B66" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="C66" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4119,7 +4145,7 @@
       </c>
       <c r="D66" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E66" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4135,7 +4161,7 @@
       </c>
       <c r="H66" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I66" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -4148,15 +4174,15 @@
       </c>
       <c r="B67" s="8" t="str">
         <f t="shared" ref="B67:B102" ca="1" si="8">MID("ABCDEF", RANDBETWEEN(1,6),1)</f>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="C67" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D67" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E67" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4168,11 +4194,11 @@
       </c>
       <c r="G67" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H67" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I67" s="8">
         <f t="shared" ca="1" si="7"/>
@@ -4189,11 +4215,11 @@
       </c>
       <c r="C68" s="8" t="str">
         <f t="shared" ref="C68:C102" ca="1" si="9" xml:space="preserve"> IF(_xlfn.XOR(B68 = $C$1, C67 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D68" s="8" t="str">
         <f t="shared" ref="D68:D102" ca="1" si="10" xml:space="preserve"> IF(_xlfn.XOR(B68 = $D$1, D67 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E68" s="8" t="str">
         <f t="shared" ref="E68:E102" ca="1" si="11" xml:space="preserve"> IF(_xlfn.XOR(B68 = $E$1, E67 = "Ég"),"Ég","")</f>
@@ -4205,15 +4231,15 @@
       </c>
       <c r="G68" s="8" t="str">
         <f t="shared" ref="G68:G102" ca="1" si="13" xml:space="preserve"> IF(_xlfn.XOR(B68 = $G$1, G67 = "Ég"),"Ég","")</f>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H68" s="8" t="str">
         <f t="shared" ref="H68:H102" ca="1" si="14" xml:space="preserve"> IF(_xlfn.XOR(B68 = $H$1, H67 = "Ég"),"Ég","")</f>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I68" s="8">
         <f t="shared" ref="I68:I102" ca="1" si="15">COUNTIF(B68:H68,"Ég")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -4222,7 +4248,7 @@
       </c>
       <c r="B69" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="C69" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4230,11 +4256,11 @@
       </c>
       <c r="D69" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E69" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F69" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4242,15 +4268,15 @@
       </c>
       <c r="G69" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H69" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I69" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -4259,7 +4285,7 @@
       </c>
       <c r="B70" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C70" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4271,19 +4297,19 @@
       </c>
       <c r="E70" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F70" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G70" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H70" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I70" s="8">
         <f t="shared" ca="1" si="15"/>
@@ -4296,7 +4322,7 @@
       </c>
       <c r="B71" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="C71" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4304,15 +4330,15 @@
       </c>
       <c r="D71" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E71" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F71" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G71" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4320,11 +4346,11 @@
       </c>
       <c r="H71" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I71" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -4333,15 +4359,15 @@
       </c>
       <c r="B72" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="C72" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D72" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E72" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4349,7 +4375,7 @@
       </c>
       <c r="F72" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G72" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4357,11 +4383,11 @@
       </c>
       <c r="H72" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I72" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -4370,11 +4396,11 @@
       </c>
       <c r="B73" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C73" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D73" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4394,11 +4420,11 @@
       </c>
       <c r="H73" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I73" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -4407,7 +4433,7 @@
       </c>
       <c r="B74" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="C74" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4415,7 +4441,7 @@
       </c>
       <c r="D74" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E74" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4431,7 +4457,7 @@
       </c>
       <c r="H74" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I74" s="8">
         <f t="shared" ca="1" si="15"/>
@@ -4444,7 +4470,7 @@
       </c>
       <c r="B75" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C75" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4456,7 +4482,7 @@
       </c>
       <c r="E75" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F75" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4468,11 +4494,11 @@
       </c>
       <c r="H75" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I75" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -4481,7 +4507,7 @@
       </c>
       <c r="B76" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="C76" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4489,7 +4515,7 @@
       </c>
       <c r="D76" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E76" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4505,7 +4531,7 @@
       </c>
       <c r="H76" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I76" s="8">
         <f t="shared" ca="1" si="15"/>
@@ -4518,7 +4544,7 @@
       </c>
       <c r="B77" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="C77" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4538,11 +4564,11 @@
       </c>
       <c r="G77" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H77" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I77" s="8">
         <f t="shared" ca="1" si="15"/>
@@ -4575,11 +4601,11 @@
       </c>
       <c r="G78" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H78" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I78" s="8">
         <f t="shared" ca="1" si="15"/>
@@ -4592,7 +4618,7 @@
       </c>
       <c r="B79" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="C79" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4600,11 +4626,11 @@
       </c>
       <c r="D79" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E79" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F79" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4612,15 +4638,15 @@
       </c>
       <c r="G79" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H79" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I79" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -4629,19 +4655,19 @@
       </c>
       <c r="B80" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="C80" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D80" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E80" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F80" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4653,7 +4679,7 @@
       </c>
       <c r="H80" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I80" s="8">
         <f t="shared" ca="1" si="15"/>
@@ -4666,7 +4692,7 @@
       </c>
       <c r="B81" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="C81" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4674,11 +4700,11 @@
       </c>
       <c r="D81" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E81" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F81" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4694,7 +4720,7 @@
       </c>
       <c r="I81" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -4703,11 +4729,11 @@
       </c>
       <c r="B82" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="C82" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D82" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4715,7 +4741,7 @@
       </c>
       <c r="E82" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F82" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4744,7 +4770,7 @@
       </c>
       <c r="C83" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D83" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4752,7 +4778,7 @@
       </c>
       <c r="E83" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F83" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4781,7 +4807,7 @@
       </c>
       <c r="C84" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D84" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4789,7 +4815,7 @@
       </c>
       <c r="E84" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F84" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4814,19 +4840,19 @@
       </c>
       <c r="B85" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="C85" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D85" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E85" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F85" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4834,7 +4860,7 @@
       </c>
       <c r="G85" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H85" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4842,7 +4868,7 @@
       </c>
       <c r="I85" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -4851,11 +4877,11 @@
       </c>
       <c r="B86" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="C86" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D86" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4863,15 +4889,15 @@
       </c>
       <c r="E86" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F86" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G86" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H86" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4879,7 +4905,7 @@
       </c>
       <c r="I86" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -4888,11 +4914,11 @@
       </c>
       <c r="B87" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="C87" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D87" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4900,11 +4926,11 @@
       </c>
       <c r="E87" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F87" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G87" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4912,11 +4938,11 @@
       </c>
       <c r="H87" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I87" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -4929,7 +4955,7 @@
       </c>
       <c r="C88" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D88" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4937,11 +4963,11 @@
       </c>
       <c r="E88" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F88" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G88" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4949,11 +4975,11 @@
       </c>
       <c r="H88" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I88" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -4962,11 +4988,11 @@
       </c>
       <c r="B89" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="C89" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D89" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4986,11 +5012,11 @@
       </c>
       <c r="H89" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I89" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -4999,7 +5025,7 @@
       </c>
       <c r="B90" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="C90" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5036,11 +5062,11 @@
       </c>
       <c r="B91" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C91" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D91" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5052,7 +5078,7 @@
       </c>
       <c r="F91" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G91" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -5073,15 +5099,15 @@
       </c>
       <c r="B92" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="C92" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D92" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E92" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -5089,7 +5115,7 @@
       </c>
       <c r="F92" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G92" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -5097,11 +5123,11 @@
       </c>
       <c r="H92" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I92" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -5110,31 +5136,31 @@
       </c>
       <c r="B93" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="C93" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="D93" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E93" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F93" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G93" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="H93" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I93" s="8">
         <f t="shared" ca="1" si="15"/>
@@ -5147,7 +5173,7 @@
       </c>
       <c r="B94" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="C94" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5155,15 +5181,15 @@
       </c>
       <c r="D94" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E94" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F94" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="G94" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -5171,7 +5197,7 @@
       </c>
       <c r="H94" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I94" s="8">
         <f t="shared" ca="1" si="15"/>
@@ -5184,7 +5210,7 @@
       </c>
       <c r="B95" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="C95" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5192,11 +5218,11 @@
       </c>
       <c r="D95" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="E95" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="F95" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -5204,15 +5230,15 @@
       </c>
       <c r="G95" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H95" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I95" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -5221,7 +5247,7 @@
       </c>
       <c r="B96" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="C96" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5241,15 +5267,15 @@
       </c>
       <c r="G96" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H96" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="I96" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -5258,7 +5284,7 @@
       </c>
       <c r="B97" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="C97" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5270,7 +5296,7 @@
       </c>
       <c r="E97" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F97" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -5278,7 +5304,7 @@
       </c>
       <c r="G97" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H97" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -5286,7 +5312,7 @@
       </c>
       <c r="I97" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -5295,7 +5321,7 @@
       </c>
       <c r="B98" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="C98" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5303,19 +5329,19 @@
       </c>
       <c r="D98" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E98" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F98" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G98" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H98" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -5323,7 +5349,7 @@
       </c>
       <c r="I98" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -5332,31 +5358,31 @@
       </c>
       <c r="B99" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="C99" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D99" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E99" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F99" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G99" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H99" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I99" s="8">
         <f t="shared" ca="1" si="15"/>
@@ -5369,7 +5395,7 @@
       </c>
       <c r="B100" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C100" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5377,11 +5403,11 @@
       </c>
       <c r="D100" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E100" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F100" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -5389,11 +5415,11 @@
       </c>
       <c r="G100" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H100" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="I100" s="8">
         <f t="shared" ca="1" si="15"/>
@@ -5406,7 +5432,7 @@
       </c>
       <c r="B101" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="C101" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5414,19 +5440,19 @@
       </c>
       <c r="D101" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E101" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F101" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="G101" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H101" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -5434,7 +5460,7 @@
       </c>
       <c r="I101" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -5443,19 +5469,19 @@
       </c>
       <c r="B102" s="8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="C102" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="D102" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ég</v>
+        <v/>
       </c>
       <c r="E102" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="F102" s="8" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -5463,7 +5489,7 @@
       </c>
       <c r="G102" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
+        <v>Ég</v>
       </c>
       <c r="H102" s="8" t="str">
         <f t="shared" ca="1" si="14"/>
